--- a/data_clean/Orkla 21.12.2020.xlsx
+++ b/data_clean/Orkla 21.12.2020.xlsx
@@ -1578,7 +1578,7 @@
         <v>1.11594002823831</v>
       </c>
       <c r="K2">
-        <v>50.26390212607304</v>
+        <v>0.002639021260730436</v>
       </c>
       <c r="L2">
         <v>0.0004224417302795176</v>
@@ -1608,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.01498953120772223</v>
@@ -1679,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1720,7 +1720,7 @@
         <v>1.315789473684351</v>
       </c>
       <c r="K4">
-        <v>56.81818181818443</v>
+        <v>0.06818181818184432</v>
       </c>
       <c r="L4">
         <v>-0.004078499169421223</v>
@@ -1750,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000235904694503</v>
+        <v>0.0002359046945032972</v>
       </c>
       <c r="V4">
-        <v>1.000235904694503</v>
+        <v>0.0002359046945032972</v>
       </c>
       <c r="W4">
-        <v>1.001180080245457</v>
+        <v>0.001180080245456683</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1791,7 +1791,7 @@
         <v>1.315789473684351</v>
       </c>
       <c r="K5">
-        <v>56.81818181818443</v>
+        <v>0.06818181818184432</v>
       </c>
       <c r="L5">
         <v>-0.0002310218773662852</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000117924528302</v>
+        <v>0.0001179245283018382</v>
       </c>
       <c r="V5">
-        <v>1.000117924528302</v>
+        <v>0.0001179245283018382</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1862,7 +1862,7 @@
         <v>0.3948116715517285</v>
       </c>
       <c r="K6">
-        <v>28.30573328315359</v>
+        <v>-0.2169426671684642</v>
       </c>
       <c r="L6">
         <v>-0.002392632313411125</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.9996934323782574</v>
+        <v>-0.0003065676217426372</v>
       </c>
       <c r="V6">
-        <v>0.9996934323782574</v>
+        <v>-0.0003065676217426372</v>
       </c>
       <c r="W6">
-        <v>0.9981140971239981</v>
+        <v>-0.001885902876001877</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1933,7 +1933,7 @@
         <v>1.223691693470984</v>
       </c>
       <c r="K7">
-        <v>55.02973712875234</v>
+        <v>0.05029737128752343</v>
       </c>
       <c r="L7">
         <v>-0.001473589359399685</v>
@@ -1963,13 +1963,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000149399257722</v>
+        <v>0.0001493992577215053</v>
       </c>
       <c r="V7">
-        <v>1.000149399257722</v>
+        <v>0.0001493992577215053</v>
       </c>
       <c r="W7">
-        <v>1.002125649504015</v>
+        <v>0.002125649504014948</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2004,7 +2004,7 @@
         <v>1.417581757077865</v>
       </c>
       <c r="K8">
-        <v>58.63635233545519</v>
+        <v>0.08636352335455189</v>
       </c>
       <c r="L8">
         <v>0.0003748712247596543</v>
@@ -2034,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000174085908588</v>
+        <v>0.0001740859085881397</v>
       </c>
       <c r="V8">
-        <v>1.000174085908588</v>
+        <v>0.0001740859085881397</v>
       </c>
       <c r="W8">
-        <v>1.000471364600519</v>
+        <v>0.0004713646005185534</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2075,7 +2075,7 @@
         <v>1.417581757077865</v>
       </c>
       <c r="K9">
-        <v>58.63635233545519</v>
+        <v>0.08636352335455189</v>
       </c>
       <c r="L9">
         <v>0.002077128699333653</v>
@@ -2105,13 +2105,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.00013054170597</v>
+        <v>0.0001305417059696001</v>
       </c>
       <c r="V9">
-        <v>1.00013054170597</v>
+        <v>0.0001305417059696001</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2146,7 +2146,7 @@
         <v>2.384346617167389</v>
       </c>
       <c r="K10">
-        <v>70.45219910610177</v>
+        <v>0.2045219910610178</v>
       </c>
       <c r="L10">
         <v>0.00506116689945825</v>
@@ -2176,13 +2176,13 @@
         <v>0.003888888888880615</v>
       </c>
       <c r="U10">
-        <v>1.000337305680817</v>
+        <v>0.0003373056808171349</v>
       </c>
       <c r="V10">
-        <v>1.000337305680817</v>
+        <v>0.0003373056808171349</v>
       </c>
       <c r="W10">
-        <v>1.002120141342756</v>
+        <v>0.002120141342756066</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2217,7 +2217,7 @@
         <v>1.523194202130962</v>
       </c>
       <c r="K11">
-        <v>60.3676958691705</v>
+        <v>0.103676958691705</v>
       </c>
       <c r="L11">
         <v>0.007228856123365892</v>
@@ -2247,13 +2247,13 @@
         <v>0.0210000000000008</v>
       </c>
       <c r="U11">
-        <v>1.000151900060236</v>
+        <v>0.0001519000602363541</v>
       </c>
       <c r="V11">
-        <v>1.000151900060236</v>
+        <v>0.0001519000602363541</v>
       </c>
       <c r="W11">
-        <v>0.9988246356370476</v>
+        <v>-0.001175364362952402</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2288,7 +2288,7 @@
         <v>1.41556114916536</v>
       </c>
       <c r="K12">
-        <v>58.60175179810594</v>
+        <v>0.08601751798105939</v>
       </c>
       <c r="L12">
         <v>0.008592400451085945</v>
@@ -2318,13 +2318,13 @@
         <v>0.02727272727273089</v>
       </c>
       <c r="U12">
-        <v>1.000102838338133</v>
+        <v>0.000102838338132516</v>
       </c>
       <c r="V12">
-        <v>1.000102838338133</v>
+        <v>0.000102838338132516</v>
       </c>
       <c r="W12">
-        <v>0.9997646505060013</v>
+        <v>-0.0002353494939987266</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2359,7 +2359,7 @@
         <v>1.564324780659706</v>
       </c>
       <c r="K13">
-        <v>61.00337962094112</v>
+        <v>0.1100337962094112</v>
       </c>
       <c r="L13">
         <v>0.009658832874242513</v>
@@ -2389,13 +2389,13 @@
         <v>0.03666666666666174</v>
       </c>
       <c r="U13">
-        <v>1.000124964295916</v>
+        <v>0.000124964295915575</v>
       </c>
       <c r="V13">
-        <v>1.000124964295916</v>
+        <v>0.000124964295915575</v>
       </c>
       <c r="W13">
-        <v>1.000470809792844</v>
+        <v>0.0004708097928438626</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2430,7 +2430,7 @@
         <v>0.7752408746691474</v>
       </c>
       <c r="K14">
-        <v>43.66961609159824</v>
+        <v>-0.06330383908401754</v>
       </c>
       <c r="L14">
         <v>0.008814916476092028</v>
@@ -2460,13 +2460,13 @@
         <v>0.05519230769232308</v>
       </c>
       <c r="U14">
-        <v>0.9998701082934343</v>
+        <v>-0.0001298917065657434</v>
       </c>
       <c r="V14">
-        <v>0.9998701082934343</v>
+        <v>-0.0001298917065657434</v>
       </c>
       <c r="W14">
-        <v>0.9969411764705882</v>
+        <v>-0.00305882352941178</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2501,7 +2501,7 @@
         <v>0.6906178825201886</v>
       </c>
       <c r="K15">
-        <v>40.85002824474392</v>
+        <v>-0.09149971755256081</v>
       </c>
       <c r="L15">
         <v>0.00672736635927901</v>
@@ -2531,13 +2531,13 @@
         <v>0.04642857142857792</v>
       </c>
       <c r="U15">
-        <v>0.999838153761695</v>
+        <v>-0.0001618462383049524</v>
       </c>
       <c r="V15">
-        <v>0.999838153761695</v>
+        <v>-0.0001618462383049524</v>
       </c>
       <c r="W15">
-        <v>0.9992919518527261</v>
+        <v>-0.0007080481472738764</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2572,7 +2572,7 @@
         <v>0.6414796287070242</v>
       </c>
       <c r="K16">
-        <v>39.07935362026458</v>
+        <v>-0.1092064637973542</v>
       </c>
       <c r="L16">
         <v>0.003943277185836526</v>
@@ -2602,13 +2602,13 @@
         <v>0.02849999999997976</v>
       </c>
       <c r="U16">
-        <v>0.9998282857190958</v>
+        <v>-0.0001717142809042338</v>
       </c>
       <c r="V16">
-        <v>0.9998282857190958</v>
+        <v>-0.0001717142809042338</v>
       </c>
       <c r="W16">
-        <v>0.9995276334435521</v>
+        <v>-0.0004723665564478896</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2643,7 +2643,7 @@
         <v>0.6789276003040654</v>
       </c>
       <c r="K17">
-        <v>40.43817018560579</v>
+        <v>-0.09561829814394207</v>
       </c>
       <c r="L17">
         <v>0.00111959527006268</v>
@@ -2673,13 +2673,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U17">
-        <v>0.9998644571213048</v>
+        <v>-0.0001355428786952162</v>
       </c>
       <c r="V17">
-        <v>0.9998742790690364</v>
+        <v>-0.0001257209309636353</v>
       </c>
       <c r="W17">
-        <v>1.00023629489603</v>
+        <v>0.0002362948960301647</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2714,7 +2714,7 @@
         <v>0.7183465177746631</v>
       </c>
       <c r="K18">
-        <v>41.80452023756852</v>
+        <v>-0.08195479762431473</v>
       </c>
       <c r="L18">
         <v>-0.001399541816248051</v>
@@ -2744,13 +2744,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U18">
-        <v>0.9998942552885358</v>
+        <v>-0.0001057447114641841</v>
       </c>
       <c r="V18">
-        <v>0.9999528487229864</v>
+        <v>-4.715127701360178E-05</v>
       </c>
       <c r="W18">
-        <v>1.000236239073943</v>
+        <v>0.0002362390739429898</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2785,7 +2785,7 @@
         <v>1.382244075173848</v>
       </c>
       <c r="K19">
-        <v>58.02277313137935</v>
+        <v>0.08022773131379346</v>
       </c>
       <c r="L19">
         <v>-0.001951690645874574</v>
@@ -2815,13 +2815,13 @@
         <v>-0.04500000000000171</v>
       </c>
       <c r="U19">
-        <v>1.000115580212668</v>
+        <v>0.0001155802126675542</v>
       </c>
       <c r="V19">
-        <v>1.00012574266763</v>
+        <v>0.0001257426676304352</v>
       </c>
       <c r="W19">
-        <v>1.003778932451582</v>
+        <v>0.003778932451582451</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2856,7 +2856,7 @@
         <v>1.382244075173848</v>
       </c>
       <c r="K20">
-        <v>58.02277313137935</v>
+        <v>0.08022773131379346</v>
       </c>
       <c r="L20">
         <v>-0.001363239844504395</v>
@@ -2886,13 +2886,13 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="U20">
-        <v>1.000103401923276</v>
+        <v>0.0001034019232757366</v>
       </c>
       <c r="V20">
-        <v>1.0001257268584</v>
+        <v>0.000125726858400288</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2927,7 +2927,7 @@
         <v>1.566149215727638</v>
       </c>
       <c r="K21">
-        <v>61.03110474359352</v>
+        <v>0.1103110474359351</v>
       </c>
       <c r="L21">
         <v>0.0002119177649393223</v>
@@ -2957,13 +2957,13 @@
         <v>-0.05499999999999261</v>
       </c>
       <c r="U21">
-        <v>1.000140198511166</v>
+        <v>0.0001401985111662007</v>
       </c>
       <c r="V21">
-        <v>1.000314277632861</v>
+        <v>0.0003142776328608488</v>
       </c>
       <c r="W21">
-        <v>1.000941176470588</v>
+        <v>0.0009411764705882231</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2998,7 +2998,7 @@
         <v>0.776737254429392</v>
       </c>
       <c r="K22">
-        <v>43.71705791010979</v>
+        <v>-0.06282942089890214</v>
       </c>
       <c r="L22">
         <v>0.0002600433354327741</v>
@@ -3028,13 +3028,13 @@
         <v>-0.06374999999999886</v>
       </c>
       <c r="U22">
-        <v>0.9998911295255605</v>
+        <v>-0.0001088704744395264</v>
       </c>
       <c r="V22">
-        <v>0.9998429105532691</v>
+        <v>-0.0001570894467308737</v>
       </c>
       <c r="W22">
-        <v>0.9950634696755994</v>
+        <v>-0.004936530324400557</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3069,7 +3069,7 @@
         <v>0.9030646869378117</v>
       </c>
       <c r="K23">
-        <v>47.45317871411493</v>
+        <v>-0.02546821285885065</v>
       </c>
       <c r="L23">
         <v>-0.0001105601647801216</v>
@@ -3099,13 +3099,13 @@
         <v>-0.04749999999999943</v>
       </c>
       <c r="U23">
-        <v>0.9999545898442482</v>
+        <v>-4.541015575176832E-05</v>
       </c>
       <c r="V23">
-        <v>0.9998900201106082</v>
+        <v>-0.0001099798893917647</v>
       </c>
       <c r="W23">
-        <v>1.001181195369714</v>
+        <v>0.001181195369714283</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3140,7 +3140,7 @@
         <v>1.328588670124022</v>
       </c>
       <c r="K24">
-        <v>57.05553269969576</v>
+        <v>0.07055532699695766</v>
       </c>
       <c r="L24">
         <v>0.0007679316653752558</v>
@@ -3170,13 +3170,13 @@
         <v>-0.003749999999982379</v>
       </c>
       <c r="U24">
-        <v>1.000122526467814</v>
+        <v>0.0001225264678135218</v>
       </c>
       <c r="V24">
-        <v>1.000141418268098</v>
+        <v>0.0001414182680976594</v>
       </c>
       <c r="W24">
-        <v>1.003775365738556</v>
+        <v>0.003775365738555747</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3211,7 +3211,7 @@
         <v>1.328588670124022</v>
       </c>
       <c r="K25">
-        <v>57.05553269969577</v>
+        <v>0.07055532699695766</v>
       </c>
       <c r="L25">
         <v>0.002312420700664332</v>
@@ -3241,13 +3241,13 @@
         <v>0.0374999999999801</v>
       </c>
       <c r="U25">
-        <v>1.000112302168841</v>
+        <v>0.0001123021688409498</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3282,7 +3282,7 @@
         <v>1.254643922298963</v>
       </c>
       <c r="K26">
-        <v>55.64709841275764</v>
+        <v>0.05647098412757645</v>
       </c>
       <c r="L26">
         <v>0.003954583598066115</v>
@@ -3312,13 +3312,13 @@
         <v>0.08500000000000796</v>
       </c>
       <c r="U26">
-        <v>1.000084451994933</v>
+        <v>8.445199493278821E-05</v>
       </c>
       <c r="V26">
-        <v>1.000047132757266</v>
+        <v>4.713275726642152E-05</v>
       </c>
       <c r="W26">
-        <v>0.9995298542548191</v>
+        <v>-0.0004701457451808944</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3353,7 +3353,7 @@
         <v>1.283936877450647</v>
       </c>
       <c r="K27">
-        <v>56.21595281931741</v>
+        <v>0.06215952819317405</v>
       </c>
       <c r="L27">
         <v>0.005618274681012799</v>
@@ -3383,13 +3383,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U27">
-        <v>1.000087012954054</v>
+        <v>8.70129540535558E-05</v>
       </c>
       <c r="V27">
-        <v>1.000078550893124</v>
+        <v>7.85508931238077E-05</v>
       </c>
       <c r="W27">
-        <v>1.000235183443086</v>
+        <v>0.0002351834430855959</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3424,7 +3424,7 @@
         <v>1.407275635984076</v>
       </c>
       <c r="K28">
-        <v>58.4592646952451</v>
+        <v>0.08459264695245106</v>
       </c>
       <c r="L28">
         <v>0.007517410694935707</v>
@@ -3454,13 +3454,13 @@
         <v>0.09374999999998579</v>
       </c>
       <c r="U28">
-        <v>1.000115470107676</v>
+        <v>0.0001154701076759856</v>
       </c>
       <c r="V28">
-        <v>1.000109962612712</v>
+        <v>0.0001099626127119002</v>
       </c>
       <c r="W28">
-        <v>1.000940512579356</v>
+        <v>0.00094051257935579</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3495,7 +3495,7 @@
         <v>1.282404447203183</v>
       </c>
       <c r="K29">
-        <v>56.18655575152852</v>
+        <v>0.06186555751528522</v>
       </c>
       <c r="L29">
         <v>0.009137583769431983</v>
@@ -3525,13 +3525,13 @@
         <v>0.08874999999999034</v>
       </c>
       <c r="U29">
-        <v>1.000081965680377</v>
+        <v>8.196568037743823E-05</v>
       </c>
       <c r="V29">
-        <v>1.000267022696929</v>
+        <v>0.0002670226969290201</v>
       </c>
       <c r="W29">
-        <v>0.9992952783650457</v>
+        <v>-0.0007047216349542751</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3566,7 +3566,7 @@
         <v>1.14038445124645</v>
       </c>
       <c r="K30">
-        <v>53.27942139471013</v>
+        <v>0.03279421394710125</v>
       </c>
       <c r="L30">
         <v>0.01009893664170926</v>
@@ -3596,13 +3596,13 @@
         <v>0.1149999999999949</v>
       </c>
       <c r="U30">
-        <v>1.000043811025349</v>
+        <v>4.381102534911641E-05</v>
       </c>
       <c r="V30">
-        <v>1.00025124839044</v>
+        <v>0.0002512483904399954</v>
       </c>
       <c r="W30">
-        <v>0.999059708509638</v>
+        <v>-0.0009402914903620108</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3637,7 +3637,7 @@
         <v>1.14038445124645</v>
       </c>
       <c r="K31">
-        <v>53.27942139471013</v>
+        <v>0.03279421394710125</v>
       </c>
       <c r="L31">
         <v>0.01056578540998617</v>
@@ -3667,13 +3667,13 @@
         <v>0.125</v>
       </c>
       <c r="U31">
-        <v>1.000040888498959</v>
+        <v>4.088849895889091E-05</v>
       </c>
       <c r="V31">
-        <v>1.00028258344061</v>
+        <v>0.0002825834406103844</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3708,7 +3708,7 @@
         <v>1.232416382016939</v>
       </c>
       <c r="K32">
-        <v>55.2054890810055</v>
+        <v>0.05205489081005499</v>
       </c>
       <c r="L32">
         <v>0.01092842113613315</v>
@@ -3738,13 +3738,13 @@
         <v>0.09625000000001194</v>
       </c>
       <c r="U32">
-        <v>1.000094229244046</v>
+        <v>9.422924404578481E-05</v>
       </c>
       <c r="V32">
-        <v>1.000313892899743</v>
+        <v>0.000313892899742596</v>
       </c>
       <c r="W32">
-        <v>1.000705882352941</v>
+        <v>0.0007058823529411118</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3779,7 +3779,7 @@
         <v>1.091437938760409</v>
       </c>
       <c r="K33">
-        <v>52.18600650456318</v>
+        <v>0.02186006504563176</v>
       </c>
       <c r="L33">
         <v>0.01081620734261245</v>
@@ -3809,13 +3809,13 @@
         <v>0.06374999999999886</v>
       </c>
       <c r="U33">
-        <v>1.000094220365732</v>
+        <v>9.422036573214498E-05</v>
       </c>
       <c r="V33">
-        <v>1.000235345801431</v>
+        <v>0.0002353458014308085</v>
       </c>
       <c r="W33">
-        <v>0.9990594874206443</v>
+        <v>-0.000940512579355679</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3850,7 +3850,7 @@
         <v>1.09143793876041</v>
       </c>
       <c r="K34">
-        <v>52.1860065045632</v>
+        <v>0.02186006504563198</v>
       </c>
       <c r="L34">
         <v>0.01038591050428154</v>
@@ -3880,13 +3880,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U34">
-        <v>1.00005495670197</v>
+        <v>5.495670196986602E-05</v>
       </c>
       <c r="V34">
-        <v>0.9999843139715455</v>
+        <v>-1.568602845447575E-05</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3921,7 +3921,7 @@
         <v>1.026390434570933</v>
       </c>
       <c r="K35">
-        <v>50.65116855371756</v>
+        <v>0.006511685537175627</v>
       </c>
       <c r="L35">
         <v>0.00958040065151433</v>
@@ -3951,13 +3951,13 @@
         <v>0.02625000000000455</v>
       </c>
       <c r="U35">
-        <v>1.000039252629926</v>
+        <v>3.925262992643397E-05</v>
       </c>
       <c r="V35">
-        <v>0.9999529411764707</v>
+        <v>-4.705882352928903E-05</v>
       </c>
       <c r="W35">
-        <v>0.9995293010120028</v>
+        <v>-0.0004706989879972312</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3992,7 +3992,7 @@
         <v>0.965801165717304</v>
       </c>
       <c r="K36">
-        <v>49.13015530565582</v>
+        <v>-0.008698446943441795</v>
       </c>
       <c r="L36">
         <v>0.008392574291959679</v>
@@ -4022,13 +4022,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U36">
-        <v>1.000086352396279</v>
+        <v>8.635239627885483E-05</v>
       </c>
       <c r="V36">
-        <v>0.9998588168855005</v>
+        <v>-0.0001411831144995102</v>
       </c>
       <c r="W36">
-        <v>0.9995290793501296</v>
+        <v>-0.000470920649870421</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4063,7 +4063,7 @@
         <v>0.8834564186364896</v>
       </c>
       <c r="K37">
-        <v>46.90612481896765</v>
+        <v>-0.03093875181032352</v>
       </c>
       <c r="L37">
         <v>0.006760766066940798</v>
@@ -4093,13 +4093,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U37">
-        <v>0.9999921504599829</v>
+        <v>-7.849540017090817E-06</v>
       </c>
       <c r="V37">
-        <v>1.000141203049986</v>
+        <v>0.000141203049985883</v>
       </c>
       <c r="W37">
-        <v>0.9992932862190812</v>
+        <v>-0.0007067137809187996</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4134,7 +4134,7 @@
         <v>0.8577946463946901</v>
       </c>
       <c r="K38">
-        <v>46.1727375552169</v>
+        <v>-0.03827262444783103</v>
       </c>
       <c r="L38">
         <v>0.00485492724998302</v>
@@ -4164,13 +4164,13 @@
         <v>-0.04500000000000171</v>
       </c>
       <c r="U38">
-        <v>0.9999686015934692</v>
+        <v>-3.139840653076931E-05</v>
       </c>
       <c r="V38">
-        <v>1.000047061038166</v>
+        <v>4.706103816642937E-05</v>
       </c>
       <c r="W38">
-        <v>0.9997642621404996</v>
+        <v>-0.0002357378595003734</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4205,7 +4205,7 @@
         <v>1.194128509503259</v>
       </c>
       <c r="K39">
-        <v>54.42381812784541</v>
+        <v>0.04423818127845414</v>
       </c>
       <c r="L39">
         <v>0.003836309411380226</v>
@@ -4235,13 +4235,13 @@
         <v>-0.05749999999999034</v>
       </c>
       <c r="U39">
-        <v>1.000054948936738</v>
+        <v>5.49489367380751E-05</v>
       </c>
       <c r="V39">
-        <v>0.9999686274509804</v>
+        <v>-3.137254901963704E-05</v>
       </c>
       <c r="W39">
-        <v>1.002593727894365</v>
+        <v>0.002593727894364628</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4276,7 +4276,7 @@
         <v>1.121910968795345</v>
       </c>
       <c r="K40">
-        <v>52.87266927284316</v>
+        <v>0.02872669272843165</v>
       </c>
       <c r="L40">
         <v>0.003232482490866762</v>
@@ -4306,13 +4306,13 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="U40">
-        <v>0.9999686023328467</v>
+        <v>-3.139766715332115E-05</v>
       </c>
       <c r="V40">
-        <v>0.9999372529334253</v>
+        <v>-6.274706657471985E-05</v>
       </c>
       <c r="W40">
-        <v>0.9995296331138287</v>
+        <v>-0.0004703668861713028</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4347,7 +4347,7 @@
         <v>1.121910968795345</v>
       </c>
       <c r="K41">
-        <v>52.87266927284316</v>
+        <v>0.02872669272843165</v>
       </c>
       <c r="L41">
         <v>0.002906113881123681</v>
@@ -4377,13 +4377,13 @@
         <v>-0.05249999999998067</v>
       </c>
       <c r="U41">
-        <v>1.00000784966325</v>
+        <v>7.849663249626104E-06</v>
       </c>
       <c r="V41">
-        <v>0.9999686244979921</v>
+        <v>-3.137550200793537E-05</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4418,7 +4418,7 @@
         <v>1.051452367065923</v>
       </c>
       <c r="K42">
-        <v>51.25404732500596</v>
+        <v>0.01254047325005958</v>
       </c>
       <c r="L42">
         <v>0.002585699644076031</v>
@@ -4448,13 +4448,13 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>0.9999215587838475</v>
+        <v>-7.844121615252497E-05</v>
       </c>
       <c r="W42">
-        <v>0.9995294117647058</v>
+        <v>-0.0004705882352942226</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4489,7 +4489,7 @@
         <v>1.017809835504434</v>
       </c>
       <c r="K43">
-        <v>50.44131600488461</v>
+        <v>0.004413160048846176</v>
       </c>
       <c r="L43">
         <v>0.00219396322643445</v>
@@ -4519,13 +4519,13 @@
         <v>-0.04250000000000398</v>
       </c>
       <c r="U43">
-        <v>0.9999764511951019</v>
+        <v>-2.354880489807698E-05</v>
       </c>
       <c r="V43">
-        <v>0.9998431052606804</v>
+        <v>-0.0001568947393195685</v>
       </c>
       <c r="W43">
-        <v>0.9997645951035782</v>
+        <v>-0.0002354048964218203</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4560,7 +4560,7 @@
         <v>0.8236294470117487</v>
       </c>
       <c r="K44">
-        <v>45.16429850161563</v>
+        <v>-0.04835701498384365</v>
       </c>
       <c r="L44">
         <v>0.001174638379878033</v>
@@ -4590,13 +4590,13 @@
         <v>-0.03374999999999773</v>
       </c>
       <c r="U44">
-        <v>1.000023549359457</v>
+        <v>2.354935945736436E-05</v>
       </c>
       <c r="V44">
-        <v>0.9997803128972022</v>
+        <v>-0.0002196871027978498</v>
       </c>
       <c r="W44">
-        <v>0.9983517777254532</v>
+        <v>-0.001648222274546751</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4631,7 +4631,7 @@
         <v>0.881007667188773</v>
       </c>
       <c r="K45">
-        <v>46.837005640996</v>
+        <v>-0.03162994359003996</v>
       </c>
       <c r="L45">
         <v>8.23529812011669E-06</v>
@@ -4661,13 +4661,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U45">
-        <v>1.000062796813062</v>
+        <v>6.279681306153861E-05</v>
       </c>
       <c r="V45">
-        <v>0.9998744369280994</v>
+        <v>-0.0001255630719005918</v>
       </c>
       <c r="W45">
-        <v>1.000471698113208</v>
+        <v>0.0004716981132075748</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4702,7 +4702,7 @@
         <v>1.001803920193013</v>
       </c>
       <c r="K46">
-        <v>50.04505736488015</v>
+        <v>0.0004505736488015222</v>
       </c>
       <c r="L46">
         <v>-0.000829265794757321</v>
@@ -4732,13 +4732,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U46">
-        <v>1.000109887522272</v>
+        <v>0.0001098875222720341</v>
       </c>
       <c r="V46">
-        <v>0.9999372105800174</v>
+        <v>-6.278941998261178E-05</v>
       </c>
       <c r="W46">
-        <v>1.000942951438001</v>
+        <v>0.0009429514380008275</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4773,7 +4773,7 @@
         <v>0.9145841768120623</v>
       </c>
       <c r="K47">
-        <v>47.76933748271748</v>
+        <v>-0.02230662517282522</v>
       </c>
       <c r="L47">
         <v>-0.001668767477077487</v>
@@ -4803,13 +4803,13 @@
         <v>-0.01500000000001478</v>
       </c>
       <c r="U47">
-        <v>1.000078482463093</v>
+        <v>7.848246309349882E-05</v>
       </c>
       <c r="V47">
-        <v>0.9998430165931462</v>
+        <v>-0.0001569834068537723</v>
       </c>
       <c r="W47">
-        <v>0.9992934526613283</v>
+        <v>-0.0007065473386717036</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4844,7 +4844,7 @@
         <v>0.8619235572925604</v>
       </c>
       <c r="K48">
-        <v>46.29210226793044</v>
+        <v>-0.03707897732069559</v>
       </c>
       <c r="L48">
         <v>-0.002621505852948765</v>
@@ -4874,13 +4874,13 @@
         <v>-0.02250000000000796</v>
       </c>
       <c r="U48">
-        <v>1.000054933412856</v>
+        <v>5.493341285589537E-05</v>
       </c>
       <c r="V48">
-        <v>0.9998743935563893</v>
+        <v>-0.0001256064436107041</v>
       </c>
       <c r="W48">
-        <v>0.9995286353994814</v>
+        <v>-0.0004713646005185534</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4915,7 +4915,7 @@
         <v>0.8365715828831398</v>
       </c>
       <c r="K49">
-        <v>45.55072019408298</v>
+        <v>-0.04449279805917022</v>
       </c>
       <c r="L49">
         <v>-0.003658317892384133</v>
@@ -4945,13 +4945,13 @@
         <v>-0.03625000000000966</v>
       </c>
       <c r="U49">
-        <v>0.9999215280066545</v>
+        <v>-7.847199334554134E-05</v>
       </c>
       <c r="V49">
-        <v>0.9998586749996075</v>
+        <v>-0.0001413250003925448</v>
       </c>
       <c r="W49">
-        <v>0.9997642065550578</v>
+        <v>-0.0002357934449421784</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4986,7 +4986,7 @@
         <v>0.8114480812664582</v>
       </c>
       <c r="K50">
-        <v>44.795547256267</v>
+        <v>-0.05204452743733001</v>
       </c>
       <c r="L50">
         <v>-0.004752433699884884</v>
@@ -5016,13 +5016,13 @@
         <v>-0.04625000000000057</v>
       </c>
       <c r="U50">
-        <v>0.9999136740331493</v>
+        <v>-8.63259668506533E-05</v>
       </c>
       <c r="V50">
-        <v>0.9998743600213587</v>
+        <v>-0.0001256399786413454</v>
       </c>
       <c r="W50">
-        <v>0.9997641509433963</v>
+        <v>-0.0002358490566036764</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5057,7 +5057,7 @@
         <v>0.8114480812664582</v>
       </c>
       <c r="K51">
-        <v>44.795547256267</v>
+        <v>-0.05204452743733001</v>
       </c>
       <c r="L51">
         <v>-0.005794231392627799</v>
@@ -5087,13 +5087,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U51">
-        <v>0.9998822726095453</v>
+        <v>-0.0001177273904546805</v>
       </c>
       <c r="V51">
-        <v>0.9999057581754784</v>
+        <v>-9.424182452155705E-05</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5128,7 +5128,7 @@
         <v>0.8114480812664582</v>
       </c>
       <c r="K52">
-        <v>44.795547256267</v>
+        <v>-0.05204452743733001</v>
       </c>
       <c r="L52">
         <v>-0.006716882999722199</v>
@@ -5158,13 +5158,13 @@
         <v>-0.05124999999998181</v>
       </c>
       <c r="U52">
-        <v>1.00004709650073</v>
+        <v>4.709650072998173E-05</v>
       </c>
       <c r="V52">
-        <v>0.9999528746465596</v>
+        <v>-4.712535344042479E-05</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5199,7 +5199,7 @@
         <v>0.8114480812664582</v>
       </c>
       <c r="K53">
-        <v>44.795547256267</v>
+        <v>-0.05204452743733001</v>
       </c>
       <c r="L53">
         <v>-0.007484154546289773</v>
@@ -5229,13 +5229,13 @@
         <v>-0.05500000000000682</v>
       </c>
       <c r="U53">
-        <v>1.000007849047126</v>
+        <v>7.849047125585429E-06</v>
       </c>
       <c r="V53">
-        <v>0.9999685816171041</v>
+        <v>-3.141838289588694E-05</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5270,7 +5270,7 @@
         <v>0.8114480812664582</v>
       </c>
       <c r="K54">
-        <v>44.795547256267</v>
+        <v>-0.05204452743733001</v>
       </c>
       <c r="L54">
         <v>-0.008081206380510686</v>
@@ -5300,13 +5300,13 @@
         <v>-0.07000000000000739</v>
       </c>
       <c r="U54">
-        <v>0.9998822652172208</v>
+        <v>-0.0001177347827792108</v>
       </c>
       <c r="V54">
-        <v>0.9997957740947296</v>
+        <v>-0.000204225905270361</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5341,7 +5341,7 @@
         <v>0.7529982830017354</v>
       </c>
       <c r="K55">
-        <v>42.95487852460093</v>
+        <v>-0.07045121475399069</v>
       </c>
       <c r="L55">
         <v>-0.00867930718323043</v>
@@ -5371,13 +5371,13 @@
         <v>-0.0662500000000108</v>
       </c>
       <c r="U55">
-        <v>0.9998665515346573</v>
+        <v>-0.0001334484653426893</v>
       </c>
       <c r="V55">
-        <v>0.9997957323779895</v>
+        <v>-0.0002042676220105344</v>
       </c>
       <c r="W55">
-        <v>0.9995281906109931</v>
+        <v>-0.0004718093890069275</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5412,7 +5412,7 @@
         <v>0.8288208831864868</v>
       </c>
       <c r="K56">
-        <v>45.31995947806394</v>
+        <v>-0.04680040521936057</v>
       </c>
       <c r="L56">
         <v>-0.009036804627776085</v>
@@ -5442,13 +5442,13 @@
         <v>-0.05750000000001876</v>
       </c>
       <c r="U56">
-        <v>0.9998979375534848</v>
+        <v>-0.0001020624465152276</v>
       </c>
       <c r="V56">
-        <v>0.9998271228527872</v>
+        <v>-0.0001728771472128132</v>
       </c>
       <c r="W56">
-        <v>1.000472032098183</v>
+        <v>0.0004720320981828063</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5483,7 +5483,7 @@
         <v>0.9086341465388282</v>
       </c>
       <c r="K57">
-        <v>47.60651213259343</v>
+        <v>-0.02393487867406568</v>
       </c>
       <c r="L57">
         <v>-0.009021287566373661</v>
@@ -5513,13 +5513,13 @@
         <v>-0.04375000000000284</v>
       </c>
       <c r="U57">
-        <v>0.9999057788944721</v>
+        <v>-9.422110552792518E-05</v>
       </c>
       <c r="V57">
-        <v>0.99988996824798</v>
+        <v>-0.0001100317520199567</v>
       </c>
       <c r="W57">
-        <v>1.000471809389007</v>
+        <v>0.0004718093890068165</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5554,7 +5554,7 @@
         <v>0.8720038957111131</v>
       </c>
       <c r="K58">
-        <v>46.5813077477527</v>
+        <v>-0.03418692252247296</v>
       </c>
       <c r="L58">
         <v>-0.008833723535969406</v>
@@ -5584,13 +5584,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U58">
-        <v>0.9998665075226938</v>
+        <v>-0.0001334924773062074</v>
       </c>
       <c r="V58">
-        <v>0.9998899561396613</v>
+        <v>-0.0001100438603387488</v>
       </c>
       <c r="W58">
-        <v>0.9997642065550578</v>
+        <v>-0.0002357934449421784</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5625,7 +5625,7 @@
         <v>0.8720038957111131</v>
       </c>
       <c r="K59">
-        <v>46.5813077477527</v>
+        <v>-0.03418692252247296</v>
       </c>
       <c r="L59">
         <v>-0.008521715386299322</v>
@@ -5655,13 +5655,13 @@
         <v>-0.01999999999998181</v>
       </c>
       <c r="U59">
-        <v>0.9998900503412367</v>
+        <v>-0.0001099496587633197</v>
       </c>
       <c r="V59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5696,7 +5696,7 @@
         <v>1.050678825319638</v>
       </c>
       <c r="K60">
-        <v>51.23565974090894</v>
+        <v>0.01235659740908945</v>
       </c>
       <c r="L60">
         <v>-0.0077799034014665</v>
@@ -5726,13 +5726,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U60">
-        <v>0.9999528735361342</v>
+        <v>-4.712646386584307E-05</v>
       </c>
       <c r="V60">
-        <v>1.000031444563235</v>
+        <v>3.144456323522782E-05</v>
       </c>
       <c r="W60">
-        <v>1.000943396226415</v>
+        <v>0.0009433962264151496</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5767,7 +5767,7 @@
         <v>0.9603665006357212</v>
       </c>
       <c r="K61">
-        <v>48.98913036538254</v>
+        <v>-0.01010869634617462</v>
       </c>
       <c r="L61">
         <v>-0.006968209846296755</v>
@@ -5797,13 +5797,13 @@
         <v>-0.005000000000009663</v>
       </c>
       <c r="U61">
-        <v>0.9999371617535013</v>
+        <v>-6.283824649866432E-05</v>
       </c>
       <c r="V61">
-        <v>0.9999371128509889</v>
+        <v>-6.288714901114822E-05</v>
       </c>
       <c r="W61">
-        <v>0.9995287464655986</v>
+        <v>-0.0004712535344013613</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5838,7 +5838,7 @@
         <v>0.8806822185851715</v>
       </c>
       <c r="K62">
-        <v>46.82780588246879</v>
+        <v>-0.03172194117531213</v>
       </c>
       <c r="L62">
         <v>-0.006312154637564119</v>
@@ -5868,13 +5868,13 @@
         <v>0.005000000000009663</v>
       </c>
       <c r="U62">
-        <v>0.9998978814324878</v>
+        <v>-0.0001021185675121883</v>
       </c>
       <c r="V62">
-        <v>0.9999528316719598</v>
+        <v>-4.716832804019244E-05</v>
       </c>
       <c r="W62">
-        <v>0.9995285242809995</v>
+        <v>-0.0004714757190005248</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5909,7 +5909,7 @@
         <v>0.8438321639915433</v>
       </c>
       <c r="K63">
-        <v>45.76512876122133</v>
+        <v>-0.04234871238778676</v>
       </c>
       <c r="L63">
         <v>-0.005855050945776895</v>
@@ -5939,13 +5939,13 @@
         <v>0.01500000000001478</v>
       </c>
       <c r="U63">
-        <v>0.9999214392332468</v>
+        <v>-7.856076675316626E-05</v>
       </c>
       <c r="V63">
-        <v>0.9999685529646696</v>
+        <v>-3.144703533042303E-05</v>
       </c>
       <c r="W63">
-        <v>0.9997641509433963</v>
+        <v>-0.0002358490566036764</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5980,7 +5980,7 @@
         <v>0.8878770309510504</v>
       </c>
       <c r="K64">
-        <v>47.03044829692998</v>
+        <v>-0.02969551703070022</v>
       </c>
       <c r="L64">
         <v>-0.005440475955791977</v>
@@ -6010,13 +6010,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U64">
-        <v>0.9999292897548713</v>
+        <v>-7.071024512872448E-05</v>
       </c>
       <c r="V64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64">
-        <v>1.000235904694503</v>
+        <v>0.0002359046945032972</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6051,7 +6051,7 @@
         <v>0.9342400488031631</v>
       </c>
       <c r="K65">
-        <v>48.30010884022574</v>
+        <v>-0.01699891159774258</v>
       </c>
       <c r="L65">
         <v>-0.004972441424399707</v>
@@ -6081,13 +6081,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U65">
-        <v>0.9999528565030523</v>
+        <v>-4.714349694767694E-05</v>
       </c>
       <c r="V65">
-        <v>1.000031448024278</v>
+        <v>3.144802427779148E-05</v>
       </c>
       <c r="W65">
-        <v>1.000235849056604</v>
+        <v>0.0002358490566036764</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6122,7 +6122,7 @@
         <v>0.9830432254896323</v>
       </c>
       <c r="K66">
-        <v>49.57245575153358</v>
+        <v>-0.00427544248466416</v>
       </c>
       <c r="L66">
         <v>-0.004397889149670774</v>
@@ -6152,13 +6152,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U66">
-        <v>0.9999764271402193</v>
+        <v>-2.357285978071832E-05</v>
       </c>
       <c r="V66">
-        <v>1.000047170552996</v>
+        <v>4.717055299607864E-05</v>
       </c>
       <c r="W66">
-        <v>1.000235793444942</v>
+        <v>0.0002357934449424004</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6193,7 +6193,7 @@
         <v>1.137158520288936</v>
       </c>
       <c r="K67">
-        <v>53.20889908228222</v>
+        <v>0.03208899082282224</v>
       </c>
       <c r="L67">
         <v>-0.00352186007102389</v>
@@ -6223,13 +6223,13 @@
         <v>0.02374999999999261</v>
       </c>
       <c r="U67">
-        <v>1.000023573415474</v>
+        <v>2.357341547365444E-05</v>
       </c>
       <c r="V67">
-        <v>1.00009433665608</v>
+        <v>9.433665608016284E-05</v>
       </c>
       <c r="W67">
-        <v>1.000707213578501</v>
+        <v>0.0007072135785006761</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6264,7 +6264,7 @@
         <v>1.191234062323766</v>
       </c>
       <c r="K68">
-        <v>54.36361559022512</v>
+        <v>0.04363615590225123</v>
       </c>
       <c r="L68">
         <v>-0.002420305791800081</v>
@@ -6294,13 +6294,13 @@
         <v>0.01999999999998181</v>
       </c>
       <c r="U68">
-        <v>1.000039288099634</v>
+        <v>3.928809963449353E-05</v>
       </c>
       <c r="V68">
-        <v>1.000110049050434</v>
+        <v>0.0001100490504337692</v>
       </c>
       <c r="W68">
-        <v>1.000235571260306</v>
+        <v>0.0002355712603061555</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6335,7 +6335,7 @@
         <v>1.127078901766857</v>
       </c>
       <c r="K69">
-        <v>52.98716943836213</v>
+        <v>0.02987169438362125</v>
       </c>
       <c r="L69">
         <v>-0.001329330215310479</v>
@@ -6365,13 +6365,13 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="U69">
-        <v>0.9999449988214035</v>
+        <v>-5.500117859646991E-05</v>
       </c>
       <c r="V69">
-        <v>1.000094317377977</v>
+        <v>9.431737797660489E-05</v>
       </c>
       <c r="W69">
-        <v>0.9997644842204428</v>
+        <v>-0.0002355157795571605</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6406,7 +6406,7 @@
         <v>1.183769480126332</v>
       </c>
       <c r="K70">
-        <v>54.20762085464489</v>
+        <v>0.04207620854644889</v>
       </c>
       <c r="L70">
         <v>-0.0002236044654113293</v>
@@ -6436,13 +6436,13 @@
         <v>0.02625000000000455</v>
       </c>
       <c r="U70">
-        <v>0.9999685690263468</v>
+        <v>-3.143097365321257E-05</v>
       </c>
       <c r="V70">
-        <v>1.000141462724572</v>
+        <v>0.0001414627245721611</v>
       </c>
       <c r="W70">
-        <v>1.000235571260306</v>
+        <v>0.0002355712603061555</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6477,7 +6477,7 @@
         <v>1.057552128899719</v>
       </c>
       <c r="K71">
-        <v>51.39855822098893</v>
+        <v>0.01398558220988932</v>
       </c>
       <c r="L71">
         <v>0.0006497011795731105</v>
@@ -6507,13 +6507,13 @@
         <v>0.03000000000001535</v>
       </c>
       <c r="U71">
-        <v>0.9999528520576149</v>
+        <v>-4.714794238513953E-05</v>
       </c>
       <c r="V71">
-        <v>1.0000785792865</v>
+        <v>7.857928649990242E-05</v>
       </c>
       <c r="W71">
-        <v>0.9995289684408855</v>
+        <v>-0.0004710315591145431</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6548,7 +6548,7 @@
         <v>0.9508351447353771</v>
       </c>
       <c r="K72">
-        <v>48.73990235932283</v>
+        <v>-0.01260097640677166</v>
       </c>
       <c r="L72">
         <v>0.001152474790289211</v>
@@ -6578,13 +6578,13 @@
         <v>0.03125000000001421</v>
       </c>
       <c r="U72">
-        <v>0.9999528498345814</v>
+        <v>-4.715016541856354E-05</v>
       </c>
       <c r="V72">
-        <v>1.000015714622456</v>
+        <v>1.571462245641975E-05</v>
       </c>
       <c r="W72">
-        <v>0.9995287464655986</v>
+        <v>-0.0004712535344013613</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6619,7 +6619,7 @@
         <v>1.00394537186824</v>
       </c>
       <c r="K73">
-        <v>50.09844010529492</v>
+        <v>0.0009844010529491687</v>
       </c>
       <c r="L73">
         <v>0.001480374943978907</v>
@@ -6649,13 +6649,13 @@
         <v>0.03374999999999773</v>
       </c>
       <c r="U73">
-        <v>0.9999685650742258</v>
+        <v>-3.143492577417639E-05</v>
       </c>
       <c r="V73">
-        <v>1.000047143126532</v>
+        <v>4.71431265323119E-05</v>
       </c>
       <c r="W73">
-        <v>1.0002357378595</v>
+        <v>0.0002357378595001514</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6690,7 +6690,7 @@
         <v>0.9029820426435792</v>
       </c>
       <c r="K74">
-        <v>47.45089666685331</v>
+        <v>-0.02549103333146691</v>
       </c>
       <c r="L74">
         <v>0.001504358931418842</v>
@@ -6720,13 +6720,13 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="U74">
-        <v>1.00000785897849</v>
+        <v>7.858978489760915E-06</v>
       </c>
       <c r="V74">
-        <v>1.000015713634721</v>
+        <v>1.571363472097076E-05</v>
       </c>
       <c r="W74">
-        <v>0.9995286353994814</v>
+        <v>-0.0004713646005185534</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6761,7 +6761,7 @@
         <v>1.114701109508276</v>
       </c>
       <c r="K75">
-        <v>52.71199341109124</v>
+        <v>0.0271199341109124</v>
       </c>
       <c r="L75">
         <v>0.001680590488632305</v>
@@ -6791,13 +6791,13 @@
         <v>0.02374999999999261</v>
       </c>
       <c r="U75">
-        <v>1.000023576750181</v>
+        <v>2.35767501808315E-05</v>
       </c>
       <c r="V75">
-        <v>1.000015713387806</v>
+        <v>1.571338780625986E-05</v>
       </c>
       <c r="W75">
-        <v>1.000943173779769</v>
+        <v>0.0009431737797691575</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6832,7 +6832,7 @@
         <v>1.226132197331761</v>
       </c>
       <c r="K76">
-        <v>55.07903792961627</v>
+        <v>0.0507903792961627</v>
       </c>
       <c r="L76">
         <v>0.002103375259254536</v>
@@ -6862,13 +6862,13 @@
         <v>0.02250000000000796</v>
       </c>
       <c r="U76">
-        <v>1.000007858731444</v>
+        <v>7.858731443599609E-06</v>
       </c>
       <c r="V76">
-        <v>1.000078565704499</v>
+        <v>7.856570449882305E-05</v>
       </c>
       <c r="W76">
-        <v>1.000471142520612</v>
+        <v>0.000471142520612311</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6903,7 +6903,7 @@
         <v>1.284780138291489</v>
       </c>
       <c r="K77">
-        <v>56.23211252406199</v>
+        <v>0.06232112524061995</v>
       </c>
       <c r="L77">
         <v>0.002726740331789024</v>
@@ -6933,13 +6933,13 @@
         <v>0.02249999999999375</v>
       </c>
       <c r="U77">
-        <v>1.000039293348422</v>
+        <v>3.929334842189824E-05</v>
       </c>
       <c r="V77">
-        <v>1.000125695251862</v>
+        <v>0.0001256952518620125</v>
       </c>
       <c r="W77">
-        <v>1.000235460324935</v>
+        <v>0.000235460324935266</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6974,7 +6974,7 @@
         <v>1.346514812985985</v>
       </c>
       <c r="K78">
-        <v>57.38360591350876</v>
+        <v>0.07383605913508762</v>
       </c>
       <c r="L78">
         <v>0.003507767446670092</v>
@@ -7004,13 +7004,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U78">
-        <v>1.000062866887225</v>
+        <v>6.286688722467737E-05</v>
       </c>
       <c r="V78">
-        <v>1.000157099318189</v>
+        <v>0.0001570993181889691</v>
       </c>
       <c r="W78">
-        <v>1.000235404896422</v>
+        <v>0.0002354048964219313</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7045,7 +7045,7 @@
         <v>1.19164005294128</v>
       </c>
       <c r="K79">
-        <v>54.37206950758382</v>
+        <v>0.0437206950758382</v>
       </c>
       <c r="L79">
         <v>0.004150049640148958</v>
@@ -7075,13 +7075,13 @@
         <v>0.01624999999999943</v>
       </c>
       <c r="U79">
-        <v>1.000055005068324</v>
+        <v>5.5005068324121E-05</v>
       </c>
       <c r="V79">
-        <v>1.000109952249308</v>
+        <v>0.0001099522493084315</v>
       </c>
       <c r="W79">
-        <v>0.9995293010120028</v>
+        <v>-0.0004706989879972312</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7116,7 +7116,7 @@
         <v>1.062946362261966</v>
       </c>
       <c r="K80">
-        <v>51.52564224192788</v>
+        <v>0.01525642241927883</v>
       </c>
       <c r="L80">
         <v>0.0044805481747665</v>
@@ -7146,13 +7146,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U80">
-        <v>1.000047144608228</v>
+        <v>4.714460822796696E-05</v>
       </c>
       <c r="V80">
-        <v>1.000062822949224</v>
+        <v>6.282294922366205E-05</v>
       </c>
       <c r="W80">
-        <v>0.9995290793501296</v>
+        <v>-0.000470920649870421</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7187,7 +7187,7 @@
         <v>0.9544440410610796</v>
       </c>
       <c r="K81">
-        <v>48.83455453362103</v>
+        <v>-0.01165445466378967</v>
       </c>
       <c r="L81">
         <v>0.004413137914545777</v>
@@ -7217,13 +7217,13 @@
         <v>0.01500000000001478</v>
       </c>
       <c r="U81">
-        <v>1.000031428257146</v>
+        <v>3.142825714630426E-05</v>
       </c>
       <c r="V81">
-        <v>1.000015704750687</v>
+        <v>1.570475068701782E-05</v>
       </c>
       <c r="W81">
-        <v>0.9995288574793875</v>
+        <v>-0.000471142520612533</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7258,7 +7258,7 @@
         <v>0.8618398494538443</v>
       </c>
       <c r="K82">
-        <v>46.28968757472121</v>
+        <v>-0.03710312425278789</v>
       </c>
       <c r="L82">
         <v>0.003921283232526374</v>
@@ -7288,13 +7288,13 @@
         <v>0.01624999999998522</v>
       </c>
       <c r="U82">
-        <v>1.000015713634721</v>
+        <v>1.571363472074871E-05</v>
       </c>
       <c r="V82">
-        <v>0.999937181983793</v>
+        <v>-6.281801620700023E-05</v>
       </c>
       <c r="W82">
-        <v>0.9995286353994814</v>
+        <v>-0.0004713646005185534</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7329,7 +7329,7 @@
         <v>0.7819760411385424</v>
       </c>
       <c r="K83">
-        <v>43.8825227211765</v>
+        <v>-0.06117477278823502</v>
       </c>
       <c r="L83">
         <v>0.003017771311376627</v>
@@ -7359,13 +7359,13 @@
         <v>0.008750000000006253</v>
       </c>
       <c r="U83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V83">
-        <v>0.9998900615655233</v>
+        <v>-0.0001099384344767085</v>
       </c>
       <c r="W83">
-        <v>0.9995284131101156</v>
+        <v>-0.0004715868898843567</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7400,7 +7400,7 @@
         <v>0.8795198791276542</v>
       </c>
       <c r="K84">
-        <v>46.79492294254784</v>
+        <v>-0.0320507705745216</v>
       </c>
       <c r="L84">
         <v>0.002083131948300592</v>
@@ -7430,13 +7430,13 @@
         <v>0</v>
       </c>
       <c r="U84">
-        <v>1.000015713387806</v>
+        <v>1.57133878064819E-05</v>
       </c>
       <c r="V84">
-        <v>0.9999371711301343</v>
+        <v>-6.282886986574976E-05</v>
       </c>
       <c r="W84">
-        <v>1.000471809389007</v>
+        <v>0.0004718093890068165</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7471,7 +7471,7 @@
         <v>0.8795198791276543</v>
       </c>
       <c r="K85">
-        <v>46.79492294254785</v>
+        <v>-0.03205077057452149</v>
       </c>
       <c r="L85">
         <v>0.001181614005992838</v>
@@ -7501,13 +7501,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U85">
-        <v>1.0000314262818</v>
+        <v>3.142628179975127E-05</v>
       </c>
       <c r="V85">
-        <v>0.9999214589780241</v>
+        <v>-7.854102197590862E-05</v>
       </c>
       <c r="W85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7542,7 +7542,7 @@
         <v>0.793731895302524</v>
       </c>
       <c r="K86">
-        <v>44.25030838673113</v>
+        <v>-0.0574969161326887</v>
       </c>
       <c r="L86">
         <v>0.0001816796905424868</v>
@@ -7572,13 +7572,13 @@
         <v>-0.02874999999998806</v>
       </c>
       <c r="U86">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V86">
-        <v>0.9999214528088476</v>
+        <v>-7.85471911524116E-05</v>
       </c>
       <c r="W86">
-        <v>0.9995284131101156</v>
+        <v>-0.0004715868898843567</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7613,7 +7613,7 @@
         <v>0.8450685069082359</v>
       </c>
       <c r="K87">
-        <v>45.80147044644479</v>
+        <v>-0.04198529553555214</v>
       </c>
       <c r="L87">
         <v>-0.0007290184746361904</v>
@@ -7643,13 +7643,13 @@
         <v>-0.04125000000001933</v>
       </c>
       <c r="U87">
-        <v>0.9999921436764453</v>
+        <v>-7.856323554711331E-06</v>
       </c>
       <c r="V87">
-        <v>0.9999685786554808</v>
+        <v>-3.142134451916689E-05</v>
       </c>
       <c r="W87">
-        <v>1.000235904694503</v>
+        <v>0.0002359046945032972</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7684,7 +7684,7 @@
         <v>0.7271810958964627</v>
       </c>
       <c r="K88">
-        <v>42.10219169397707</v>
+        <v>-0.0789780830602293</v>
       </c>
       <c r="L88">
         <v>-0.001782423811953928</v>
@@ -7714,13 +7714,13 @@
         <v>-0.05500000000000682</v>
       </c>
       <c r="U88">
-        <v>0.9999764308441685</v>
+        <v>-2.356915583145991E-05</v>
       </c>
       <c r="V88">
-        <v>0.9999057330044463</v>
+        <v>-9.426699555370455E-05</v>
       </c>
       <c r="W88">
-        <v>0.9992924528301886</v>
+        <v>-0.0007075471698113622</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7755,7 +7755,7 @@
         <v>0.6932483133159528</v>
       </c>
       <c r="K89">
-        <v>40.94191666184732</v>
+        <v>-0.09058083338152678</v>
       </c>
       <c r="L89">
         <v>-0.002934520119183855</v>
@@ -7785,13 +7785,13 @@
         <v>-0.06374999999999886</v>
       </c>
       <c r="U89">
-        <v>0.9999685737182007</v>
+        <v>-3.142628179930718E-05</v>
       </c>
       <c r="V89">
-        <v>0.9999214367644514</v>
+        <v>-7.85632355485566E-05</v>
       </c>
       <c r="W89">
-        <v>0.9997639839509087</v>
+        <v>-0.0002360160490912921</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7826,7 +7826,7 @@
         <v>0.6607906551929733</v>
       </c>
       <c r="K90">
-        <v>39.78771515403268</v>
+        <v>-0.1021228484596732</v>
       </c>
       <c r="L90">
         <v>-0.004148182997636623</v>
@@ -7856,13 +7856,13 @@
         <v>-0.07124999999997783</v>
       </c>
       <c r="U90">
-        <v>0.9999292886437562</v>
+        <v>-7.071135624381331E-05</v>
       </c>
       <c r="V90">
-        <v>0.9998428611835697</v>
+        <v>-0.0001571388164303134</v>
       </c>
       <c r="W90">
-        <v>0.9997639282341833</v>
+        <v>-0.0002360717658167477</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7897,7 +7897,7 @@
         <v>0.8086422486090937</v>
       </c>
       <c r="K91">
-        <v>44.70990596570253</v>
+        <v>-0.05290094034297466</v>
       </c>
       <c r="L91">
         <v>-0.005049328449907573</v>
@@ -7927,13 +7927,13 @@
         <v>-0.06499999999999773</v>
       </c>
       <c r="U91">
-        <v>0.9999685705081363</v>
+        <v>-3.142949186374366E-05</v>
       </c>
       <c r="V91">
-        <v>0.9998585528383729</v>
+        <v>-0.0001414471616271173</v>
       </c>
       <c r="W91">
-        <v>1.000708382526564</v>
+        <v>0.0007083825265643551</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7968,7 +7968,7 @@
         <v>0.6997395101356503</v>
       </c>
       <c r="K92">
-        <v>41.16745571677666</v>
+        <v>-0.08832544283223343</v>
       </c>
       <c r="L92">
         <v>-0.005942847436043648</v>
@@ -7998,13 +7998,13 @@
         <v>-0.06499999999999773</v>
       </c>
       <c r="U92">
-        <v>0.9999607119003653</v>
+        <v>-3.928809963471558E-05</v>
       </c>
       <c r="V92">
-        <v>0.9997956585296847</v>
+        <v>-0.000204341470315339</v>
       </c>
       <c r="W92">
-        <v>0.9992921189240207</v>
+        <v>-0.0007078810759792997</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -8039,7 +8039,7 @@
         <v>0.6393189069318856</v>
       </c>
       <c r="K93">
-        <v>38.99905651234275</v>
+        <v>-0.1100094348765724</v>
       </c>
       <c r="L93">
         <v>-0.006924910956581941</v>
@@ -8069,13 +8069,13 @@
         <v>-0.0662500000000108</v>
       </c>
       <c r="U93">
-        <v>0.9999528524281001</v>
+        <v>-4.714757189994145E-05</v>
       </c>
       <c r="V93">
-        <v>0.9997484514039556</v>
+        <v>-0.0002515485960443709</v>
       </c>
       <c r="W93">
-        <v>0.9995277449822904</v>
+        <v>-0.0004722550177096441</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8110,7 +8110,7 @@
         <v>0.6847648436198284</v>
       </c>
       <c r="K94">
-        <v>40.64453542065645</v>
+        <v>-0.09355464579343553</v>
       </c>
       <c r="L94">
         <v>-0.007787108781145755</v>
@@ -8140,13 +8140,13 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="U94">
-        <v>0.9999528502051017</v>
+        <v>-4.714979489828242E-05</v>
       </c>
       <c r="V94">
-        <v>0.9997955653404624</v>
+        <v>-0.0002044346595375668</v>
       </c>
       <c r="W94">
-        <v>1.000236239073943</v>
+        <v>0.0002362390739429898</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8181,7 +8181,7 @@
         <v>0.598825333531062</v>
       </c>
       <c r="K95">
-        <v>37.45408087877462</v>
+        <v>-0.1254591912122538</v>
       </c>
       <c r="L95">
         <v>-0.008751010612762455</v>
@@ -8211,13 +8211,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U95">
-        <v>0.9999214133031561</v>
+        <v>-7.858669684390751E-05</v>
       </c>
       <c r="V95">
-        <v>0.9997797945798008</v>
+        <v>-0.0002202054201991821</v>
       </c>
       <c r="W95">
-        <v>0.9992914501653283</v>
+        <v>-0.0007085498346717234</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8252,7 +8252,7 @@
         <v>0.5735677787051605</v>
       </c>
       <c r="K96">
-        <v>36.45014764963803</v>
+        <v>-0.1354985235036197</v>
       </c>
       <c r="L96">
         <v>-0.009769250200981485</v>
@@ -8282,13 +8282,13 @@
         <v>-0.06124999999998693</v>
       </c>
       <c r="U96">
-        <v>0.999905688552162</v>
+        <v>-9.431144783800249E-05</v>
       </c>
       <c r="V96">
-        <v>0.9997954785016441</v>
+        <v>-0.0002045214983559251</v>
       </c>
       <c r="W96">
-        <v>0.999763649255495</v>
+        <v>-0.0002363507445050095</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8323,7 +8323,7 @@
         <v>0.7511614664000719</v>
       </c>
       <c r="K97">
-        <v>42.89504313638551</v>
+        <v>-0.07104956863614492</v>
       </c>
       <c r="L97">
         <v>-0.01037670315155554</v>
@@ -8353,13 +8353,13 @@
         <v>-0.05500000000000682</v>
       </c>
       <c r="U97">
-        <v>0.9999135396852844</v>
+        <v>-8.646031471559734E-05</v>
       </c>
       <c r="V97">
-        <v>0.9998898505114082</v>
+        <v>-0.000110149488591782</v>
       </c>
       <c r="W97">
-        <v>1.000945626477542</v>
+        <v>0.0009456264775415946</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8394,7 +8394,7 @@
         <v>0.7511614664000719</v>
       </c>
       <c r="K98">
-        <v>42.89504313638551</v>
+        <v>-0.07104956863614492</v>
       </c>
       <c r="L98">
         <v>-0.01065883486410908</v>
@@ -8424,13 +8424,13 @@
         <v>-0.04874999999998408</v>
       </c>
       <c r="U98">
-        <v>0.9999056715010022</v>
+        <v>-9.432849899781992E-05</v>
       </c>
       <c r="V98">
-        <v>0.9999213131265443</v>
+        <v>-7.868687345569114E-05</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8465,7 +8465,7 @@
         <v>0.6838750951681494</v>
       </c>
       <c r="K99">
-        <v>40.61317238615365</v>
+        <v>-0.09386827613846349</v>
       </c>
       <c r="L99">
         <v>-0.01085885739158811</v>
@@ -8495,13 +8495,13 @@
         <v>-0.05499999999999261</v>
       </c>
       <c r="U99">
-        <v>0.9998978011524885</v>
+        <v>-0.0001021988475115032</v>
       </c>
       <c r="V99">
-        <v>0.9998583524819793</v>
+        <v>-0.0001416475180207044</v>
       </c>
       <c r="W99">
-        <v>0.9995276334435521</v>
+        <v>-0.0004723665564478896</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8536,7 +8536,7 @@
         <v>0.6838750951681495</v>
       </c>
       <c r="K100">
-        <v>40.61317238615365</v>
+        <v>-0.09386827613846349</v>
       </c>
       <c r="L100">
         <v>-0.01095692112243899</v>
@@ -8566,13 +8566,13 @@
         <v>-0.05124999999999602</v>
       </c>
       <c r="U100">
-        <v>0.9998899284534951</v>
+        <v>-0.0001100715465048863</v>
       </c>
       <c r="V100">
-        <v>0.9998583324151177</v>
+        <v>-0.0001416675848823212</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8607,7 +8607,7 @@
         <v>0.6515411675508488</v>
       </c>
       <c r="K101">
-        <v>39.45049511039746</v>
+        <v>-0.1054950488960254</v>
       </c>
       <c r="L101">
         <v>-0.01103301925523485</v>
@@ -8637,13 +8637,13 @@
         <v>-0.04375000000000284</v>
       </c>
       <c r="U101">
-        <v>0.9998977794552429</v>
+        <v>-0.000102220544757059</v>
       </c>
       <c r="V101">
-        <v>0.9998740554156171</v>
+        <v>-0.0001259445843828644</v>
       </c>
       <c r="W101">
-        <v>0.9997637051039698</v>
+        <v>-0.0002362948960301647</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8678,7 +8678,7 @@
         <v>0.6206519984384945</v>
       </c>
       <c r="K102">
-        <v>38.29643865780535</v>
+        <v>-0.1170356134219465</v>
       </c>
       <c r="L102">
         <v>-0.011136765364737</v>
@@ -8708,13 +8708,13 @@
         <v>-0.04250000000000398</v>
       </c>
       <c r="U102">
-        <v>0.999905632927817</v>
+        <v>-9.436707218302143E-05</v>
       </c>
       <c r="V102">
-        <v>0.9998425494394758</v>
+        <v>-0.000157450560524186</v>
       </c>
       <c r="W102">
-        <v>0.999763649255495</v>
+        <v>-0.0002363507445050095</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8749,7 +8749,7 @@
         <v>0.8202704813492352</v>
       </c>
       <c r="K103">
-        <v>45.06310956277376</v>
+        <v>-0.04936890437226238</v>
       </c>
       <c r="L103">
         <v>-0.01086653805262696</v>
@@ -8779,13 +8779,13 @@
         <v>-0.02750000000000341</v>
       </c>
       <c r="U103">
-        <v>0.9999292180163742</v>
+        <v>-7.078198362575616E-05</v>
       </c>
       <c r="V103">
-        <v>0.999952757393468</v>
+        <v>-4.724260653199419E-05</v>
       </c>
       <c r="W103">
-        <v>1.000945626477542</v>
+        <v>0.0009456264775415946</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8820,7 +8820,7 @@
         <v>0.7422843374873276</v>
       </c>
       <c r="K104">
-        <v>42.60408714675291</v>
+        <v>-0.07395912853247089</v>
       </c>
       <c r="L104">
         <v>-0.01051918639270163</v>
@@ -8850,13 +8850,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U104">
-        <v>0.9999292130059305</v>
+        <v>-7.078699406948274E-05</v>
       </c>
       <c r="V104">
-        <v>0.9999370068819983</v>
+        <v>-6.299311800173069E-05</v>
       </c>
       <c r="W104">
-        <v>0.9995276334435521</v>
+        <v>-0.0004723665564478896</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8891,7 +8891,7 @@
         <v>0.7069113518087298</v>
       </c>
       <c r="K105">
-        <v>41.41464939345858</v>
+        <v>-0.0858535060654142</v>
       </c>
       <c r="L105">
         <v>-0.0101948845829098</v>
@@ -8921,13 +8921,13 @@
         <v>-0.01750000000001251</v>
       </c>
       <c r="U105">
-        <v>0.9998898791029867</v>
+        <v>-0.0001101208970133438</v>
       </c>
       <c r="V105">
-        <v>0.9999370029136152</v>
+        <v>-6.299708638479729E-05</v>
       </c>
       <c r="W105">
-        <v>0.9997637051039698</v>
+        <v>-0.0002362948960301647</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8962,7 +8962,7 @@
         <v>0.8072360384186791</v>
       </c>
       <c r="K106">
-        <v>44.66688474876839</v>
+        <v>-0.05333115251231613</v>
       </c>
       <c r="L106">
         <v>-0.009696245938477559</v>
@@ -8992,13 +8992,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U106">
-        <v>0.999889866975039</v>
+        <v>-0.00011013302496099</v>
       </c>
       <c r="V106">
-        <v>0.9999212486809154</v>
+        <v>-7.875131908463562E-05</v>
       </c>
       <c r="W106">
-        <v>1.00047270148901</v>
+        <v>0.0004727014890095749</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -9033,7 +9033,7 @@
         <v>0.7301306408144372</v>
       </c>
       <c r="K107">
-        <v>42.20089648668019</v>
+        <v>-0.07799103513319816</v>
       </c>
       <c r="L107">
         <v>-0.009260323436507659</v>
@@ -9063,13 +9063,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U107">
-        <v>0.9998662523110813</v>
+        <v>-0.0001337476889187172</v>
       </c>
       <c r="V107">
-        <v>0.9999369939829255</v>
+        <v>-6.300601707454057E-05</v>
       </c>
       <c r="W107">
-        <v>0.9995275218521145</v>
+        <v>-0.0004724781478855355</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9104,7 +9104,7 @@
         <v>0.7301306408144372</v>
       </c>
       <c r="K108">
-        <v>42.20089648668019</v>
+        <v>-0.07799103513319816</v>
       </c>
       <c r="L108">
         <v>-0.008856483773211936</v>
@@ -9134,13 +9134,13 @@
         <v>-0.008749999999992042</v>
       </c>
       <c r="U108">
-        <v>0.9998583658567294</v>
+        <v>-0.0001416341432706192</v>
       </c>
       <c r="V108">
-        <v>0.9999684950064585</v>
+        <v>-3.150499354154235E-05</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9175,7 +9175,7 @@
         <v>0.8359675206608453</v>
       </c>
       <c r="K109">
-        <v>45.5328055237025</v>
+        <v>-0.04467194476297498</v>
       </c>
       <c r="L109">
         <v>-0.008293658087988685</v>
@@ -9205,13 +9205,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U109">
-        <v>0.9998898245061776</v>
+        <v>-0.0001101754938224175</v>
       </c>
       <c r="V109">
-        <v>0.9999842470069314</v>
+        <v>-1.575299306855182E-05</v>
       </c>
       <c r="W109">
-        <v>1.00047270148901</v>
+        <v>0.0004727014890095749</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9246,7 +9246,7 @@
         <v>0.7918581541771379</v>
       </c>
       <c r="K110">
-        <v>44.19201108810854</v>
+        <v>-0.05807988911891454</v>
       </c>
       <c r="L110">
         <v>-0.007726116345317969</v>
@@ -9276,13 +9276,13 @@
         <v>0.0037500000000108</v>
       </c>
       <c r="U110">
-        <v>0.9998976829114722</v>
+        <v>-0.0001023170885278146</v>
       </c>
       <c r="V110">
-        <v>1.000015753241229</v>
+        <v>1.575324122926602E-05</v>
       </c>
       <c r="W110">
-        <v>0.9997637609260572</v>
+        <v>-0.0002362390739427678</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9317,7 +9317,7 @@
         <v>0.9584827332687508</v>
       </c>
       <c r="K111">
-        <v>48.94006554089052</v>
+        <v>-0.01059934459109479</v>
       </c>
       <c r="L111">
         <v>-0.006905811741172248</v>
@@ -9347,13 +9347,13 @@
         <v>0.001250000000013074</v>
       </c>
       <c r="U111">
-        <v>0.9999370291948396</v>
+        <v>-6.297080516037834E-05</v>
       </c>
       <c r="V111">
-        <v>1.000078764965344</v>
+        <v>7.876496534353628E-05</v>
       </c>
       <c r="W111">
-        <v>1.000708884688091</v>
+        <v>0.0007088846880907163</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9388,7 +9388,7 @@
         <v>0.9584827332687508</v>
       </c>
       <c r="K112">
-        <v>48.94006554089052</v>
+        <v>-0.01059934459109479</v>
       </c>
       <c r="L112">
         <v>-0.005959437245471788</v>
@@ -9418,13 +9418,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U112">
-        <v>0.9999527689219504</v>
+        <v>-4.723107804960325E-05</v>
       </c>
       <c r="V112">
-        <v>1.000015751752382</v>
+        <v>1.575175238222037E-05</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9459,7 +9459,7 @@
         <v>0.9584827332687508</v>
       </c>
       <c r="K113">
-        <v>48.94006554089052</v>
+        <v>-0.01059934459109479</v>
       </c>
       <c r="L113">
         <v>-0.004975249135930523</v>
@@ -9489,13 +9489,13 @@
         <v>0.01125000000000398</v>
       </c>
       <c r="U113">
-        <v>0.9999685111273805</v>
+        <v>-3.148887261950062E-05</v>
       </c>
       <c r="V113">
-        <v>1.000015751504269</v>
+        <v>1.575150426869065E-05</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9530,7 +9530,7 @@
         <v>0.9001689746043242</v>
       </c>
       <c r="K114">
-        <v>47.37310137335381</v>
+        <v>-0.0262689862664619</v>
       </c>
       <c r="L114">
         <v>-0.004098720189328859</v>
@@ -9560,13 +9560,13 @@
         <v>0.01374999999998749</v>
       </c>
       <c r="U114">
-        <v>0.9999448927376501</v>
+        <v>-5.510726234991825E-05</v>
       </c>
       <c r="V114">
-        <v>1.000031502512326</v>
+        <v>3.150251232564294E-05</v>
       </c>
       <c r="W114">
-        <v>0.9997638724911453</v>
+        <v>-0.000236127508854711</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9601,7 +9601,7 @@
         <v>0.9001689746043241</v>
       </c>
       <c r="K115">
-        <v>47.37310137335381</v>
+        <v>-0.0262689862664619</v>
       </c>
       <c r="L115">
         <v>-0.003328343998971079</v>
@@ -9631,13 +9631,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U115">
-        <v>0.9999448897006722</v>
+        <v>-5.511029932780964E-05</v>
       </c>
       <c r="V115">
-        <v>1.000031501519948</v>
+        <v>3.150151994812944E-05</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9672,7 +9672,7 @@
         <v>0.7089901719528185</v>
       </c>
       <c r="K116">
-        <v>41.48591276816262</v>
+        <v>-0.08514087231837381</v>
       </c>
       <c r="L116">
         <v>-0.003003249612148538</v>
@@ -9702,13 +9702,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U116">
-        <v>0.9999291399957484</v>
+        <v>-7.086000425160499E-05</v>
       </c>
       <c r="V116">
-        <v>0.9999842497361833</v>
+        <v>-1.575026381672728E-05</v>
       </c>
       <c r="W116">
-        <v>0.9990552668871042</v>
+        <v>-0.0009447331128957792</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9743,7 +9743,7 @@
         <v>0.6714623166998462</v>
       </c>
       <c r="K117">
-        <v>40.17214806407296</v>
+        <v>-0.09827851935927046</v>
       </c>
       <c r="L117">
         <v>-0.003043736525853204</v>
@@ -9773,13 +9773,13 @@
         <v>0.01124999999998977</v>
       </c>
       <c r="U117">
-        <v>0.9999133871907531</v>
+        <v>-8.661280924693315E-05</v>
       </c>
       <c r="V117">
-        <v>0.9999842494881084</v>
+        <v>-1.575051189162124E-05</v>
       </c>
       <c r="W117">
-        <v>0.9997635933806147</v>
+        <v>-0.0002364066193852876</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9814,7 +9814,7 @@
         <v>0.6360247463820642</v>
       </c>
       <c r="K118">
-        <v>38.87623019080739</v>
+        <v>-0.1112376980919261</v>
       </c>
       <c r="L118">
         <v>-0.003378078084626774</v>
@@ -9844,13 +9844,13 @@
         <v>0.0037500000000108</v>
       </c>
       <c r="U118">
-        <v>0.9999291288359018</v>
+        <v>-7.087116409820737E-05</v>
       </c>
       <c r="V118">
-        <v>0.9999054954401548</v>
+        <v>-9.450455984516548E-05</v>
       </c>
       <c r="W118">
-        <v>0.9997635374793096</v>
+        <v>-0.0002364625206904281</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9885,7 +9885,7 @@
         <v>0.6360247463820642</v>
       </c>
       <c r="K119">
-        <v>38.87623019080739</v>
+        <v>-0.1112376980919261</v>
       </c>
       <c r="L119">
         <v>-0.003856879753522927</v>
@@ -9915,13 +9915,13 @@
         <v>-0.006250000000008527</v>
       </c>
       <c r="U119">
-        <v>0.9999369989447322</v>
+        <v>-6.300105526779731E-05</v>
       </c>
       <c r="V119">
-        <v>0.9999369910054663</v>
+        <v>-6.300899453370867E-05</v>
       </c>
       <c r="W119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9956,7 +9956,7 @@
         <v>0.5410973174287198</v>
       </c>
       <c r="K120">
-        <v>35.11117119660726</v>
+        <v>-0.1488882880339274</v>
       </c>
       <c r="L120">
         <v>-0.004636720037238531</v>
@@ -9986,13 +9986,13 @@
         <v>-0.02250000000000796</v>
       </c>
       <c r="U120">
-        <v>0.9999212437191867</v>
+        <v>-7.875628081333019E-05</v>
       </c>
       <c r="V120">
-        <v>0.9999054805526236</v>
+        <v>-9.45194473763733E-05</v>
       </c>
       <c r="W120">
-        <v>0.9992904446546831</v>
+        <v>-0.0007095553453169146</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -10027,7 +10027,7 @@
         <v>0.5410973174287198</v>
       </c>
       <c r="K121">
-        <v>35.11117119660726</v>
+        <v>-0.1488882880339274</v>
       </c>
       <c r="L121">
         <v>-0.005532444659249751</v>
@@ -10057,13 +10057,13 @@
         <v>-0.04000000000000625</v>
       </c>
       <c r="U121">
-        <v>0.9998976087709902</v>
+        <v>-0.0001023912290097906</v>
       </c>
       <c r="V121">
-        <v>0.9998739621571379</v>
+        <v>-0.0001260378428621367</v>
       </c>
       <c r="W121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10098,7 +10098,7 @@
         <v>0.5410973174287198</v>
       </c>
       <c r="K122">
-        <v>35.11117119660726</v>
+        <v>-0.1488882880339274</v>
       </c>
       <c r="L122">
         <v>-0.00642124301395284</v>
@@ -10128,13 +10128,13 @@
         <v>-0.05250000000000909</v>
       </c>
       <c r="U122">
-        <v>0.999921229450733</v>
+        <v>-7.877054926697102E-05</v>
       </c>
       <c r="V122">
-        <v>0.9999054597021979</v>
+        <v>-9.454029780209261E-05</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10169,7 +10169,7 @@
         <v>0.4194123667041182</v>
       </c>
       <c r="K123">
-        <v>29.54831002902952</v>
+        <v>-0.2045168997097048</v>
       </c>
       <c r="L123">
         <v>-0.007656045975049053</v>
@@ -10199,13 +10199,13 @@
         <v>-0.07374999999998977</v>
       </c>
       <c r="U123">
-        <v>0.9998975902190783</v>
+        <v>-0.0001024097809216862</v>
       </c>
       <c r="V123">
-        <v>0.999826659733056</v>
+        <v>-0.0001733402669440443</v>
       </c>
       <c r="W123">
-        <v>0.9988165680473373</v>
+        <v>-0.001183431952662684</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10240,7 +10240,7 @@
         <v>0.5141010060224792</v>
       </c>
       <c r="K124">
-        <v>33.95420807314665</v>
+        <v>-0.1604579192685335</v>
       </c>
       <c r="L124">
         <v>-0.008822043119224647</v>
@@ -10270,13 +10270,13 @@
         <v>-0.08250000000001023</v>
       </c>
       <c r="U124">
-        <v>0.9999054582125296</v>
+        <v>-9.454178747037023E-05</v>
       </c>
       <c r="V124">
-        <v>0.9998266296809986</v>
+        <v>-0.0001733703190014424</v>
       </c>
       <c r="W124">
-        <v>1.000473933649289</v>
+        <v>0.0004739336492889379</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10311,7 +10311,7 @@
         <v>0.5141010060224792</v>
       </c>
       <c r="K125">
-        <v>33.95420807314665</v>
+        <v>-0.1604579192685335</v>
       </c>
       <c r="L125">
         <v>-0.009840087478825404</v>
@@ -10341,13 +10341,13 @@
         <v>-0.08624999999999261</v>
       </c>
       <c r="U125">
-        <v>0.9999290869551515</v>
+        <v>-7.091304484851957E-05</v>
       </c>
       <c r="V125">
-        <v>0.9998423632895629</v>
+        <v>-0.0001576367104371146</v>
       </c>
       <c r="W125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10382,7 +10382,7 @@
         <v>0.3760209971450997</v>
       </c>
       <c r="K126">
-        <v>27.32669035757807</v>
+        <v>-0.2267330964242193</v>
       </c>
       <c r="L126">
         <v>-0.01127027336943802</v>
@@ -10412,13 +10412,13 @@
         <v>-0.09749999999999659</v>
       </c>
       <c r="U126">
-        <v>0.9998818032102249</v>
+        <v>-0.0001181967897750935</v>
       </c>
       <c r="V126">
-        <v>0.9996846768726253</v>
+        <v>-0.0003153231273747004</v>
       </c>
       <c r="W126">
-        <v>0.9983420180009475</v>
+        <v>-0.001657981999052538</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10453,7 +10453,7 @@
         <v>0.5779648843009455</v>
       </c>
       <c r="K127">
-        <v>36.62723360013108</v>
+        <v>-0.1337276639986891</v>
       </c>
       <c r="L127">
         <v>-0.01238804349754717</v>
@@ -10483,13 +10483,13 @@
         <v>-0.09875000000000966</v>
       </c>
       <c r="U127">
-        <v>0.9998896699555528</v>
+        <v>-0.00011033004444716</v>
       </c>
       <c r="V127">
-        <v>0.9997634330594415</v>
+        <v>-0.0002365669405585136</v>
       </c>
       <c r="W127">
-        <v>1.001186239620403</v>
+        <v>0.001186239620403429</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10524,7 +10524,7 @@
         <v>0.5326722894729928</v>
       </c>
       <c r="K128">
-        <v>34.75448033683388</v>
+        <v>-0.1524551966316612</v>
       </c>
       <c r="L128">
         <v>-0.0133725094597052</v>
@@ -10554,13 +10554,13 @@
         <v>-0.09499999999999886</v>
       </c>
       <c r="U128">
-        <v>0.999873894607418</v>
+        <v>-0.0001261053925819544</v>
       </c>
       <c r="V128">
-        <v>0.9997318273599191</v>
+        <v>-0.0002681726400809437</v>
       </c>
       <c r="W128">
-        <v>0.9995260663507108</v>
+        <v>-0.0004739336492891599</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10595,7 +10595,7 @@
         <v>0.4920804911699426</v>
       </c>
       <c r="K129">
-        <v>32.97948697017689</v>
+        <v>-0.1702051302982311</v>
       </c>
       <c r="L129">
         <v>-0.01433716237790882</v>
@@ -10625,13 +10625,13 @@
         <v>-0.09374999999998579</v>
       </c>
       <c r="U129">
-        <v>0.9998738787028426</v>
+        <v>-0.0001261212971573888</v>
       </c>
       <c r="V129">
-        <v>0.9997159763313608</v>
+        <v>-0.0002840236686392217</v>
       </c>
       <c r="W129">
-        <v>0.9995258416311047</v>
+        <v>-0.0004741583688953055</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10666,7 +10666,7 @@
         <v>0.4392312156282935</v>
       </c>
       <c r="K130">
-        <v>30.51846088792259</v>
+        <v>-0.1948153911207741</v>
       </c>
       <c r="L130">
         <v>-0.01543468000807523</v>
@@ -10696,13 +10696,13 @@
         <v>-0.09749999999998238</v>
       </c>
       <c r="U130">
-        <v>0.999850212068177</v>
+        <v>-0.0001497879318229645</v>
       </c>
       <c r="V130">
-        <v>0.9996685449121647</v>
+        <v>-0.0003314550878352751</v>
       </c>
       <c r="W130">
-        <v>0.9992884250474384</v>
+        <v>-0.0007115749525615778</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10737,7 +10737,7 @@
         <v>0.4392312156282935</v>
       </c>
       <c r="K131">
-        <v>30.51846088792259</v>
+        <v>-0.1948153911207741</v>
       </c>
       <c r="L131">
         <v>-0.01648692465705875</v>
@@ -10767,13 +10767,13 @@
         <v>-0.08875000000000455</v>
       </c>
       <c r="U131">
-        <v>0.9998580743847919</v>
+        <v>-0.0001419256152080939</v>
       </c>
       <c r="V131">
-        <v>0.9997315902488315</v>
+        <v>-0.0002684097511684858</v>
       </c>
       <c r="W131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10808,7 +10808,7 @@
         <v>0.4392312156282935</v>
       </c>
       <c r="K132">
-        <v>30.51846088792259</v>
+        <v>-0.1948153911207741</v>
       </c>
       <c r="L132">
         <v>-0.01738498994621859</v>
@@ -10838,13 +10838,13 @@
         <v>-0.0899999999999892</v>
       </c>
       <c r="U132">
-        <v>0.9998659401146607</v>
+        <v>-0.0001340598853393216</v>
       </c>
       <c r="V132">
-        <v>0.9997473112335949</v>
+        <v>-0.0002526887664050514</v>
       </c>
       <c r="W132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10879,7 +10879,7 @@
         <v>0.4809864398625305</v>
       </c>
       <c r="K133">
-        <v>32.47743712678268</v>
+        <v>-0.1752256287321732</v>
       </c>
       <c r="L133">
         <v>-0.01798326995809524</v>
@@ -10909,13 +10909,13 @@
         <v>-0.09125000000000227</v>
       </c>
       <c r="U133">
-        <v>0.9998422613414095</v>
+        <v>-0.0001577386585904783</v>
       </c>
       <c r="V133">
-        <v>0.9997788414451134</v>
+        <v>-0.0002211585548865802</v>
       </c>
       <c r="W133">
-        <v>1.000237360550676</v>
+        <v>0.0002373605506764687</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10950,7 +10950,7 @@
         <v>0.5688921750925031</v>
       </c>
       <c r="K134">
-        <v>36.26075673804421</v>
+        <v>-0.1373924326195579</v>
       </c>
       <c r="L134">
         <v>-0.01812420561079606</v>
@@ -10980,13 +10980,13 @@
         <v>-0.07375000000000398</v>
       </c>
       <c r="U134">
-        <v>0.9998737891647996</v>
+        <v>-0.0001262108352003688</v>
       </c>
       <c r="V134">
-        <v>0.9998103935913032</v>
+        <v>-0.0001896064086968074</v>
       </c>
       <c r="W134">
-        <v>1.00047460844803</v>
+        <v>0.000474608448030267</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -11021,7 +11021,7 @@
         <v>0.5207096829637703</v>
       </c>
       <c r="K135">
-        <v>34.24122886815181</v>
+        <v>-0.1575877113184819</v>
       </c>
       <c r="L135">
         <v>-0.01808544996794414</v>
@@ -11051,13 +11051,13 @@
         <v>-0.07124999999999204</v>
       </c>
       <c r="U135">
-        <v>0.9998658840607152</v>
+        <v>-0.0001341159392848068</v>
       </c>
       <c r="V135">
-        <v>0.999826161164404</v>
+        <v>-0.000173838835595963</v>
       </c>
       <c r="W135">
-        <v>0.9995256166982923</v>
+        <v>-0.0004743833017076815</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11092,7 +11092,7 @@
         <v>0.4984888102358201</v>
       </c>
       <c r="K136">
-        <v>33.26610161055336</v>
+        <v>-0.1673389838944664</v>
       </c>
       <c r="L136">
         <v>-0.01796073935520018</v>
@@ -11122,13 +11122,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U136">
-        <v>0.9998421953779028</v>
+        <v>-0.0001578046220972462</v>
       </c>
       <c r="V136">
-        <v>0.9998103246609554</v>
+        <v>-0.0001896753390445705</v>
       </c>
       <c r="W136">
-        <v>0.9997626957759849</v>
+        <v>-0.0002373042240151335</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11163,7 +11163,7 @@
         <v>0.477059206785573</v>
       </c>
       <c r="K137">
-        <v>32.29790685396868</v>
+        <v>-0.1770209314603132</v>
       </c>
       <c r="L137">
         <v>-0.01781283196689143</v>
@@ -11193,13 +11193,13 @@
         <v>-0.06249999999998579</v>
       </c>
       <c r="U137">
-        <v>0.9998500619480898</v>
+        <v>-0.0001499380519102145</v>
       </c>
       <c r="V137">
-        <v>0.9997944794005121</v>
+        <v>-0.0002055205994878628</v>
       </c>
       <c r="W137">
-        <v>0.9997626394493234</v>
+        <v>-0.0002373605506765797</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11234,7 +11234,7 @@
         <v>0.5675626518092246</v>
       </c>
       <c r="K138">
-        <v>36.20669650135923</v>
+        <v>-0.1379330349864077</v>
       </c>
       <c r="L138">
         <v>-0.01742316398829255</v>
@@ -11264,13 +11264,13 @@
         <v>-0.04625000000000057</v>
       </c>
       <c r="U138">
-        <v>0.9998658247829518</v>
+        <v>-0.0001341752170481714</v>
       </c>
       <c r="V138">
-        <v>0.9999051248398982</v>
+        <v>-9.487516010175945E-05</v>
       </c>
       <c r="W138">
-        <v>1.000474833808167</v>
+        <v>0.0004748338081672632</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11305,7 +11305,7 @@
         <v>0.5417569314604882</v>
       </c>
       <c r="K139">
-        <v>35.13893275947774</v>
+        <v>-0.1486106724052226</v>
       </c>
       <c r="L139">
         <v>-0.01693465854859156</v>
@@ -11335,13 +11335,13 @@
         <v>-0.03750000000000853</v>
       </c>
       <c r="U139">
-        <v>0.9998421256206438</v>
+        <v>-0.0001578743793562154</v>
       </c>
       <c r="V139">
-        <v>0.9998576737566222</v>
+        <v>-0.0001423262433778438</v>
       </c>
       <c r="W139">
-        <v>0.9997626957759849</v>
+        <v>-0.0002373042240151335</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11376,7 +11376,7 @@
         <v>0.5896175792144832</v>
       </c>
       <c r="K140">
-        <v>37.09178779375637</v>
+        <v>-0.1290821220624363</v>
       </c>
       <c r="L140">
         <v>-0.01626954905520582</v>
@@ -11406,13 +11406,13 @@
         <v>-0.02499999999999147</v>
       </c>
       <c r="U140">
-        <v>0.9998578906231496</v>
+        <v>-0.0001421093768504411</v>
       </c>
       <c r="V140">
-        <v>0.9998734697750925</v>
+        <v>-0.0001265302249074951</v>
       </c>
       <c r="W140">
-        <v>1.000237360550676</v>
+        <v>0.0002373605506764687</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11447,7 +11447,7 @@
         <v>0.5613375991071761</v>
       </c>
       <c r="K141">
-        <v>35.95235261279606</v>
+        <v>-0.1404764738720394</v>
       </c>
       <c r="L141">
         <v>-0.01556682962607013</v>
@@ -11477,13 +11477,13 @@
         <v>-0.01624999999998522</v>
       </c>
       <c r="U141">
-        <v>0.9998262860752497</v>
+        <v>-0.0001737139247502961</v>
       </c>
       <c r="V141">
-        <v>0.9999683634407921</v>
+        <v>-3.163655920790376E-05</v>
       </c>
       <c r="W141">
-        <v>0.9997626957759849</v>
+        <v>-0.0002373042240151335</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11518,7 +11518,7 @@
         <v>0.7128005192898502</v>
       </c>
       <c r="K142">
-        <v>41.61608495923313</v>
+        <v>-0.08383915040766871</v>
       </c>
       <c r="L142">
         <v>-0.01457064182939723</v>
@@ -11548,13 +11548,13 @@
         <v>-0.01750000000001251</v>
       </c>
       <c r="U142">
-        <v>0.9998499482716409</v>
+        <v>-0.0001500517283591352</v>
       </c>
       <c r="V142">
-        <v>0.9999367248797774</v>
+        <v>-6.327512022263893E-05</v>
       </c>
       <c r="W142">
-        <v>1.000712081652029</v>
+        <v>0.0007120816520291839</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11589,7 +11589,7 @@
         <v>0.6443162899577344</v>
       </c>
       <c r="K143">
-        <v>39.18444972495504</v>
+        <v>-0.1081555027504496</v>
       </c>
       <c r="L143">
         <v>-0.01357953748784974</v>
@@ -11619,13 +11619,13 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="U143">
-        <v>0.9998341284635559</v>
+        <v>-0.0001658715364440955</v>
       </c>
       <c r="V143">
-        <v>0.9999367208757832</v>
+        <v>-6.327912421677517E-05</v>
       </c>
       <c r="W143">
-        <v>0.9995256166982923</v>
+        <v>-0.0004743833017076815</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11660,7 +11660,7 @@
         <v>0.6443162899577346</v>
       </c>
       <c r="K144">
-        <v>39.18444972495505</v>
+        <v>-0.1081555027504495</v>
       </c>
       <c r="L144">
         <v>-0.01260521544992877</v>
@@ -11690,13 +11690,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U144">
-        <v>0.9998420009005947</v>
+        <v>-0.0001579990994052816</v>
       </c>
       <c r="V144">
-        <v>0.999968358435641</v>
+        <v>-3.164156435897514E-05</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11731,7 +11731,7 @@
         <v>0.6443162899577346</v>
       </c>
       <c r="K145">
-        <v>39.18444972495505</v>
+        <v>-0.1081555027504495</v>
       </c>
       <c r="L145">
         <v>-0.01165724124567397</v>
@@ -11761,13 +11761,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U145">
-        <v>0.9998419759329348</v>
+        <v>-0.0001580240670652211</v>
       </c>
       <c r="V145">
-        <v>1.00001582128279</v>
+        <v>1.5821282789652E-05</v>
       </c>
       <c r="W145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11802,7 +11802,7 @@
         <v>0.6443162899577346</v>
       </c>
       <c r="K146">
-        <v>39.18444972495505</v>
+        <v>-0.1081555027504495</v>
       </c>
       <c r="L146">
         <v>-0.01074318305509045</v>
@@ -11832,13 +11832,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U146">
-        <v>0.9998735607659057</v>
+        <v>-0.0001264392340942777</v>
       </c>
       <c r="V146">
-        <v>1.000015821032481</v>
+        <v>1.582103248054523E-05</v>
       </c>
       <c r="W146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11873,7 +11873,7 @@
         <v>0.8212535930484205</v>
       </c>
       <c r="K147">
-        <v>45.09276446635877</v>
+        <v>-0.0490723553364123</v>
       </c>
       <c r="L147">
         <v>-0.009609821700438021</v>
@@ -11903,13 +11903,13 @@
         <v>0.008750000000006253</v>
       </c>
       <c r="U147">
-        <v>0.9999051585827528</v>
+        <v>-9.484141724724893E-05</v>
       </c>
       <c r="V147">
-        <v>1.000063283128718</v>
+        <v>6.328312871772823E-05</v>
       </c>
       <c r="W147">
-        <v>1.000711912672046</v>
+        <v>0.0007119126720456226</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11944,7 +11944,7 @@
         <v>0.6578801934815479</v>
       </c>
       <c r="K148">
-        <v>39.68201056193329</v>
+        <v>-0.1031798943806671</v>
       </c>
       <c r="L148">
         <v>-0.008726067016057213</v>
@@ -11974,13 +11974,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U148">
-        <v>0.999881436983757</v>
+        <v>-0.0001185630162430229</v>
       </c>
       <c r="V148">
-        <v>0.9999841802189455</v>
+        <v>-1.581978105447135E-05</v>
       </c>
       <c r="W148">
-        <v>0.9990514583827366</v>
+        <v>-0.000948541617263432</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -12015,7 +12015,7 @@
         <v>0.5955278814634184</v>
       </c>
       <c r="K149">
-        <v>37.3248182236214</v>
+        <v>-0.126751817763786</v>
       </c>
       <c r="L149">
         <v>-0.008190792160314231</v>
@@ -12045,13 +12045,13 @@
         <v>0.005000000000009663</v>
       </c>
       <c r="U149">
-        <v>0.9998656126482213</v>
+        <v>-0.0001343873517787308</v>
       </c>
       <c r="V149">
-        <v>0.9999208998433817</v>
+        <v>-7.910015661827252E-05</v>
       </c>
       <c r="W149">
-        <v>0.999525278898647</v>
+        <v>-0.0004747211013530483</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12086,7 +12086,7 @@
         <v>0.6454108337858615</v>
       </c>
       <c r="K150">
-        <v>39.2249048403833</v>
+        <v>-0.107750951596167</v>
       </c>
       <c r="L150">
         <v>-0.007784649390740018</v>
@@ -12116,13 +12116,13 @@
         <v>1.4210854715202E-14</v>
       </c>
       <c r="U150">
-        <v>0.9998972193891671</v>
+        <v>-0.0001027806108329088</v>
       </c>
       <c r="V150">
-        <v>0.9999683574344207</v>
+        <v>-3.164256557930401E-05</v>
       </c>
       <c r="W150">
-        <v>1.000237473284255</v>
+        <v>0.0002374732842553851</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12157,7 +12157,7 @@
         <v>0.6132120671448776</v>
       </c>
       <c r="K151">
-        <v>38.01186958824099</v>
+        <v>-0.1198813041175901</v>
       </c>
       <c r="L151">
         <v>-0.007540659630926942</v>
@@ -12187,13 +12187,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U151">
-        <v>0.9998893018107061</v>
+        <v>-0.0001106981892938785</v>
       </c>
       <c r="V151">
-        <v>0.9999683564331373</v>
+        <v>-3.164356686269354E-05</v>
       </c>
       <c r="W151">
-        <v>0.9997625830959165</v>
+        <v>-0.0002374169040835206</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12228,7 +12228,7 @@
         <v>0.6657265847129266</v>
       </c>
       <c r="K152">
-        <v>39.96613794980397</v>
+        <v>-0.1003386205019603</v>
       </c>
       <c r="L152">
         <v>-0.007296683903440055</v>
@@ -12258,13 +12258,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U152">
-        <v>0.9998971974441703</v>
+        <v>-0.0001028025558297285</v>
       </c>
       <c r="V152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W152">
-        <v>1.000237473284255</v>
+        <v>0.0002374732842553851</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12299,7 +12299,7 @@
         <v>0.7210050242582803</v>
       </c>
       <c r="K153">
-        <v>41.89441716296089</v>
+        <v>-0.0810558283703911</v>
       </c>
       <c r="L153">
         <v>-0.006955342804614211</v>
@@ -12329,13 +12329,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U153">
-        <v>0.9999446390863868</v>
+        <v>-5.536091361324491E-05</v>
       </c>
       <c r="V153">
-        <v>0.9999841777158951</v>
+        <v>-1.582228410490494E-05</v>
       </c>
       <c r="W153">
-        <v>1.000237416904084</v>
+        <v>0.0002374169040837426</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12370,7 +12370,7 @@
         <v>0.7210050242582803</v>
       </c>
       <c r="K154">
-        <v>41.89441716296089</v>
+        <v>-0.0810558283703911</v>
       </c>
       <c r="L154">
         <v>-0.006551429788517131</v>
@@ -12400,13 +12400,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U154">
-        <v>0.9999288177417824</v>
+        <v>-7.118225821756141E-05</v>
       </c>
       <c r="V154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12441,7 +12441,7 @@
         <v>0.8435057213116092</v>
       </c>
       <c r="K155">
-        <v>45.7555250065335</v>
+        <v>-0.04244474993466496</v>
       </c>
       <c r="L155">
         <v>-0.005938726990665956</v>
@@ -12471,13 +12471,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U155">
-        <v>0.9999446320801728</v>
+        <v>-5.536791982718725E-05</v>
       </c>
       <c r="V155">
-        <v>1.000015822534454</v>
+        <v>1.582253445353565E-05</v>
       </c>
       <c r="W155">
-        <v>1.000474721101353</v>
+        <v>0.0004747211013529373</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12512,7 +12512,7 @@
         <v>0.7067957629411149</v>
       </c>
       <c r="K156">
-        <v>41.41068183361195</v>
+        <v>-0.08589318166388049</v>
       </c>
       <c r="L156">
         <v>-0.005476059055534176</v>
@@ -12542,13 +12542,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U156">
-        <v>0.9999762695775986</v>
+        <v>-2.373042240144674E-05</v>
       </c>
       <c r="V156">
-        <v>0.9999841777158951</v>
+        <v>-1.582228410490494E-05</v>
       </c>
       <c r="W156">
-        <v>0.999288256227758</v>
+        <v>-0.000711743772242035</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12583,7 +12583,7 @@
         <v>0.8773994893907671</v>
       </c>
       <c r="K157">
-        <v>46.73483157681539</v>
+        <v>-0.03265168423184611</v>
       </c>
       <c r="L157">
         <v>-0.004854683207038707</v>
@@ -12613,13 +12613,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U157">
-        <v>0.9999604483574202</v>
+        <v>-3.955164257984922E-05</v>
       </c>
       <c r="V157">
-        <v>0.9999841774655465</v>
+        <v>-1.582253445353565E-05</v>
       </c>
       <c r="W157">
-        <v>1.000712250712251</v>
+        <v>0.0007122507122507837</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12654,7 +12654,7 @@
         <v>0.8773994893907672</v>
       </c>
       <c r="K158">
-        <v>46.73483157681539</v>
+        <v>-0.03265168423184611</v>
       </c>
       <c r="L158">
         <v>-0.004159045042500732</v>
@@ -12684,13 +12684,13 @@
         <v>-0.0037500000000108</v>
       </c>
       <c r="U158">
-        <v>0.9999762680758159</v>
+        <v>-2.373192418414494E-05</v>
       </c>
       <c r="V158">
-        <v>1.00001582278481</v>
+        <v>1.582278481015997E-05</v>
       </c>
       <c r="W158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12725,7 +12725,7 @@
         <v>0.7792020566835368</v>
       </c>
       <c r="K159">
-        <v>43.79502899945961</v>
+        <v>-0.06204971000540388</v>
       </c>
       <c r="L159">
         <v>-0.003620372014808769</v>
@@ -12755,13 +12755,13 @@
         <v>0.002500000000011937</v>
       </c>
       <c r="U159">
-        <v>0.9999762675125977</v>
+        <v>-2.373248740228373E-05</v>
       </c>
       <c r="V159">
-        <v>0.9999841774655465</v>
+        <v>-1.582253445353565E-05</v>
       </c>
       <c r="W159">
-        <v>0.9995255041518387</v>
+        <v>-0.0004744958481612827</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12796,7 +12796,7 @@
         <v>0.7792020566835369</v>
       </c>
       <c r="K160">
-        <v>43.79502899945962</v>
+        <v>-0.06204971000540382</v>
       </c>
       <c r="L160">
         <v>-0.003197944943810531</v>
@@ -12826,13 +12826,13 @@
         <v>0.006250000000008527</v>
       </c>
       <c r="U160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V160">
-        <v>0.9999841772151898</v>
+        <v>-1.582278481015997E-05</v>
       </c>
       <c r="W160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12867,7 +12867,7 @@
         <v>0.903211724954202</v>
       </c>
       <c r="K161">
-        <v>47.45723836773528</v>
+        <v>-0.02542761632264723</v>
       </c>
       <c r="L161">
         <v>-0.002688419156506268</v>
@@ -12897,13 +12897,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U161">
-        <v>1.000015822033764</v>
+        <v>1.582203376448987E-05</v>
       </c>
       <c r="V161">
-        <v>1.000015823035175</v>
+        <v>1.582303517455586E-05</v>
       </c>
       <c r="W161">
-        <v>1.000474721101353</v>
+        <v>0.0004747211013529373</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12938,7 +12938,7 @@
         <v>0.9032117249542019</v>
       </c>
       <c r="K162">
-        <v>47.45723836773527</v>
+        <v>-0.02542761632264728</v>
       </c>
       <c r="L162">
         <v>-0.002148793567079087</v>
@@ -12968,13 +12968,13 @@
         <v>0.01375000000000171</v>
       </c>
       <c r="U162">
-        <v>1.000015821783431</v>
+        <v>1.582178343118024E-05</v>
       </c>
       <c r="V162">
-        <v>0.9999683544303797</v>
+        <v>-3.164556962031995E-05</v>
       </c>
       <c r="W162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -13009,7 +13009,7 @@
         <v>0.7940973251079335</v>
       </c>
       <c r="K163">
-        <v>44.2616637344443</v>
+        <v>-0.05738336265555694</v>
       </c>
       <c r="L163">
         <v>-0.001790300081855405</v>
@@ -13039,13 +13039,13 @@
         <v>0.01375000000000171</v>
       </c>
       <c r="U163">
-        <v>0.999992089233447</v>
+        <v>-7.910766553043125E-06</v>
       </c>
       <c r="V163">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W163">
-        <v>0.9995255041518387</v>
+        <v>-0.0004744958481612827</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13080,7 +13080,7 @@
         <v>0.8576800155351951</v>
       </c>
       <c r="K164">
-        <v>46.16941606534421</v>
+        <v>-0.0383058393465579</v>
       </c>
       <c r="L164">
         <v>-0.00147146663231315</v>
@@ -13110,13 +13110,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U164">
-        <v>0.9999841783417318</v>
+        <v>-1.582165826818915E-05</v>
       </c>
       <c r="V164">
-        <v>1.000047469856641</v>
+        <v>4.746985664128012E-05</v>
       </c>
       <c r="W164">
-        <v>1.000237360550676</v>
+        <v>0.0002373605506764687</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13151,7 +13151,7 @@
         <v>0.6765550135098606</v>
       </c>
       <c r="K165">
-        <v>40.35388090805894</v>
+        <v>-0.09646119091941058</v>
       </c>
       <c r="L165">
         <v>-0.001537253639219771</v>
@@ -13181,13 +13181,13 @@
         <v>0.006250000000008527</v>
       </c>
       <c r="U165">
-        <v>0.9999683561828064</v>
+        <v>-3.164381719356069E-05</v>
       </c>
       <c r="V165">
-        <v>0.9999683549310928</v>
+        <v>-3.164506890718233E-05</v>
       </c>
       <c r="W165">
-        <v>0.9990507831039392</v>
+        <v>-0.0009492168960607561</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13222,7 +13222,7 @@
         <v>0.8988499176878503</v>
       </c>
       <c r="K166">
-        <v>47.33654352116159</v>
+        <v>-0.02663456478838405</v>
       </c>
       <c r="L166">
         <v>-0.001480641200379938</v>
@@ -13252,13 +13252,13 @@
         <v>0.001250000000013074</v>
       </c>
       <c r="U166">
-        <v>1.000007911204639</v>
+        <v>7.911204639166058E-06</v>
       </c>
       <c r="V166">
-        <v>1.000047469105524</v>
+        <v>4.746910552388961E-05</v>
       </c>
       <c r="W166">
-        <v>1.000950118764846</v>
+        <v>0.00095011876484552</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13293,7 +13293,7 @@
         <v>0.9573485766820479</v>
       </c>
       <c r="K167">
-        <v>48.9104796195716</v>
+        <v>-0.01089520380428399</v>
       </c>
       <c r="L167">
         <v>-0.001261676824205521</v>
@@ -13323,13 +13323,13 @@
         <v>0.001249999999984652</v>
       </c>
       <c r="U167">
-        <v>1.000023733426157</v>
+        <v>2.373342615746843E-05</v>
       </c>
       <c r="V167">
-        <v>1.000047466852315</v>
+        <v>4.746685231493686E-05</v>
       </c>
       <c r="W167">
-        <v>1.000237304224015</v>
+        <v>0.0002373042240151335</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13364,7 +13364,7 @@
         <v>0.7319807290140359</v>
       </c>
       <c r="K168">
-        <v>42.26263703469324</v>
+        <v>-0.0773736296530676</v>
       </c>
       <c r="L168">
         <v>-0.001385768872703584</v>
@@ -13394,13 +13394,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U168">
-        <v>0.9999683561828061</v>
+        <v>-3.164381719389375E-05</v>
       </c>
       <c r="V168">
-        <v>0.9999525354006803</v>
+        <v>-4.746459931970204E-05</v>
       </c>
       <c r="W168">
-        <v>0.9988137603795968</v>
+        <v>-0.001186239620403207</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13435,7 +13435,7 @@
         <v>0.731980729014036</v>
       </c>
       <c r="K169">
-        <v>42.26263703469324</v>
+        <v>-0.0773736296530676</v>
       </c>
       <c r="L169">
         <v>-0.001704753907480602</v>
@@ -13465,13 +13465,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U169">
-        <v>0.9999762663860826</v>
+        <v>-2.373361391738715E-05</v>
       </c>
       <c r="V169">
-        <v>0.9999525331476852</v>
+        <v>-4.746685231482584E-05</v>
       </c>
       <c r="W169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13506,7 +13506,7 @@
         <v>0.7841487841509804</v>
       </c>
       <c r="K170">
-        <v>43.95086279332538</v>
+        <v>-0.06049137206674615</v>
       </c>
       <c r="L170">
         <v>-0.002028875951511825</v>
@@ -13536,13 +13536,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U170">
-        <v>0.9999762658227849</v>
+        <v>-2.373417721512894E-05</v>
       </c>
       <c r="V170">
-        <v>0.9999367078593017</v>
+        <v>-6.329214069833444E-05</v>
       </c>
       <c r="W170">
-        <v>1.000237529691211</v>
+        <v>0.00023752969121138</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13577,7 +13577,7 @@
         <v>0.7841487841509803</v>
       </c>
       <c r="K171">
-        <v>43.95086279332538</v>
+        <v>-0.06049137206674621</v>
       </c>
       <c r="L171">
         <v>-0.002328078968582368</v>
@@ -13607,13 +13607,13 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="U171">
-        <v>0.99998417683964</v>
+        <v>-1.582316035997344E-05</v>
       </c>
       <c r="V171">
-        <v>0.9999841759632883</v>
+        <v>-1.582403671174237E-05</v>
       </c>
       <c r="W171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13648,7 +13648,7 @@
         <v>1.015364540990664</v>
       </c>
       <c r="K172">
-        <v>50.38118515727959</v>
+        <v>0.003811851572795844</v>
       </c>
       <c r="L172">
         <v>-0.002238977286238219</v>
@@ -13678,13 +13678,13 @@
         <v>-0.02125000000000909</v>
       </c>
       <c r="U172">
-        <v>0.9999920882946322</v>
+        <v>-7.9117053678468E-06</v>
       </c>
       <c r="V172">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W172">
-        <v>1.000949893137022</v>
+        <v>0.0009498931370219843</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13719,7 +13719,7 @@
         <v>1.015364540990664</v>
       </c>
       <c r="K173">
-        <v>50.38118515727959</v>
+        <v>0.003811851572795844</v>
       </c>
       <c r="L173">
         <v>-0.001912135416322384</v>
@@ -13749,13 +13749,13 @@
         <v>-0.008749999999977831</v>
       </c>
       <c r="U173">
-        <v>1.000007911767964</v>
+        <v>7.911767963664218E-06</v>
       </c>
       <c r="V173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13790,7 +13790,7 @@
         <v>1.143461913201038</v>
       </c>
       <c r="K174">
-        <v>53.34650017146311</v>
+        <v>0.03346500171463118</v>
       </c>
       <c r="L174">
         <v>-0.001282268968479089</v>
@@ -13820,13 +13820,13 @@
         <v>-0.0037500000000108</v>
       </c>
       <c r="U174">
-        <v>1.000023735116104</v>
+        <v>2.373511610431756E-05</v>
       </c>
       <c r="V174">
-        <v>1.000063297148464</v>
+        <v>6.329714846353696E-05</v>
       </c>
       <c r="W174">
-        <v>1.000474495848162</v>
+        <v>0.0004744958481615047</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13861,7 +13861,7 @@
         <v>1.278301252369805</v>
       </c>
       <c r="K175">
-        <v>56.10764823309311</v>
+        <v>0.0610764823309311</v>
       </c>
       <c r="L175">
         <v>-0.0003314276794430208</v>
@@ -13891,13 +13891,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U175">
-        <v>1.000039557587936</v>
+        <v>3.955758793638964E-05</v>
       </c>
       <c r="V175">
-        <v>1.000094939713282</v>
+        <v>9.493971328211614E-05</v>
       </c>
       <c r="W175">
-        <v>1.000474270808632</v>
+        <v>0.000474270808631605</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13932,7 +13932,7 @@
         <v>1.053917722079987</v>
       </c>
       <c r="K176">
-        <v>51.31255798370991</v>
+        <v>0.01312557983709906</v>
       </c>
       <c r="L176">
         <v>0.0004952143577542253</v>
@@ -13962,13 +13962,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U176">
-        <v>1.000015822409278</v>
+        <v>1.582240927833212E-05</v>
       </c>
       <c r="V176">
-        <v>1.000015821783431</v>
+        <v>1.582178343140228E-05</v>
       </c>
       <c r="W176">
-        <v>0.9992889310263096</v>
+        <v>-0.000711068973690443</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -14003,7 +14003,7 @@
         <v>1.300279252630434</v>
       </c>
       <c r="K177">
-        <v>56.5270173672839</v>
+        <v>0.06527017367283905</v>
       </c>
       <c r="L177">
         <v>0.0015378107417759</v>
@@ -14033,13 +14033,13 @@
         <v>0.02875000000000227</v>
       </c>
       <c r="U177">
-        <v>1.000023733238401</v>
+        <v>2.373323840054731E-05</v>
       </c>
       <c r="V177">
-        <v>1.000079107665533</v>
+        <v>7.910766553287374E-05</v>
       </c>
       <c r="W177">
-        <v>1.000948766603416</v>
+        <v>0.0009487666034158071</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14074,7 +14074,7 @@
         <v>1.365111234354212</v>
       </c>
       <c r="K178">
-        <v>57.71869054298212</v>
+        <v>0.07718690542982121</v>
       </c>
       <c r="L178">
         <v>0.002725587564202987</v>
@@ -14104,13 +14104,13 @@
         <v>0.04625000000000057</v>
       </c>
       <c r="U178">
-        <v>1.000063287133725</v>
+        <v>6.328713372538708E-05</v>
       </c>
       <c r="V178">
-        <v>1.000126562252808</v>
+        <v>0.00012656225280816</v>
       </c>
       <c r="W178">
-        <v>1.000236966824644</v>
+        <v>0.0002369668246444689</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14145,7 +14145,7 @@
         <v>1.277901855668444</v>
       </c>
       <c r="K179">
-        <v>56.09995235257612</v>
+        <v>0.06099952352576121</v>
       </c>
       <c r="L179">
         <v>0.003829223088233713</v>
@@ -14175,13 +14175,13 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="U179">
-        <v>1.000071193519808</v>
+        <v>7.119351980788835E-05</v>
       </c>
       <c r="V179">
-        <v>1.000094909677623</v>
+        <v>9.490967762326719E-05</v>
       </c>
       <c r="W179">
-        <v>0.9997630893153282</v>
+        <v>-0.0002369106846717983</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14216,7 +14216,7 @@
         <v>1.197381776971392</v>
       </c>
       <c r="K180">
-        <v>54.49129457247615</v>
+        <v>0.04491294572476145</v>
       </c>
       <c r="L180">
         <v>0.004711132744051838</v>
@@ -14246,13 +14246,13 @@
         <v>0.06374999999999886</v>
       </c>
       <c r="U180">
-        <v>1.000055368795729</v>
+        <v>5.536879572876074E-05</v>
       </c>
       <c r="V180">
-        <v>1.000142351005947</v>
+        <v>0.0001423510059472832</v>
       </c>
       <c r="W180">
-        <v>0.9997630331753553</v>
+        <v>-0.000236966824644691</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14287,7 +14287,7 @@
         <v>1.122904159501321</v>
       </c>
       <c r="K181">
-        <v>52.89471757241721</v>
+        <v>0.02894717572417205</v>
       </c>
       <c r="L181">
         <v>0.005298902911570272</v>
@@ -14317,13 +14317,13 @@
         <v>0.06125000000000114</v>
       </c>
       <c r="U181">
-        <v>1.000055365730195</v>
+        <v>5.536573019493396E-05</v>
       </c>
       <c r="V181">
-        <v>1.000063258108899</v>
+        <v>6.325810889884487E-05</v>
       </c>
       <c r="W181">
-        <v>0.9997629770087699</v>
+        <v>-0.0002370229912300736</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14358,7 +14358,7 @@
         <v>1.253852355943866</v>
       </c>
       <c r="K182">
-        <v>55.6315214098742</v>
+        <v>0.05631521409874196</v>
       </c>
       <c r="L182">
         <v>0.005824520413729033</v>
@@ -14388,13 +14388,13 @@
         <v>0.06125000000000114</v>
       </c>
       <c r="U182">
-        <v>1.000063271617143</v>
+        <v>6.327161714314578E-05</v>
       </c>
       <c r="V182">
-        <v>1.000079067634454</v>
+        <v>7.906763445442166E-05</v>
       </c>
       <c r="W182">
-        <v>1.000474158368895</v>
+        <v>0.0004741583688951945</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14429,7 +14429,7 @@
         <v>1.322772459334655</v>
       </c>
       <c r="K183">
-        <v>56.9479999652465</v>
+        <v>0.06947999965246499</v>
       </c>
       <c r="L183">
         <v>0.006344136672094314</v>
@@ -14459,13 +14459,13 @@
         <v>0.05875000000000341</v>
       </c>
       <c r="U183">
-        <v>1.000063267614099</v>
+        <v>6.326761409924941E-05</v>
       </c>
       <c r="V183">
-        <v>1.000173935043168</v>
+        <v>0.0001739350431677611</v>
       </c>
       <c r="W183">
-        <v>1.000236966824644</v>
+        <v>0.0002369668246444689</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14500,7 +14500,7 @@
         <v>1.322772459334654</v>
       </c>
       <c r="K184">
-        <v>56.9479999652465</v>
+        <v>0.06947999965246499</v>
       </c>
       <c r="L184">
         <v>0.006803844431647397</v>
@@ -14530,13 +14530,13 @@
         <v>0.05750000000000455</v>
       </c>
       <c r="U184">
-        <v>1.000063263611561</v>
+        <v>6.326361156139271E-05</v>
       </c>
       <c r="V184">
-        <v>1.000173904795029</v>
+        <v>0.0001739047950293227</v>
       </c>
       <c r="W184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14571,7 +14571,7 @@
         <v>1.628235521454547</v>
       </c>
       <c r="K185">
-        <v>61.95165951312579</v>
+        <v>0.1195165951312579</v>
       </c>
       <c r="L185">
         <v>0.007518700992985751</v>
@@ -14601,13 +14601,13 @@
         <v>0.05125000000001023</v>
       </c>
       <c r="U185">
-        <v>1.000079074511913</v>
+        <v>7.907451191258019E-05</v>
       </c>
       <c r="V185">
-        <v>1.000221294891249</v>
+        <v>0.0002212948912492241</v>
       </c>
       <c r="W185">
-        <v>1.000947642738687</v>
+        <v>0.0009476427386874153</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14642,7 +14642,7 @@
         <v>1.402720156097263</v>
       </c>
       <c r="K186">
-        <v>58.38050480151215</v>
+        <v>0.08380504801512156</v>
       </c>
       <c r="L186">
         <v>0.008142296586686828</v>
@@ -14672,13 +14672,13 @@
         <v>0.04125000000000512</v>
       </c>
       <c r="U186">
-        <v>1.000086975085591</v>
+        <v>8.697508559141198E-05</v>
       </c>
       <c r="V186">
-        <v>1.000189639369133</v>
+        <v>0.0001896393691331877</v>
       </c>
       <c r="W186">
-        <v>0.9995266272189348</v>
+        <v>-0.0004733727810651844</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14713,7 +14713,7 @@
         <v>1.402720156097263</v>
       </c>
       <c r="K187">
-        <v>58.38050480151216</v>
+        <v>0.08380504801512156</v>
       </c>
       <c r="L187">
         <v>0.008641137837211491</v>
@@ -14743,13 +14743,13 @@
         <v>0.03374999999999773</v>
       </c>
       <c r="U187">
-        <v>1.000063249106606</v>
+        <v>6.324910660637784E-05</v>
       </c>
       <c r="V187">
-        <v>1.000126402275241</v>
+        <v>0.0001264022752409666</v>
       </c>
       <c r="W187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14784,7 +14784,7 @@
         <v>1.402720156097263</v>
       </c>
       <c r="K188">
-        <v>58.38050480151216</v>
+        <v>0.08380504801512156</v>
       </c>
       <c r="L188">
         <v>0.009001079452643054</v>
@@ -14814,13 +14814,13 @@
         <v>0.03374999999999773</v>
       </c>
       <c r="U188">
-        <v>1.00006324510641</v>
+        <v>6.324510640975944E-05</v>
       </c>
       <c r="V188">
-        <v>1.000126386299725</v>
+        <v>0.0001263862997251675</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14855,7 +14855,7 @@
         <v>1.297887821319024</v>
       </c>
       <c r="K189">
-        <v>56.48177466618088</v>
+        <v>0.06481774666180884</v>
       </c>
       <c r="L189">
         <v>0.009134742922863358</v>
@@ -14885,13 +14885,13 @@
         <v>0.03499999999999659</v>
       </c>
       <c r="U189">
-        <v>1.00007114624506</v>
+        <v>7.114624505955014E-05</v>
       </c>
       <c r="V189">
-        <v>1.000078981455154</v>
+        <v>7.898145515405908E-05</v>
       </c>
       <c r="W189">
-        <v>0.9997632015155103</v>
+        <v>-0.0002367984844896531</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14926,7 +14926,7 @@
         <v>1.121443386394586</v>
       </c>
       <c r="K190">
-        <v>52.86228204753039</v>
+        <v>0.02862282047530385</v>
       </c>
       <c r="L190">
         <v>0.008916818234963538</v>
@@ -14956,13 +14956,13 @@
         <v>0.03125</v>
       </c>
       <c r="U190">
-        <v>1.000055332031713</v>
+        <v>5.533203171315115E-05</v>
       </c>
       <c r="V190">
-        <v>1.000015795043516</v>
+        <v>1.579504351556515E-05</v>
       </c>
       <c r="W190">
-        <v>0.9995262908574136</v>
+        <v>-0.000473709142586376</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14997,7 +14997,7 @@
         <v>1.121443386394586</v>
       </c>
       <c r="K191">
-        <v>52.86228204753039</v>
+        <v>0.02862282047530385</v>
       </c>
       <c r="L191">
         <v>0.008467358353862376</v>
@@ -15027,13 +15027,13 @@
         <v>0.0274999999999892</v>
       </c>
       <c r="U191">
-        <v>1.000039520693035</v>
+        <v>3.952069303458927E-05</v>
       </c>
       <c r="V191">
-        <v>1.000063179176144</v>
+        <v>6.317917614384605E-05</v>
       </c>
       <c r="W191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15068,7 +15068,7 @@
         <v>1.347394692671457</v>
       </c>
       <c r="K192">
-        <v>57.39957992058216</v>
+        <v>0.07399579920582156</v>
       </c>
       <c r="L192">
         <v>0.008134497738610594</v>
@@ -15098,13 +15098,13 @@
         <v>0.0237499999999784</v>
       </c>
       <c r="U192">
-        <v>1.000063230609938</v>
+        <v>6.323060993840279E-05</v>
       </c>
       <c r="V192">
-        <v>1.00004738138859</v>
+        <v>4.738138859039509E-05</v>
       </c>
       <c r="W192">
-        <v>1.000710900473933</v>
+        <v>0.0007109004739334068</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15139,7 +15139,7 @@
         <v>1.162988532585363</v>
       </c>
       <c r="K193">
-        <v>53.7676698264911</v>
+        <v>0.03767669826491105</v>
       </c>
       <c r="L193">
         <v>0.007691162647299904</v>
@@ -15169,13 +15169,13 @@
         <v>0.01250000000000284</v>
       </c>
       <c r="U193">
-        <v>1.000063226612081</v>
+        <v>6.322661208102431E-05</v>
       </c>
       <c r="V193">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W193">
-        <v>0.9995264030310207</v>
+        <v>-0.0004735969689793063</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15210,7 +15210,7 @@
         <v>1.084844724279946</v>
       </c>
       <c r="K194">
-        <v>52.03479720316459</v>
+        <v>0.02034797203164596</v>
       </c>
       <c r="L194">
         <v>0.007094835337959346</v>
@@ -15240,13 +15240,13 @@
         <v>0.006250000000008527</v>
       </c>
       <c r="U194">
-        <v>1.000047416961047</v>
+        <v>4.741696104715309E-05</v>
       </c>
       <c r="V194">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W194">
-        <v>0.9997630893153282</v>
+        <v>-0.0002369106846717983</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15281,7 +15281,7 @@
         <v>1.155573401319119</v>
       </c>
       <c r="K195">
-        <v>53.60863149507956</v>
+        <v>0.03608631495079562</v>
       </c>
       <c r="L195">
         <v>0.006504341765073383</v>
@@ -15311,13 +15311,13 @@
         <v>-1.4210854715202E-14</v>
       </c>
       <c r="U195">
-        <v>1.00008692697344</v>
+        <v>8.692697343981592E-05</v>
       </c>
       <c r="V195">
-        <v>1.000031586095801</v>
+        <v>3.158609580067306E-05</v>
       </c>
       <c r="W195">
-        <v>1.000236966824644</v>
+        <v>0.0002369668246444689</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15352,7 +15352,7 @@
         <v>1.155573401319118</v>
       </c>
       <c r="K196">
-        <v>53.60863149507955</v>
+        <v>0.03608631495079551</v>
       </c>
       <c r="L196">
         <v>0.005931332595525644</v>
@@ -15382,13 +15382,13 @@
         <v>-0.007499999999978968</v>
       </c>
       <c r="U196">
-        <v>1.000055312356781</v>
+        <v>5.531235678057911E-05</v>
       </c>
       <c r="V196">
-        <v>1.000047377647226</v>
+        <v>4.737764722584359E-05</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15423,7 +15423,7 @@
         <v>1.155573401319119</v>
       </c>
       <c r="K197">
-        <v>53.60863149507956</v>
+        <v>0.03608631495079562</v>
       </c>
       <c r="L197">
         <v>0.005383836867327936</v>
@@ -15453,13 +15453,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U197">
-        <v>1.000047407969279</v>
+        <v>4.740796927937829E-05</v>
       </c>
       <c r="V197">
-        <v>1.000015791800897</v>
+        <v>1.579180089694709E-05</v>
       </c>
       <c r="W197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15494,7 +15494,7 @@
         <v>1.238067848951919</v>
       </c>
       <c r="K198">
-        <v>55.31860213852332</v>
+        <v>0.05318602138523321</v>
       </c>
       <c r="L198">
         <v>0.004953389753401529</v>
@@ -15524,13 +15524,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U198">
-        <v>1.000094811443741</v>
+        <v>9.481144374134942E-05</v>
       </c>
       <c r="V198">
-        <v>1.00001579155152</v>
+        <v>1.579155151998357E-05</v>
       </c>
       <c r="W198">
-        <v>1.000236910684672</v>
+        <v>0.0002369106846717983</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15565,7 +15565,7 @@
         <v>1.139148456634236</v>
       </c>
       <c r="K199">
-        <v>53.25242636159004</v>
+        <v>0.03252426361590044</v>
       </c>
       <c r="L199">
         <v>0.004516934155565351</v>
@@ -15595,13 +15595,13 @@
         <v>-0.008749999999977831</v>
       </c>
       <c r="U199">
-        <v>1.000086902250768</v>
+        <v>8.690225076835034E-05</v>
       </c>
       <c r="V199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W199">
-        <v>0.9997631454287068</v>
+        <v>-0.000236854571293188</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15636,7 +15636,7 @@
         <v>1.39145856115407</v>
       </c>
       <c r="K200">
-        <v>58.18451482941774</v>
+        <v>0.08184514829417744</v>
       </c>
       <c r="L200">
         <v>0.00434709712442404</v>
@@ -15666,13 +15666,13 @@
         <v>-0.009999999999990905</v>
       </c>
       <c r="U200">
-        <v>1.000102693735682</v>
+        <v>0.0001026937356820579</v>
       </c>
       <c r="V200">
-        <v>0.9999842086978492</v>
+        <v>-1.579130215079161E-05</v>
       </c>
       <c r="W200">
-        <v>1.000710732054016</v>
+        <v>0.000710732054015617</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15707,7 +15707,7 @@
         <v>1.27829158455542</v>
       </c>
       <c r="K201">
-        <v>56.10746197813229</v>
+        <v>0.06107461978132289</v>
       </c>
       <c r="L201">
         <v>0.004247451097379813</v>
@@ -15737,13 +15737,13 @@
         <v>-0.002500000000011937</v>
       </c>
       <c r="U201">
-        <v>1.00009478448378</v>
+        <v>9.478448378019699E-05</v>
       </c>
       <c r="V201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W201">
-        <v>0.9997632575757575</v>
+        <v>-0.000236742424242542</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15778,7 +15778,7 @@
         <v>1.363901847474739</v>
       </c>
       <c r="K202">
-        <v>57.69705916223807</v>
+        <v>0.07697059162238074</v>
       </c>
       <c r="L202">
         <v>0.004267486590145894</v>
@@ -15808,13 +15808,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U202">
-        <v>1.0000710816254</v>
+        <v>7.108162539970486E-05</v>
       </c>
       <c r="V202">
-        <v>1.00001579155152</v>
+        <v>1.579155151998357E-05</v>
       </c>
       <c r="W202">
-        <v>1.00023679848449</v>
+        <v>0.0002367984844897641</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15849,7 +15849,7 @@
         <v>1.544133979936335</v>
       </c>
       <c r="K203">
-        <v>60.69389395817023</v>
+        <v>0.1069389395817023</v>
       </c>
       <c r="L203">
         <v>0.00451575833661366</v>
@@ -15879,13 +15879,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U203">
-        <v>1.000086871367197</v>
+        <v>8.687136719731647E-05</v>
       </c>
       <c r="V203">
-        <v>1.000047373906452</v>
+        <v>4.737390645215278E-05</v>
       </c>
       <c r="W203">
-        <v>1.000473484848485</v>
+        <v>0.0004734848484848619</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15920,7 +15920,7 @@
         <v>1.828711031191554</v>
       </c>
       <c r="K204">
-        <v>64.64820941505769</v>
+        <v>0.1464820941505769</v>
       </c>
       <c r="L204">
         <v>0.005128833422945903</v>
@@ -15950,13 +15950,13 @@
         <v>0.02750000000001762</v>
       </c>
       <c r="U204">
-        <v>1.000094760532238</v>
+        <v>9.476053223833603E-05</v>
       </c>
       <c r="V204">
-        <v>1.000110533878634</v>
+        <v>0.0001105338786338006</v>
       </c>
       <c r="W204">
-        <v>1.000709891150024</v>
+        <v>0.0007098911500236227</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15991,7 +15991,7 @@
         <v>2.02841422505489</v>
       </c>
       <c r="K205">
-        <v>66.97941808202029</v>
+        <v>0.1697941808202029</v>
       </c>
       <c r="L205">
         <v>0.006077634710102258</v>
@@ -16021,13 +16021,13 @@
         <v>0.04125000000000512</v>
       </c>
       <c r="U205">
-        <v>1.000094751553531</v>
+        <v>9.475155353055875E-05</v>
       </c>
       <c r="V205">
-        <v>1.000173676897815</v>
+        <v>0.0001736768978148895</v>
       </c>
       <c r="W205">
-        <v>1.000472925041381</v>
+        <v>0.0004729250413810782</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16062,7 +16062,7 @@
         <v>2.13352116919345</v>
       </c>
       <c r="K206">
-        <v>68.08701949004563</v>
+        <v>0.1808701949004563</v>
       </c>
       <c r="L206">
         <v>0.007233374681187362</v>
@@ -16092,13 +16092,13 @@
         <v>0.05125000000001023</v>
       </c>
       <c r="U206">
-        <v>1.000126323435366</v>
+        <v>0.0001263234353658937</v>
       </c>
       <c r="V206">
-        <v>1.000189432806605</v>
+        <v>0.0001894328066047724</v>
       </c>
       <c r="W206">
-        <v>1.000236350744505</v>
+        <v>0.0002363507445048985</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16133,7 +16133,7 @@
         <v>1.920985471656231</v>
       </c>
       <c r="K207">
-        <v>65.7649786449301</v>
+        <v>0.1576497864493009</v>
       </c>
       <c r="L207">
         <v>0.008328068083268666</v>
@@ -16163,13 +16163,13 @@
         <v>0.0625</v>
       </c>
       <c r="U207">
-        <v>1.000086836392343</v>
+        <v>8.683639234252638E-05</v>
       </c>
       <c r="V207">
-        <v>1.000126264619076</v>
+        <v>0.0001262646190756112</v>
       </c>
       <c r="W207">
-        <v>0.9997637051039698</v>
+        <v>-0.0002362948960301647</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16204,7 +16204,7 @@
         <v>1.738668116041842</v>
       </c>
       <c r="K208">
-        <v>63.48590053163194</v>
+        <v>0.1348590053163194</v>
       </c>
       <c r="L208">
         <v>0.009199297433181155</v>
@@ -16234,13 +16234,13 @@
         <v>0.06875000000000853</v>
       </c>
       <c r="U208">
-        <v>1.000071041788359</v>
+        <v>7.104178835870556E-05</v>
       </c>
       <c r="V208">
-        <v>1.000142029763126</v>
+        <v>0.0001420297631258283</v>
       </c>
       <c r="W208">
-        <v>0.999763649255495</v>
+        <v>-0.0002363507445050095</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16275,7 +16275,7 @@
         <v>1.938474943049599</v>
       </c>
       <c r="K209">
-        <v>65.96874163023548</v>
+        <v>0.1596874163023548</v>
       </c>
       <c r="L209">
         <v>0.01001853362775512</v>
@@ -16305,13 +16305,13 @@
         <v>0.07750000000000057</v>
       </c>
       <c r="U209">
-        <v>1.000094715655709</v>
+        <v>9.471565570851048E-05</v>
       </c>
       <c r="V209">
-        <v>1.000189346124716</v>
+        <v>0.0001893461247157724</v>
       </c>
       <c r="W209">
-        <v>1.000472813238771</v>
+        <v>0.0004728132387707973</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16346,7 +16346,7 @@
         <v>2.043636430948381</v>
       </c>
       <c r="K210">
-        <v>67.14456464537699</v>
+        <v>0.1714456464537699</v>
       </c>
       <c r="L210">
         <v>0.01080368704804118</v>
@@ -16376,13 +16376,13 @@
         <v>0.08374999999999488</v>
       </c>
       <c r="U210">
-        <v>1.000110491133086</v>
+        <v>0.0001104911330864766</v>
       </c>
       <c r="V210">
-        <v>1.000189310279548</v>
+        <v>0.0001893102795482715</v>
       </c>
       <c r="W210">
-        <v>1.00023629489603</v>
+        <v>0.0002362948960301647</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16417,7 +16417,7 @@
         <v>1.839959694953536</v>
       </c>
       <c r="K211">
-        <v>64.78823267185976</v>
+        <v>0.1478823267185976</v>
       </c>
       <c r="L211">
         <v>0.01139243232224313</v>
@@ -16447,13 +16447,13 @@
         <v>0.08500000000000796</v>
       </c>
       <c r="U211">
-        <v>1.000110478926145</v>
+        <v>0.0001104789261447969</v>
       </c>
       <c r="V211">
-        <v>1.000173501577287</v>
+        <v>0.0001735015772870163</v>
       </c>
       <c r="W211">
-        <v>0.9997637609260572</v>
+        <v>-0.0002362390739427678</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16488,7 +16488,7 @@
         <v>1.839959694953535</v>
       </c>
       <c r="K212">
-        <v>64.78823267185976</v>
+        <v>0.1478823267185976</v>
       </c>
       <c r="L212">
         <v>0.01178308884628877</v>
@@ -16518,13 +16518,13 @@
         <v>0.07874999999998522</v>
       </c>
       <c r="U212">
-        <v>1.000094685761629</v>
+        <v>9.468576162863229E-05</v>
       </c>
       <c r="V212">
-        <v>1.000173471479712</v>
+        <v>0.0001734714797116954</v>
       </c>
       <c r="W212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16559,7 +16559,7 @@
         <v>1.839959694953535</v>
       </c>
       <c r="K213">
-        <v>64.78823267185976</v>
+        <v>0.1478823267185976</v>
       </c>
       <c r="L213">
         <v>0.01198586061190675</v>
@@ -16589,13 +16589,13 @@
         <v>0.06749999999999545</v>
       </c>
       <c r="U213">
-        <v>1.000086787063994</v>
+        <v>8.678706399356528E-05</v>
       </c>
       <c r="V213">
-        <v>1.000157673993251</v>
+        <v>0.0001576739932513949</v>
       </c>
       <c r="W213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16630,7 +16630,7 @@
         <v>1.956202739116046</v>
       </c>
       <c r="K214">
-        <v>66.17282073491967</v>
+        <v>0.1617282073491967</v>
       </c>
       <c r="L214">
         <v>0.01210438521701892</v>
@@ -16660,13 +16660,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U214">
-        <v>1.000094668581076</v>
+        <v>9.466858107565201E-05</v>
       </c>
       <c r="V214">
-        <v>1.0001891789633</v>
+        <v>0.0001891789632995078</v>
       </c>
       <c r="W214">
-        <v>1.00023629489603</v>
+        <v>0.0002362948960301647</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16701,7 +16701,7 @@
         <v>2.078563838234565</v>
       </c>
       <c r="K215">
-        <v>67.51732130481139</v>
+        <v>0.1751732130481138</v>
       </c>
       <c r="L215">
         <v>0.01220635523882206</v>
@@ -16731,13 +16731,13 @@
         <v>0.04749999999998522</v>
       </c>
       <c r="U215">
-        <v>1.000070994714838</v>
+        <v>7.099471483784647E-05</v>
       </c>
       <c r="V215">
-        <v>1.000157619317824</v>
+        <v>0.000157619317823654</v>
       </c>
       <c r="W215">
-        <v>1.000236239073943</v>
+        <v>0.0002362390739429898</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16772,7 +16772,7 @@
         <v>2.207364995201336</v>
       </c>
       <c r="K216">
-        <v>68.82175862441166</v>
+        <v>0.1882175862441166</v>
       </c>
       <c r="L216">
         <v>0.01233343462596013</v>
@@ -16802,13 +16802,13 @@
         <v>0.04625000000000057</v>
       </c>
       <c r="U216">
-        <v>1.000094652899928</v>
+        <v>9.465289992838244E-05</v>
       </c>
       <c r="V216">
-        <v>1.000189113373467</v>
+        <v>0.0001891133734670536</v>
       </c>
       <c r="W216">
-        <v>1.000236183278224</v>
+        <v>0.0002361832782238338</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16843,7 +16843,7 @@
         <v>2.885265821342331</v>
       </c>
       <c r="K217">
-        <v>74.26173533592336</v>
+        <v>0.2426173533592336</v>
       </c>
       <c r="L217">
         <v>0.01285345516724214</v>
@@ -16873,13 +16873,13 @@
         <v>0.04499999999998749</v>
       </c>
       <c r="U217">
-        <v>1.000134078917273</v>
+        <v>0.0001340789172730172</v>
       </c>
       <c r="V217">
-        <v>1.000252103488482</v>
+        <v>0.0002521034884821471</v>
       </c>
       <c r="W217">
-        <v>1.001180637544274</v>
+        <v>0.001180637544273777</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16914,7 +16914,7 @@
         <v>2.244588578512762</v>
       </c>
       <c r="K218">
-        <v>69.17945139107977</v>
+        <v>0.1917945139107977</v>
       </c>
       <c r="L218">
         <v>0.01335898334034122</v>
@@ -16944,13 +16944,13 @@
         <v>0.03999999999999204</v>
       </c>
       <c r="U218">
-        <v>1.000118289066936</v>
+        <v>0.0001182890669360059</v>
       </c>
       <c r="V218">
-        <v>1.000189029961249</v>
+        <v>0.000189029961249032</v>
       </c>
       <c r="W218">
-        <v>0.9995283018867925</v>
+        <v>-0.0004716981132074638</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16985,7 +16985,7 @@
         <v>2.361457723242308</v>
       </c>
       <c r="K219">
-        <v>70.25100172804059</v>
+        <v>0.202510017280406</v>
       </c>
       <c r="L219">
         <v>0.01386084751277662</v>
@@ -17015,13 +17015,13 @@
         <v>0.04125000000000512</v>
       </c>
       <c r="U219">
-        <v>1.000134045086459</v>
+        <v>0.0001340450864590892</v>
       </c>
       <c r="V219">
-        <v>1.000157495196397</v>
+        <v>0.0001574951963965177</v>
       </c>
       <c r="W219">
-        <v>1.00023596035866</v>
+        <v>0.0002359603586596926</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17056,7 +17056,7 @@
         <v>2.102774129482297</v>
       </c>
       <c r="K220">
-        <v>67.77077678655095</v>
+        <v>0.1777077678655096</v>
       </c>
       <c r="L220">
         <v>0.01419171670751221</v>
@@ -17086,13 +17086,13 @@
         <v>0.04500000000000171</v>
       </c>
       <c r="U220">
-        <v>1.000141911069063</v>
+        <v>0.0001419110690634717</v>
       </c>
       <c r="V220">
-        <v>1.000110229276896</v>
+        <v>0.0001102292768959678</v>
       </c>
       <c r="W220">
-        <v>0.9997640953054966</v>
+        <v>-0.0002359046945034082</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17127,7 +17127,7 @@
         <v>2.333393138298183</v>
       </c>
       <c r="K221">
-        <v>70.00053823502691</v>
+        <v>0.2000053823502691</v>
       </c>
       <c r="L221">
         <v>0.01451836679184655</v>
@@ -17157,13 +17157,13 @@
         <v>0.05375000000000796</v>
       </c>
       <c r="U221">
-        <v>1.000157656592411</v>
+        <v>0.0001576565924108486</v>
       </c>
       <c r="V221">
-        <v>1.000125962431704</v>
+        <v>0.000125962431704485</v>
       </c>
       <c r="W221">
-        <v>1.000471920717319</v>
+        <v>0.0004719207173193851</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17198,7 +17198,7 @@
         <v>2.697528415375984</v>
       </c>
       <c r="K222">
-        <v>72.95490696321491</v>
+        <v>0.229549069632149</v>
       </c>
       <c r="L222">
         <v>0.01502693896783319</v>
@@ -17228,13 +17228,13 @@
         <v>0.06499999999998352</v>
       </c>
       <c r="U222">
-        <v>1.000157631740727</v>
+        <v>0.0001576317407272487</v>
       </c>
       <c r="V222">
-        <v>1.000188919850753</v>
+        <v>0.0001889198507534218</v>
       </c>
       <c r="W222">
-        <v>1.000707547169811</v>
+        <v>0.0007075471698112512</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17269,7 +17269,7 @@
         <v>2.391920476605275</v>
       </c>
       <c r="K223">
-        <v>70.51817674095865</v>
+        <v>0.2051817674095865</v>
       </c>
       <c r="L223">
         <v>0.01547222119396499</v>
@@ -17299,13 +17299,13 @@
         <v>0.07125000000000625</v>
       </c>
       <c r="U223">
-        <v>1.000165487241722</v>
+        <v>0.0001654872417216069</v>
       </c>
       <c r="V223">
-        <v>1.000188884166785</v>
+        <v>0.0001888841667847529</v>
       </c>
       <c r="W223">
-        <v>0.9997643176997408</v>
+        <v>-0.0002356823002591657</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17340,7 +17340,7 @@
         <v>2.630429598728627</v>
       </c>
       <c r="K224">
-        <v>72.45505048906061</v>
+        <v>0.2245505048906061</v>
       </c>
       <c r="L224">
         <v>0.01596642382941059</v>
@@ -17370,13 +17370,13 @@
         <v>0.07625000000000171</v>
       </c>
       <c r="U224">
-        <v>1.000189096983115</v>
+        <v>0.0001890969831153111</v>
       </c>
       <c r="V224">
-        <v>1.000188848496294</v>
+        <v>0.0001888484962937476</v>
       </c>
       <c r="W224">
-        <v>1.000471475719</v>
+        <v>0.0004714757190003027</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17411,7 +17411,7 @@
         <v>2.755960715635745</v>
       </c>
       <c r="K225">
-        <v>73.37565337579051</v>
+        <v>0.2337565337579051</v>
       </c>
       <c r="L225">
         <v>0.01648645030093088</v>
@@ -17441,13 +17441,13 @@
         <v>0.07250000000000512</v>
       </c>
       <c r="U225">
-        <v>1.000189061232206</v>
+        <v>0.0001890612322064111</v>
       </c>
       <c r="V225">
-        <v>1.000188812839273</v>
+        <v>0.0001888128392730781</v>
       </c>
       <c r="W225">
-        <v>1.000235626767201</v>
+        <v>0.0002356267672007917</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17482,7 +17482,7 @@
         <v>2.755960715635745</v>
       </c>
       <c r="K226">
-        <v>73.37565337579051</v>
+        <v>0.2337565337579051</v>
       </c>
       <c r="L226">
         <v>0.0169286887857878</v>
@@ -17512,13 +17512,13 @@
         <v>0.07500000000000284</v>
       </c>
       <c r="U226">
-        <v>1.000189025494814</v>
+        <v>0.0001890254948135883</v>
       </c>
       <c r="V226">
-        <v>1.000204508628691</v>
+        <v>0.0002045086286910358</v>
       </c>
       <c r="W226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17553,7 +17553,7 @@
         <v>2.755960715635745</v>
       </c>
       <c r="K227">
-        <v>73.37565337579051</v>
+        <v>0.2337565337579051</v>
       </c>
       <c r="L227">
         <v>0.01723375883373898</v>
@@ -17583,13 +17583,13 @@
         <v>0.07374999999998977</v>
       </c>
       <c r="U227">
-        <v>1.000188989770929</v>
+        <v>0.0001889897709288491</v>
       </c>
       <c r="V227">
-        <v>1.000204466813463</v>
+        <v>0.000204466813463311</v>
       </c>
       <c r="W227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17624,7 +17624,7 @@
         <v>2.902374031754162</v>
       </c>
       <c r="K228">
-        <v>74.37457322484056</v>
+        <v>0.2437457322484056</v>
       </c>
       <c r="L228">
         <v>0.017459386144814</v>
@@ -17654,13 +17654,13 @@
         <v>0.07625000000000171</v>
       </c>
       <c r="U228">
-        <v>1.000188954060544</v>
+        <v>0.0001889540605439777</v>
       </c>
       <c r="V228">
-        <v>1.000220150016511</v>
+        <v>0.0002201500165113224</v>
       </c>
       <c r="W228">
-        <v>1.000235571260306</v>
+        <v>0.0002355712603061555</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17695,7 +17695,7 @@
         <v>1.984722173754517</v>
       </c>
       <c r="K229">
-        <v>66.49604412788315</v>
+        <v>0.1649604412788315</v>
       </c>
       <c r="L229">
         <v>0.01730070419376402</v>
@@ -17725,13 +17725,13 @@
         <v>0.07000000000000739</v>
       </c>
       <c r="U229">
-        <v>1.000173175166681</v>
+        <v>0.0001731751666811387</v>
       </c>
       <c r="V229">
-        <v>1.00015721540082</v>
+        <v>0.0001572154008204762</v>
       </c>
       <c r="W229">
-        <v>0.9992934526613283</v>
+        <v>-0.0007065473386717036</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17766,7 +17766,7 @@
         <v>1.276603818372736</v>
       </c>
       <c r="K230">
-        <v>56.07492213051029</v>
+        <v>0.06074922130510296</v>
       </c>
       <c r="L230">
         <v>0.01642633242273653</v>
@@ -17796,13 +17796,13 @@
         <v>0.05125000000001023</v>
       </c>
       <c r="U230">
-        <v>1.000110183297786</v>
+        <v>0.000110183297786115</v>
       </c>
       <c r="V230">
-        <v>1.000062876275209</v>
+        <v>6.287627520928929E-05</v>
       </c>
       <c r="W230">
-        <v>0.9988215884987038</v>
+        <v>-0.001178411501296162</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17837,7 +17837,7 @@
         <v>1.577054028427922</v>
       </c>
       <c r="K231">
-        <v>61.19600175359813</v>
+        <v>0.1119600175359813</v>
       </c>
       <c r="L231">
         <v>0.01545848476873148</v>
@@ -17867,13 +17867,13 @@
         <v>0.04125000000000512</v>
       </c>
       <c r="U231">
-        <v>1.000149518001181</v>
+        <v>0.0001495180011805708</v>
       </c>
       <c r="V231">
-        <v>1.000110026563556</v>
+        <v>0.000110026563556298</v>
       </c>
       <c r="W231">
-        <v>1.000943841434639</v>
+        <v>0.0009438414346389923</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17908,7 +17908,7 @@
         <v>1.461499347883855</v>
       </c>
       <c r="K232">
-        <v>59.37435446165372</v>
+        <v>0.09374354461653722</v>
       </c>
       <c r="L232">
         <v>0.01435345017532957</v>
@@ -17938,13 +17938,13 @@
         <v>0.02624999999999034</v>
       </c>
       <c r="U232">
-        <v>1.000133759264796</v>
+        <v>0.000133759264796085</v>
       </c>
       <c r="V232">
-        <v>1.000015716351292</v>
+        <v>1.571635129171689E-05</v>
       </c>
       <c r="W232">
-        <v>0.9997642621404996</v>
+        <v>-0.0002357378595003734</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17979,7 +17979,7 @@
         <v>1.615757228264871</v>
       </c>
       <c r="K233">
-        <v>61.77015247461107</v>
+        <v>0.1177015247461106</v>
       </c>
       <c r="L233">
         <v>0.01335543817943113</v>
@@ -18009,13 +18009,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U233">
-        <v>1.000133741375648</v>
+        <v>0.0001337413756479222</v>
       </c>
       <c r="V233">
-        <v>1.00007858052146</v>
+        <v>7.858052146025862E-05</v>
       </c>
       <c r="W233">
-        <v>1.000471586889885</v>
+        <v>0.0004715868898845788</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18050,7 +18050,7 @@
         <v>1.696945586360115</v>
       </c>
       <c r="K234">
-        <v>62.92101683261498</v>
+        <v>0.1292101683261498</v>
       </c>
       <c r="L234">
         <v>0.01252314693603064</v>
@@ -18080,13 +18080,13 @@
         <v>0.00750000000000739</v>
       </c>
       <c r="U234">
-        <v>1.000117991315839</v>
+        <v>0.0001179913158391166</v>
       </c>
       <c r="V234">
-        <v>1.000078574347047</v>
+        <v>7.857434704727773E-05</v>
       </c>
       <c r="W234">
-        <v>1.000235682300259</v>
+        <v>0.0002356823002591657</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18121,7 +18121,7 @@
         <v>1.782407015934115</v>
       </c>
       <c r="K235">
-        <v>64.05989510976423</v>
+        <v>0.1405989510976423</v>
       </c>
       <c r="L235">
         <v>0.01188456889052753</v>
@@ -18151,13 +18151,13 @@
         <v>0</v>
       </c>
       <c r="U235">
-        <v>1.000110112235829</v>
+        <v>0.0001101122358291295</v>
       </c>
       <c r="V235">
-        <v>1.000109995443046</v>
+        <v>0.0001099954430459071</v>
       </c>
       <c r="W235">
-        <v>1.000235626767201</v>
+        <v>0.0002356267672007917</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18192,7 +18192,7 @@
         <v>1.635296706159344</v>
       </c>
       <c r="K236">
-        <v>62.05360870133708</v>
+        <v>0.1205360870133708</v>
       </c>
       <c r="L236">
         <v>0.01127476309734045</v>
@@ -18222,13 +18222,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U236">
-        <v>1.000094371524965</v>
+        <v>9.437152496505341E-05</v>
       </c>
       <c r="V236">
-        <v>1.000062847625931</v>
+        <v>6.284762593078419E-05</v>
       </c>
       <c r="W236">
-        <v>0.9997644287396936</v>
+        <v>-0.0002355712603063775</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18263,7 +18263,7 @@
         <v>1.635296706159344</v>
       </c>
       <c r="K237">
-        <v>62.05360870133708</v>
+        <v>0.1205360870133708</v>
       </c>
       <c r="L237">
         <v>0.01068016981286252</v>
@@ -18293,13 +18293,13 @@
         <v>-0.01500000000001478</v>
       </c>
       <c r="U237">
-        <v>1.000102226171472</v>
+        <v>0.0001022261714724859</v>
       </c>
       <c r="V237">
-        <v>1.000015710919089</v>
+        <v>1.571091908880717E-05</v>
       </c>
       <c r="W237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18334,7 +18334,7 @@
         <v>1.726747823590241</v>
       </c>
       <c r="K238">
-        <v>63.32627493644334</v>
+        <v>0.1332627493644334</v>
       </c>
       <c r="L238">
         <v>0.01017968359798104</v>
@@ -18364,13 +18364,13 @@
         <v>1.4210854715202E-14</v>
       </c>
       <c r="U238">
-        <v>1.000117941218097</v>
+        <v>0.0001179412180969397</v>
       </c>
       <c r="V238">
-        <v>1.000047132016779</v>
+        <v>4.713201677897239E-05</v>
       </c>
       <c r="W238">
-        <v>1.000235626767201</v>
+        <v>0.0002356267672007917</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18405,7 +18405,7 @@
         <v>1.726747823590241</v>
       </c>
       <c r="K239">
-        <v>63.32627493644334</v>
+        <v>0.1332627493644334</v>
       </c>
       <c r="L239">
         <v>0.00973099475564634</v>
@@ -18435,13 +18435,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U239">
-        <v>1.000102203668326</v>
+        <v>0.0001022036683255845</v>
       </c>
       <c r="V239">
-        <v>1.000015709931819</v>
+        <v>1.570993181898572E-05</v>
       </c>
       <c r="W239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18476,7 +18476,7 @@
         <v>1.929409579669648</v>
       </c>
       <c r="K240">
-        <v>65.86342835293209</v>
+        <v>0.1586342835293209</v>
       </c>
       <c r="L240">
         <v>0.009478593703523901</v>
@@ -18506,13 +18506,13 @@
         <v>0.01499999999998636</v>
       </c>
       <c r="U240">
-        <v>1.000110054241019</v>
+        <v>0.0001100542410188421</v>
       </c>
       <c r="V240">
-        <v>1.000031419370041</v>
+        <v>3.141937004147444E-05</v>
       </c>
       <c r="W240">
-        <v>1.000471142520612</v>
+        <v>0.000471142520612311</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18547,7 +18547,7 @@
         <v>1.590179504975174</v>
       </c>
       <c r="K241">
-        <v>61.39263714815068</v>
+        <v>0.1139263714815069</v>
       </c>
       <c r="L241">
         <v>0.009154837327631737</v>
@@ -18577,13 +18577,13 @@
         <v>0.02000000000001023</v>
       </c>
       <c r="U241">
-        <v>1.000102181978243</v>
+        <v>0.0001021819782431876</v>
       </c>
       <c r="V241">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W241">
-        <v>0.9995290793501296</v>
+        <v>-0.000470920649870421</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18618,7 +18618,7 @@
         <v>1.867791080750509</v>
       </c>
       <c r="K242">
-        <v>65.12995640748359</v>
+        <v>0.1512995640748359</v>
       </c>
       <c r="L242">
         <v>0.009032761477137148</v>
@@ -18648,13 +18648,13 @@
         <v>0.02625000000000455</v>
       </c>
       <c r="U242">
-        <v>1.000125749585419</v>
+        <v>0.0001257495854194435</v>
       </c>
       <c r="V242">
-        <v>1.000047127574344</v>
+        <v>4.712757434388593E-05</v>
       </c>
       <c r="W242">
-        <v>1.000706713780919</v>
+        <v>0.0007067137809186885</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18689,7 +18689,7 @@
         <v>1.965198651198064</v>
       </c>
       <c r="K243">
-        <v>66.27544668563914</v>
+        <v>0.1627544668563914</v>
       </c>
       <c r="L243">
         <v>0.009093539045252275</v>
@@ -18719,13 +18719,13 @@
         <v>0.03125</v>
       </c>
       <c r="U243">
-        <v>1.000133592135352</v>
+        <v>0.0001335921353520231</v>
       </c>
       <c r="V243">
-        <v>1.00004712535344</v>
+        <v>4.71253534399807E-05</v>
       </c>
       <c r="W243">
-        <v>1.000235404896422</v>
+        <v>0.0002354048964219313</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18760,7 +18760,7 @@
         <v>2.375335789924392</v>
       </c>
       <c r="K244">
-        <v>70.37331802705177</v>
+        <v>0.2037331802705177</v>
       </c>
       <c r="L244">
         <v>0.009571444781578927</v>
@@ -18790,13 +18790,13 @@
         <v>0.04500000000000171</v>
       </c>
       <c r="U244">
-        <v>1.000157146224562</v>
+        <v>0.0001571462245621991</v>
       </c>
       <c r="V244">
-        <v>1.000157077109153</v>
+        <v>0.0001570771091528034</v>
       </c>
       <c r="W244">
-        <v>1.000941397975994</v>
+        <v>0.0009413979759942404</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18831,7 +18831,7 @@
         <v>1.794341507074736</v>
       </c>
       <c r="K245">
-        <v>64.2133934786356</v>
+        <v>0.1421339347863559</v>
       </c>
       <c r="L245">
         <v>0.009979006490794364</v>
@@ -18861,13 +18861,13 @@
         <v>0.05125000000001023</v>
       </c>
       <c r="U245">
-        <v>1.000125697226805</v>
+        <v>0.0001256972268051104</v>
       </c>
       <c r="V245">
-        <v>1.000188462927772</v>
+        <v>0.0001884629277717487</v>
       </c>
       <c r="W245">
-        <v>0.9992946155654832</v>
+        <v>-0.0007053844345168425</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18902,7 +18902,7 @@
         <v>1.880164170114552</v>
       </c>
       <c r="K246">
-        <v>65.27975695356881</v>
+        <v>0.152797569535688</v>
       </c>
       <c r="L246">
         <v>0.01036739854116966</v>
@@ -18932,13 +18932,13 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="U246">
-        <v>1.000125681428998</v>
+        <v>0.0001256814289976038</v>
       </c>
       <c r="V246">
-        <v>1.000141320562142</v>
+        <v>0.0001413205621416669</v>
       </c>
       <c r="W246">
-        <v>1.000235294117647</v>
+        <v>0.0002352941176471113</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18973,7 +18973,7 @@
         <v>1.970503815419684</v>
       </c>
       <c r="K247">
-        <v>66.33567697139227</v>
+        <v>0.1633567697139228</v>
       </c>
       <c r="L247">
         <v>0.01076740644854913</v>
@@ -19003,13 +19003,13 @@
         <v>0.05499999999999261</v>
       </c>
       <c r="U247">
-        <v>1.000094249226371</v>
+        <v>9.424922637113475E-05</v>
       </c>
       <c r="V247">
-        <v>1.000172700725343</v>
+        <v>0.0001727007253431445</v>
       </c>
       <c r="W247">
-        <v>1.000235238767349</v>
+        <v>0.0002352387673489886</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -19044,7 +19044,7 @@
         <v>2.160692542377724</v>
       </c>
       <c r="K248">
-        <v>68.36136427089107</v>
+        <v>0.1836136427089108</v>
       </c>
       <c r="L248">
         <v>0.01128128240423727</v>
@@ -19074,13 +19074,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U248">
-        <v>1.000125653792389</v>
+        <v>0.0001256537923886025</v>
       </c>
       <c r="V248">
-        <v>1.000172670904953</v>
+        <v>0.0001726709049525432</v>
       </c>
       <c r="W248">
-        <v>1.000470366886171</v>
+        <v>0.0004703668861711918</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19115,7 +19115,7 @@
         <v>2.260791872355639</v>
       </c>
       <c r="K249">
-        <v>69.3326026577223</v>
+        <v>0.1933260265772231</v>
       </c>
       <c r="L249">
         <v>0.01187596386979588</v>
@@ -19145,13 +19145,13 @@
         <v>0.06624999999999659</v>
       </c>
       <c r="U249">
-        <v>1.000125638005497</v>
+        <v>0.0001256380054965867</v>
       </c>
       <c r="V249">
-        <v>1.000172641094858</v>
+        <v>0.0001726410948583723</v>
       </c>
       <c r="W249">
-        <v>1.00023507287259</v>
+        <v>0.0002350728725903917</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19186,7 +19186,7 @@
         <v>1.480701302482329</v>
       </c>
       <c r="K250">
-        <v>59.68881868206609</v>
+        <v>0.09688818682066092</v>
       </c>
       <c r="L250">
         <v>0.01200926254364132</v>
@@ -19216,13 +19216,13 @@
         <v>0.06374999999999886</v>
       </c>
       <c r="U250">
-        <v>1.000094216666928</v>
+        <v>9.421666692843722E-05</v>
       </c>
       <c r="V250">
-        <v>1.000078459679571</v>
+        <v>7.84596795706527E-05</v>
       </c>
       <c r="W250">
-        <v>0.9988249118683902</v>
+        <v>-0.001175088131609825</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19257,7 +19257,7 @@
         <v>2.497696426765933</v>
       </c>
       <c r="K251">
-        <v>71.40975436439956</v>
+        <v>0.2140975436439956</v>
       </c>
       <c r="L251">
         <v>0.01301194738267031</v>
@@ -19287,13 +19287,13 @@
         <v>0.07750000000001478</v>
       </c>
       <c r="U251">
-        <v>1.000188415581969</v>
+        <v>0.0001884155819686928</v>
       </c>
       <c r="V251">
-        <v>1.00031381409653</v>
+        <v>0.00031381409652953</v>
       </c>
       <c r="W251">
-        <v>1.003294117647059</v>
+        <v>0.003294117647058892</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19328,7 +19328,7 @@
         <v>2.88002542085749</v>
       </c>
       <c r="K252">
-        <v>74.2269729825894</v>
+        <v>0.242269729825894</v>
       </c>
       <c r="L252">
         <v>0.01485846394716859</v>
@@ -19358,13 +19358,13 @@
         <v>0.08624999999999261</v>
       </c>
       <c r="U252">
-        <v>1.00020407842891</v>
+        <v>0.000204078428909904</v>
       </c>
       <c r="V252">
-        <v>1.000392144560171</v>
+        <v>0.0003921445601706708</v>
       </c>
       <c r="W252">
-        <v>1.001172607879925</v>
+        <v>0.001172607879924792</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19399,7 +19399,7 @@
         <v>2.88002542085749</v>
       </c>
       <c r="K253">
-        <v>74.22697298258942</v>
+        <v>0.2422697298258941</v>
       </c>
       <c r="L253">
         <v>0.01704370889329714</v>
@@ -19429,13 +19429,13 @@
         <v>0.1025000000000205</v>
       </c>
       <c r="U253">
-        <v>1.000211884358226</v>
+        <v>0.0002118843582257224</v>
       </c>
       <c r="V253">
-        <v>1.00037631120937</v>
+        <v>0.0003763112093702059</v>
       </c>
       <c r="W253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19470,7 +19470,7 @@
         <v>2.88002542085749</v>
       </c>
       <c r="K254">
-        <v>74.22697298258942</v>
+        <v>0.2422697298258941</v>
       </c>
       <c r="L254">
         <v>0.0192321185986242</v>
@@ -19500,13 +19500,13 @@
         <v>0.1174999999999926</v>
       </c>
       <c r="U254">
-        <v>1.000196147659958</v>
+        <v>0.0001961476599583456</v>
       </c>
       <c r="V254">
-        <v>1.000376169652513</v>
+        <v>0.0003761696525133029</v>
       </c>
       <c r="W254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19541,7 +19541,7 @@
         <v>2.444071731278413</v>
       </c>
       <c r="K255">
-        <v>70.96460010056737</v>
+        <v>0.2096460010056737</v>
       </c>
       <c r="L255">
         <v>0.02104077471014371</v>
@@ -19571,13 +19571,13 @@
         <v>0.1274999999999977</v>
       </c>
       <c r="U255">
-        <v>1.000172576090367</v>
+        <v>0.0001725760903672491</v>
       </c>
       <c r="V255">
-        <v>1.000313356835096</v>
+        <v>0.0003133568350959237</v>
       </c>
       <c r="W255">
-        <v>0.9995315062075428</v>
+        <v>-0.0004684937924571697</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19612,7 +19612,7 @@
         <v>2.263722758682649</v>
       </c>
       <c r="K256">
-        <v>69.36014257523411</v>
+        <v>0.1936014257523411</v>
       </c>
       <c r="L256">
         <v>0.02234125619925146</v>
@@ -19642,13 +19642,13 @@
         <v>0.1337500000000063</v>
       </c>
       <c r="U256">
-        <v>1.000164703298772</v>
+        <v>0.0001647032987717179</v>
       </c>
       <c r="V256">
-        <v>1.000328921607017</v>
+        <v>0.0003289216070170298</v>
       </c>
       <c r="W256">
-        <v>0.9997656433091163</v>
+        <v>-0.0002343566908836747</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19683,7 +19683,7 @@
         <v>1.95934250478619</v>
       </c>
       <c r="K257">
-        <v>66.20871026646343</v>
+        <v>0.1620871026646342</v>
       </c>
       <c r="L257">
         <v>0.02299788814437805</v>
@@ -19713,13 +19713,13 @@
         <v>0.1324999999999932</v>
       </c>
       <c r="U257">
-        <v>1.000148992730723</v>
+        <v>0.0001489927307232186</v>
       </c>
       <c r="V257">
-        <v>1.000250524535747</v>
+        <v>0.000250524535746921</v>
       </c>
       <c r="W257">
-        <v>0.9995311767463667</v>
+        <v>-0.0004688232536332881</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19754,7 +19754,7 @@
         <v>1.52706925453838</v>
       </c>
       <c r="K258">
-        <v>60.42846874085095</v>
+        <v>0.1042846874085095</v>
       </c>
       <c r="L258">
         <v>0.02279601894234146</v>
@@ -19784,13 +19784,13 @@
         <v>0.1425000000000125</v>
       </c>
       <c r="U258">
-        <v>1.000109767762776</v>
+        <v>0.0001097677627761584</v>
       </c>
       <c r="V258">
-        <v>1.000172192479885</v>
+        <v>0.0001721924798847585</v>
       </c>
       <c r="W258">
-        <v>0.99906191369606</v>
+        <v>-0.0009380863039399889</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19825,7 +19825,7 @@
         <v>1.52706925453838</v>
       </c>
       <c r="K259">
-        <v>60.42846874085095</v>
+        <v>0.1042846874085095</v>
       </c>
       <c r="L259">
         <v>0.02200411052771271</v>
@@ -19855,13 +19855,13 @@
         <v>0.1187499999999915</v>
       </c>
       <c r="U259">
-        <v>1.000133274796952</v>
+        <v>0.0001332747969517989</v>
       </c>
       <c r="V259">
-        <v>1.000109558167561</v>
+        <v>0.0001095581675614188</v>
       </c>
       <c r="W259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19896,7 +19896,7 @@
         <v>1.117353513871512</v>
       </c>
       <c r="K260">
-        <v>52.77123099904406</v>
+        <v>0.02771230999044061</v>
       </c>
       <c r="L260">
         <v>0.02031142317048949</v>
@@ -19926,13 +19926,13 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="U260">
-        <v>1.000125418387904</v>
+        <v>0.0001254183879035864</v>
       </c>
       <c r="V260">
-        <v>1.000062597809077</v>
+        <v>6.25978090766921E-05</v>
       </c>
       <c r="W260">
-        <v>0.9985915492957746</v>
+        <v>-0.00140845070422535</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19967,7 +19967,7 @@
         <v>1.258565094726805</v>
       </c>
       <c r="K261">
-        <v>55.72410100843431</v>
+        <v>0.05724101008434312</v>
       </c>
       <c r="L261">
         <v>0.01836433354953565</v>
@@ -19997,13 +19997,13 @@
         <v>0.04124999999999091</v>
       </c>
       <c r="U261">
-        <v>1.000117564993847</v>
+        <v>0.0001175649938474077</v>
       </c>
       <c r="V261">
-        <v>1.000093890836254</v>
+        <v>9.389083625443995E-05</v>
       </c>
       <c r="W261">
-        <v>1.000705218617772</v>
+        <v>0.0007052186177716191</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -20038,7 +20038,7 @@
         <v>1.145091303057719</v>
       </c>
       <c r="K262">
-        <v>53.38193770239288</v>
+        <v>0.03381937702392879</v>
       </c>
       <c r="L262">
         <v>0.01614932907364068</v>
@@ -20068,13 +20068,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U262">
-        <v>1.000109714429015</v>
+        <v>0.0001097144290145291</v>
       </c>
       <c r="V262">
-        <v>1.000046941010796</v>
+        <v>4.694101079616431E-05</v>
       </c>
       <c r="W262">
-        <v>0.9995301855766971</v>
+        <v>-0.0004698144233028501</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20109,7 +20109,7 @@
         <v>1.192544588149717</v>
       </c>
       <c r="K263">
-        <v>54.39089332984113</v>
+        <v>0.04390893329841128</v>
       </c>
       <c r="L263">
         <v>0.01394020004433803</v>
@@ -20139,13 +20139,13 @@
         <v>-0.03124999999998579</v>
       </c>
       <c r="U263">
-        <v>1.00010186650786</v>
+        <v>0.0001018665078595937</v>
       </c>
       <c r="V263">
-        <v>1.000031292538294</v>
+        <v>3.129253829436962E-05</v>
       </c>
       <c r="W263">
-        <v>1.000235017626322</v>
+        <v>0.0002350176263221648</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20180,7 +20180,7 @@
         <v>1.242495414562311</v>
       </c>
       <c r="K264">
-        <v>55.40682074504132</v>
+        <v>0.05406820745041319</v>
       </c>
       <c r="L264">
         <v>0.01191033991151251</v>
@@ -20210,13 +20210,13 @@
         <v>-0.05750000000000455</v>
       </c>
       <c r="U264">
-        <v>1.000101856132131</v>
+        <v>0.0001018561321308731</v>
       </c>
       <c r="V264">
-        <v>1.000031291559102</v>
+        <v>3.129155910208681E-05</v>
       </c>
       <c r="W264">
-        <v>1.000234962406015</v>
+        <v>0.0002349624060149491</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20251,7 +20251,7 @@
         <v>1.242495414562311</v>
       </c>
       <c r="K265">
-        <v>55.40682074504132</v>
+        <v>0.05406820745041319</v>
       </c>
       <c r="L265">
         <v>0.01007509568898095</v>
@@ -20281,13 +20281,13 @@
         <v>-0.07750000000000057</v>
       </c>
       <c r="U265">
-        <v>1.000094011469399</v>
+        <v>9.401146939924665E-05</v>
       </c>
       <c r="V265">
-        <v>1.000109517029898</v>
+        <v>0.0001095170298979209</v>
       </c>
       <c r="W265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20322,7 +20322,7 @@
         <v>1.242495414562311</v>
       </c>
       <c r="K266">
-        <v>55.40682074504132</v>
+        <v>0.05406820745041319</v>
       </c>
       <c r="L266">
         <v>0.00843802960018895</v>
@@ -20352,13 +20352,13 @@
         <v>-0.09375000000001421</v>
       </c>
       <c r="U266">
-        <v>1.000101836184746</v>
+        <v>0.0001018361847464622</v>
       </c>
       <c r="V266">
-        <v>0.9998904949627685</v>
+        <v>-0.0001095050372315054</v>
       </c>
       <c r="W266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20393,7 +20393,7 @@
         <v>1.242495414562311</v>
       </c>
       <c r="K267">
-        <v>55.40682074504132</v>
+        <v>0.05406820745041319</v>
       </c>
       <c r="L267">
         <v>0.006994622310646726</v>
@@ -20423,13 +20423,13 @@
         <v>-0.09250000000000114</v>
       </c>
       <c r="U267">
-        <v>1.000101825815194</v>
+        <v>0.0001018258151941343</v>
       </c>
       <c r="V267">
-        <v>0.9998122565201744</v>
+        <v>-0.0001877434798256417</v>
       </c>
       <c r="W267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20464,7 +20464,7 @@
         <v>1.170700441203074</v>
       </c>
       <c r="K268">
-        <v>53.93192072851071</v>
+        <v>0.03931920728510707</v>
       </c>
       <c r="L268">
         <v>0.005649494023584133</v>
@@ -20494,13 +20494,13 @@
         <v>-0.07125000000000625</v>
       </c>
       <c r="U268">
-        <v>1.000086151532714</v>
+        <v>8.615153271418485E-05</v>
       </c>
       <c r="V268">
-        <v>0.9997965730381035</v>
+        <v>-0.0002034269618964579</v>
       </c>
       <c r="W268">
-        <v>0.9997650927883487</v>
+        <v>-0.000234907211651314</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20535,7 +20535,7 @@
         <v>1.231524533816921</v>
       </c>
       <c r="K269">
-        <v>55.18758656488774</v>
+        <v>0.05187586564887736</v>
       </c>
       <c r="L269">
         <v>0.004514608608418711</v>
@@ -20565,13 +20565,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U269">
-        <v>1.000093975394109</v>
+        <v>9.397539410915812E-05</v>
       </c>
       <c r="V269">
-        <v>0.9998121830589118</v>
+        <v>-0.0001878169410881592</v>
       </c>
       <c r="W269">
-        <v>1.000234962406015</v>
+        <v>0.0002349624060149491</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20606,7 +20606,7 @@
         <v>1.091727978690552</v>
       </c>
       <c r="K270">
-        <v>52.19263641412817</v>
+        <v>0.02192636414128168</v>
       </c>
       <c r="L270">
         <v>0.00339187619430082</v>
@@ -20636,13 +20636,13 @@
         <v>-0.03875000000000739</v>
       </c>
       <c r="U270">
-        <v>1.000062644375709</v>
+        <v>6.264437570946413E-05</v>
       </c>
       <c r="V270">
-        <v>0.9998121477770822</v>
+        <v>-0.0001878522229178392</v>
       </c>
       <c r="W270">
-        <v>0.9995301855766971</v>
+        <v>-0.0004698144233028501</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20677,7 +20677,7 @@
         <v>1.091727978690552</v>
       </c>
       <c r="K271">
-        <v>52.19263641412816</v>
+        <v>0.02192636414128157</v>
       </c>
       <c r="L271">
         <v>0.002335710305734198</v>
@@ -20707,13 +20707,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U271">
-        <v>1.000078300564547</v>
+        <v>7.830056454727341E-05</v>
       </c>
       <c r="V271">
-        <v>0.9998277697751612</v>
+        <v>-0.0001722302248388097</v>
       </c>
       <c r="W271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20748,7 +20748,7 @@
         <v>1.091727978690552</v>
       </c>
       <c r="K272">
-        <v>52.19263641412816</v>
+        <v>0.02192636414128157</v>
       </c>
       <c r="L272">
         <v>0.001378668070610888</v>
@@ -20778,13 +20778,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U272">
-        <v>1.000054806103834</v>
+        <v>5.480610383412632E-05</v>
       </c>
       <c r="V272">
-        <v>0.9998590600873826</v>
+        <v>-0.0001409399126174327</v>
       </c>
       <c r="W272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20819,7 +20819,7 @@
         <v>1.091727978690552</v>
       </c>
       <c r="K273">
-        <v>52.19263641412817</v>
+        <v>0.02192636414128168</v>
       </c>
       <c r="L273">
         <v>0.0005376352764935713</v>
@@ -20849,13 +20849,13 @@
         <v>-0.01124999999998977</v>
       </c>
       <c r="U273">
-        <v>1.000046974085963</v>
+        <v>4.697408596254782E-05</v>
       </c>
       <c r="V273">
-        <v>0.9999216890114023</v>
+        <v>-7.831098859767405E-05</v>
       </c>
       <c r="W273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20890,7 +20890,7 @@
         <v>1.091727978690552</v>
       </c>
       <c r="K274">
-        <v>52.19263641412816</v>
+        <v>0.02192636414128157</v>
       </c>
       <c r="L274">
         <v>-0.0001814910805195293</v>
@@ -20920,13 +20920,13 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="U274">
-        <v>1.000015657293167</v>
+        <v>1.565729316710396E-05</v>
       </c>
       <c r="V274">
-        <v>0.9999216828783107</v>
+        <v>-7.831712168926419E-05</v>
       </c>
       <c r="W274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20961,7 +20961,7 @@
         <v>1.091727978690552</v>
       </c>
       <c r="K275">
-        <v>52.19263641412815</v>
+        <v>0.02192636414128146</v>
       </c>
       <c r="L275">
         <v>-0.0007802886020444525</v>
@@ -20991,13 +20991,13 @@
         <v>-0.008750000000006253</v>
       </c>
       <c r="U275">
-        <v>1.00003914262005</v>
+        <v>3.914262005033642E-05</v>
       </c>
       <c r="V275">
-        <v>1.000015664651148</v>
+        <v>1.56646511479952E-05</v>
       </c>
       <c r="W275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -21032,7 +21032,7 @@
         <v>0.746088484189397</v>
       </c>
       <c r="K276">
-        <v>42.72913377215018</v>
+        <v>-0.07270866227849815</v>
       </c>
       <c r="L276">
         <v>-0.001778423051988874</v>
@@ -21062,13 +21062,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U276">
-        <v>0.9999843435648137</v>
+        <v>-1.565643518630644E-05</v>
       </c>
       <c r="V276">
-        <v>0.9998746847538339</v>
+        <v>-0.0001253152461661022</v>
       </c>
       <c r="W276">
-        <v>0.9985898942420682</v>
+        <v>-0.001410105757931768</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21103,7 +21103,7 @@
         <v>0.8016320893646939</v>
       </c>
       <c r="K277">
-        <v>44.49477194022293</v>
+        <v>-0.05505228059777068</v>
       </c>
       <c r="L277">
         <v>-0.002862907674909839</v>
@@ -21133,13 +21133,13 @@
         <v>-0.02875000000000227</v>
       </c>
       <c r="U277">
-        <v>0.9999843433196859</v>
+        <v>-1.565668031411338E-05</v>
       </c>
       <c r="V277">
-        <v>0.9999216681549717</v>
+        <v>-7.833184502825663E-05</v>
       </c>
       <c r="W277">
-        <v>1.000235349493999</v>
+        <v>0.0002353494939986156</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21174,7 +21174,7 @@
         <v>0.7573520242950557</v>
       </c>
       <c r="K278">
-        <v>43.09620462063427</v>
+        <v>-0.06903795379365724</v>
       </c>
       <c r="L278">
         <v>-0.004005771430274467</v>
@@ -21204,13 +21204,13 @@
         <v>-0.03624999999999545</v>
       </c>
       <c r="U278">
-        <v>0.9999608576863762</v>
+        <v>-3.914231362378562E-05</v>
       </c>
       <c r="V278">
-        <v>0.9998903268260584</v>
+        <v>-0.0001096731739416157</v>
       </c>
       <c r="W278">
-        <v>0.999764705882353</v>
+        <v>-0.0002352941176470003</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21245,7 +21245,7 @@
         <v>0.5867656807725963</v>
       </c>
       <c r="K279">
-        <v>36.97872268619397</v>
+        <v>-0.1302127731380603</v>
       </c>
       <c r="L279">
         <v>-0.005524390864394234</v>
@@ -21275,13 +21275,13 @@
         <v>-0.04874999999999829</v>
       </c>
       <c r="U279">
-        <v>0.9999138835392301</v>
+        <v>-8.611646076994717E-05</v>
       </c>
       <c r="V279">
-        <v>0.9997962989078487</v>
+        <v>-0.0002037010921512872</v>
       </c>
       <c r="W279">
-        <v>0.9988232525300069</v>
+        <v>-0.001176747469993078</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21316,7 +21316,7 @@
         <v>0.5602014590945961</v>
       </c>
       <c r="K280">
-        <v>35.90571306218928</v>
+        <v>-0.1409428693781072</v>
       </c>
       <c r="L280">
         <v>-0.007239484461172327</v>
@@ -21346,13 +21346,13 @@
         <v>-0.06124999999998693</v>
       </c>
       <c r="U280">
-        <v>0.999945193896166</v>
+        <v>-5.48061038340153E-05</v>
       </c>
       <c r="V280">
-        <v>0.9997805848979721</v>
+        <v>-0.0002194151020279422</v>
       </c>
       <c r="W280">
-        <v>0.9997643732327993</v>
+        <v>-0.0002356267672006807</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21387,7 +21387,7 @@
         <v>0.5602014590945961</v>
       </c>
       <c r="K281">
-        <v>35.90571306218928</v>
+        <v>-0.1409428693781072</v>
       </c>
       <c r="L281">
         <v>-0.008938177352325334</v>
@@ -21417,13 +21417,13 @@
         <v>-0.07375000000000398</v>
       </c>
       <c r="U281">
-        <v>0.9998355726768765</v>
+        <v>-0.000164427323123495</v>
       </c>
       <c r="V281">
-        <v>0.9997805367444195</v>
+        <v>-0.000219463255580532</v>
       </c>
       <c r="W281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21458,7 +21458,7 @@
         <v>0.5334422900446421</v>
       </c>
       <c r="K282">
-        <v>34.78724263102933</v>
+        <v>-0.1521275736897067</v>
       </c>
       <c r="L282">
         <v>-0.01057194310449205</v>
@@ -21488,13 +21488,13 @@
         <v>-0.08749999999999147</v>
       </c>
       <c r="U282">
-        <v>0.9997885586749681</v>
+        <v>-0.0002114413250319247</v>
       </c>
       <c r="V282">
-        <v>0.9997648091818494</v>
+        <v>-0.0002351908181505991</v>
       </c>
       <c r="W282">
-        <v>0.9997643176997408</v>
+        <v>-0.0002356823002591657</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21529,7 +21529,7 @@
         <v>0.5079043023189456</v>
       </c>
       <c r="K283">
-        <v>33.68279416259108</v>
+        <v>-0.1631720583740892</v>
       </c>
       <c r="L283">
         <v>-0.01210960640674968</v>
@@ -21559,13 +21559,13 @@
         <v>-0.102499999999992</v>
       </c>
       <c r="U283">
-        <v>0.9997806811417113</v>
+        <v>-0.0002193188582887418</v>
       </c>
       <c r="V283">
-        <v>0.9997647538541159</v>
+        <v>-0.0002352461458841049</v>
       </c>
       <c r="W283">
-        <v>0.9997642621404996</v>
+        <v>-0.0002357378595003734</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21600,7 +21600,7 @@
         <v>0.5582979303543019</v>
       </c>
       <c r="K284">
-        <v>35.82741910126035</v>
+        <v>-0.1417258089873965</v>
       </c>
       <c r="L284">
         <v>-0.01336166984392764</v>
@@ -21630,13 +21630,13 @@
         <v>-0.1025000000000063</v>
       </c>
       <c r="U284">
-        <v>0.9997884675650265</v>
+        <v>-0.0002115324349735159</v>
       </c>
       <c r="V284">
-        <v>0.9997646985003453</v>
+        <v>-0.0002353014996546721</v>
       </c>
       <c r="W284">
-        <v>1.000235793444942</v>
+        <v>0.0002357934449424004</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21671,7 +21671,7 @@
         <v>0.7174357030974571</v>
       </c>
       <c r="K285">
-        <v>41.77365719156391</v>
+        <v>-0.08226342808436088</v>
       </c>
       <c r="L285">
         <v>-0.01405570257308579</v>
@@ -21701,13 +21701,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U285">
-        <v>0.9998276037707758</v>
+        <v>-0.0001723962292241588</v>
       </c>
       <c r="V285">
-        <v>0.9998430954136788</v>
+        <v>-0.0001569045863212271</v>
       </c>
       <c r="W285">
-        <v>1.000707213578501</v>
+        <v>0.0007072135785006761</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21742,7 +21742,7 @@
         <v>0.7732735180950423</v>
       </c>
       <c r="K286">
-        <v>43.60712040214414</v>
+        <v>-0.06392879597855861</v>
       </c>
       <c r="L286">
         <v>-0.01423069811444519</v>
@@ -21772,13 +21772,13 @@
         <v>-0.09624999999999773</v>
       </c>
       <c r="U286">
-        <v>0.9998432491319922</v>
+        <v>-0.0001567508680078156</v>
       </c>
       <c r="V286">
-        <v>0.9998587637116898</v>
+        <v>-0.0001412362883101981</v>
       </c>
       <c r="W286">
-        <v>1.000235571260306</v>
+        <v>0.0002355712603061555</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21813,7 +21813,7 @@
         <v>0.8320501654609214</v>
       </c>
       <c r="K287">
-        <v>45.41634182007171</v>
+        <v>-0.0458365817992829</v>
       </c>
       <c r="L287">
         <v>-0.01394263119961803</v>
@@ -21843,13 +21843,13 @@
         <v>-0.07874999999999943</v>
       </c>
       <c r="U287">
-        <v>0.9998667408737094</v>
+        <v>-0.0001332591262905858</v>
       </c>
       <c r="V287">
-        <v>0.9998744388988293</v>
+        <v>-0.0001255611011706792</v>
       </c>
       <c r="W287">
-        <v>1.000235515779557</v>
+        <v>0.0002355157795572715</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21884,7 +21884,7 @@
         <v>0.7835705349166189</v>
       </c>
       <c r="K288">
-        <v>43.93269117070553</v>
+        <v>-0.06067308829294471</v>
       </c>
       <c r="L288">
         <v>-0.01342716493215274</v>
@@ -21914,13 +21914,13 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="U288">
-        <v>0.9998902425639338</v>
+        <v>-0.0001097574360662268</v>
       </c>
       <c r="V288">
-        <v>0.9998587260226665</v>
+        <v>-0.0001412739773335447</v>
       </c>
       <c r="W288">
-        <v>0.9997645396750648</v>
+        <v>-0.000235460324935155</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21955,7 +21955,7 @@
         <v>0.906234268823492</v>
       </c>
       <c r="K289">
-        <v>47.54055068912439</v>
+        <v>-0.02459449310875605</v>
       </c>
       <c r="L289">
         <v>-0.01258657155800321</v>
@@ -21985,13 +21985,13 @@
         <v>-0.03874999999997897</v>
       </c>
       <c r="U289">
-        <v>0.9999059118707855</v>
+        <v>-9.408812921452014E-05</v>
       </c>
       <c r="V289">
-        <v>0.9998901047145078</v>
+        <v>-0.0001098952854922119</v>
       </c>
       <c r="W289">
-        <v>1.000471031559114</v>
+        <v>0.000471031559114321</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -22026,7 +22026,7 @@
         <v>0.8512760089087114</v>
       </c>
       <c r="K290">
-        <v>45.98320319672489</v>
+        <v>-0.04016796803275113</v>
       </c>
       <c r="L290">
         <v>-0.01164228763703357</v>
@@ -22056,13 +22056,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U290">
-        <v>0.9999451100934696</v>
+        <v>-5.488990653035319E-05</v>
       </c>
       <c r="V290">
-        <v>0.999874391584236</v>
+        <v>-0.0001256084157640336</v>
       </c>
       <c r="W290">
-        <v>0.9997645951035782</v>
+        <v>-0.0002354048964218203</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22097,7 +22097,7 @@
         <v>1.042785429487388</v>
       </c>
       <c r="K291">
-        <v>51.04723258913503</v>
+        <v>0.01047232589135028</v>
       </c>
       <c r="L291">
         <v>-0.01039593080903235</v>
@@ -22127,13 +22127,13 @@
         <v>0.01250000000000284</v>
       </c>
       <c r="U291">
-        <v>0.9999451070804026</v>
+        <v>-5.48929195973713E-05</v>
       </c>
       <c r="V291">
-        <v>1.000015703024403</v>
+        <v>1.570302440279114E-05</v>
       </c>
       <c r="W291">
-        <v>1.000706380974806</v>
+        <v>0.0007063809748057981</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22168,7 +22168,7 @@
         <v>1.177178005332089</v>
       </c>
       <c r="K292">
-        <v>54.06898298848706</v>
+        <v>0.04068982988487058</v>
       </c>
       <c r="L292">
         <v>-0.008836667073329977</v>
@@ -22198,13 +22198,13 @@
         <v>0.03374999999998352</v>
       </c>
       <c r="U292">
-        <v>0.9999764731715732</v>
+        <v>-2.352682842676757E-05</v>
       </c>
       <c r="V292">
-        <v>1.000031405555643</v>
+        <v>3.140555564273839E-05</v>
       </c>
       <c r="W292">
-        <v>1.000470588235294</v>
+        <v>0.0004705882352942226</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22239,7 +22239,7 @@
         <v>1.31864387464225</v>
       </c>
       <c r="K293">
-        <v>56.87134143641214</v>
+        <v>0.06871341436412148</v>
       </c>
       <c r="L293">
         <v>-0.006983527678370452</v>
@@ -22269,13 +22269,13 @@
         <v>0.05124999999998181</v>
       </c>
       <c r="U293">
-        <v>0.9999843150786992</v>
+        <v>-1.56849213007737E-05</v>
       </c>
       <c r="V293">
-        <v>1.000078511423412</v>
+        <v>7.851142341230855E-05</v>
       </c>
       <c r="W293">
-        <v>1.000470366886171</v>
+        <v>0.0004703668861711918</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22310,7 +22310,7 @@
         <v>1.147733260502125</v>
       </c>
       <c r="K294">
-        <v>53.43928324850698</v>
+        <v>0.03439283248506986</v>
       </c>
       <c r="L294">
         <v>-0.005216265763702537</v>
@@ -22340,13 +22340,13 @@
         <v>0.0625</v>
       </c>
       <c r="U294">
-        <v>0.9999607870816961</v>
+        <v>-3.921291830388807E-05</v>
       </c>
       <c r="V294">
-        <v>1.000125608415764</v>
+        <v>0.0001256084157637005</v>
       </c>
       <c r="W294">
-        <v>0.9995298542548191</v>
+        <v>-0.0004701457451808944</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22381,7 +22381,7 @@
         <v>1.147733260502125</v>
       </c>
       <c r="K295">
-        <v>53.43928324850698</v>
+        <v>0.03439283248506986</v>
       </c>
       <c r="L295">
         <v>-0.003594639146425856</v>
@@ -22411,13 +22411,13 @@
         <v>0.06499999999999773</v>
       </c>
       <c r="U295">
-        <v>0.9999607855439829</v>
+        <v>-3.921445601706708E-05</v>
       </c>
       <c r="V295">
-        <v>1.000141291720305</v>
+        <v>0.0001412917203051922</v>
       </c>
       <c r="W295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22452,7 +22452,7 @@
         <v>1.147733260502125</v>
       </c>
       <c r="K296">
-        <v>53.43928324850698</v>
+        <v>0.03439283248506986</v>
       </c>
       <c r="L296">
         <v>-0.002151497331791679</v>
@@ -22482,13 +22482,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U296">
-        <v>0.9999607840061491</v>
+        <v>-3.921599385092733E-05</v>
       </c>
       <c r="V296">
-        <v>1.000141271759775</v>
+        <v>0.0001412717597752966</v>
       </c>
       <c r="W296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22523,7 +22523,7 @@
         <v>1.067077280091748</v>
       </c>
       <c r="K297">
-        <v>51.6225150539309</v>
+        <v>0.01622515053930906</v>
       </c>
       <c r="L297">
         <v>-0.0009863282819086126</v>
@@ -22553,13 +22553,13 @@
         <v>0.06624999999999659</v>
       </c>
       <c r="U297">
-        <v>0.9999529389618332</v>
+        <v>-4.706103816676244E-05</v>
       </c>
       <c r="V297">
-        <v>1.000141251804884</v>
+        <v>0.0001412518048842237</v>
       </c>
       <c r="W297">
-        <v>0.9997648165569143</v>
+        <v>-0.0002351834430857069</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22594,7 +22594,7 @@
         <v>1.141050070575993</v>
       </c>
       <c r="K298">
-        <v>53.2939460994961</v>
+        <v>0.03293946099496103</v>
       </c>
       <c r="L298">
         <v>2.54496581536587E-05</v>
@@ -22624,13 +22624,13 @@
         <v>0.0662500000000108</v>
       </c>
       <c r="U298">
-        <v>0.9999686244979921</v>
+        <v>-3.137550200793537E-05</v>
       </c>
       <c r="V298">
-        <v>1.000172616712436</v>
+        <v>0.000172616712436291</v>
       </c>
       <c r="W298">
-        <v>1.000235238767349</v>
+        <v>0.0002352387673489886</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22665,7 +22665,7 @@
         <v>0.8212949259344379</v>
       </c>
       <c r="K299">
-        <v>45.09401054379276</v>
+        <v>-0.04905989456207244</v>
       </c>
       <c r="L299">
         <v>0.0004512367632313544</v>
@@ -22695,13 +22695,13 @@
         <v>0.05124999999999602</v>
       </c>
       <c r="U299">
-        <v>0.9999215587838475</v>
+        <v>-7.844121615252497E-05</v>
       </c>
       <c r="V299">
-        <v>1.000078448600477</v>
+        <v>7.844860047678814E-05</v>
       </c>
       <c r="W299">
-        <v>0.9988240827845719</v>
+        <v>-0.001175917215428091</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22736,7 +22736,7 @@
         <v>0.9392860190371982</v>
       </c>
       <c r="K300">
-        <v>48.43463057107624</v>
+        <v>-0.01565369428923757</v>
       </c>
       <c r="L300">
         <v>0.000664621262884364</v>
@@ -22766,13 +22766,13 @@
         <v>0.0350000000000108</v>
       </c>
       <c r="U300">
-        <v>0.9999529315782041</v>
+        <v>-4.706842179591497E-05</v>
       </c>
       <c r="V300">
-        <v>1.000062753957422</v>
+        <v>6.275395742161294E-05</v>
       </c>
       <c r="W300">
-        <v>1.000470920649871</v>
+        <v>0.0004709206498705321</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22807,7 +22807,7 @@
         <v>0.7523904898945404</v>
       </c>
       <c r="K301">
-        <v>42.93509319032081</v>
+        <v>-0.07064906809679189</v>
       </c>
       <c r="L301">
         <v>0.0003905316602412643</v>
@@ -22837,13 +22837,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U301">
-        <v>0.9999215489377727</v>
+        <v>-7.845106222725828E-05</v>
       </c>
       <c r="V301">
-        <v>0.9999843124950977</v>
+        <v>-1.568750490232862E-05</v>
       </c>
       <c r="W301">
-        <v>0.9990586020240056</v>
+        <v>-0.0009413979759943514</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22878,7 +22878,7 @@
         <v>0.9094769353054353</v>
       </c>
       <c r="K302">
-        <v>47.62963712677459</v>
+        <v>-0.02370362873225412</v>
       </c>
       <c r="L302">
         <v>9.425002344496552E-05</v>
@@ -22908,13 +22908,13 @@
         <v>0</v>
       </c>
       <c r="U302">
-        <v>0.9999450799479043</v>
+        <v>-5.492005209573048E-05</v>
       </c>
       <c r="V302">
-        <v>1.000015687751004</v>
+        <v>1.56877510040232E-05</v>
       </c>
       <c r="W302">
-        <v>1.000706713780919</v>
+        <v>0.0007067137809186885</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22949,7 +22949,7 @@
         <v>0.9094769353054353</v>
       </c>
       <c r="K303">
-        <v>47.62963712677459</v>
+        <v>-0.02370362873225412</v>
       </c>
       <c r="L303">
         <v>-0.0001969400782894203</v>
@@ -22979,13 +22979,13 @@
         <v>-0.01124999999998977</v>
       </c>
       <c r="U303">
-        <v>0.9999450769315267</v>
+        <v>-5.492306847332262E-05</v>
       </c>
       <c r="V303">
-        <v>1.000031375009805</v>
+        <v>3.137500980465724E-05</v>
       </c>
       <c r="W303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -23020,7 +23020,7 @@
         <v>0.8596035934905289</v>
       </c>
       <c r="K304">
-        <v>46.22509853710427</v>
+        <v>-0.03774901462895724</v>
       </c>
       <c r="L304">
         <v>-0.0005514687210291876</v>
@@ -23050,13 +23050,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U304">
-        <v>0.99993722733122</v>
+        <v>-6.277266877996457E-05</v>
       </c>
       <c r="V304">
-        <v>0.999984312987278</v>
+        <v>-1.56870127220321E-05</v>
       </c>
       <c r="W304">
-        <v>0.9997645951035782</v>
+        <v>-0.0002354048964218203</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23091,7 +23091,7 @@
         <v>0.97505073129924</v>
       </c>
       <c r="K305">
-        <v>49.36838916830385</v>
+        <v>-0.0063161083169615</v>
       </c>
       <c r="L305">
         <v>-0.0007483850256610864</v>
@@ -23121,13 +23121,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U305">
-        <v>0.9999529175429236</v>
+        <v>-4.708245707640835E-05</v>
       </c>
       <c r="V305">
-        <v>1.000031374517617</v>
+        <v>3.137451761658916E-05</v>
       </c>
       <c r="W305">
-        <v>1.000470920649871</v>
+        <v>0.0004709206498705321</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23162,7 +23162,7 @@
         <v>0.919198700236191</v>
       </c>
       <c r="K306">
-        <v>47.89492094398915</v>
+        <v>-0.0210507905601085</v>
       </c>
       <c r="L306">
         <v>-0.0009202380717629759</v>
@@ -23192,13 +23192,13 @@
         <v>-0.04250000000000398</v>
       </c>
       <c r="U306">
-        <v>0.9999921525543433</v>
+        <v>-7.847445656739005E-06</v>
       </c>
       <c r="V306">
-        <v>0.9999686264667128</v>
+        <v>-3.137353328719339E-05</v>
       </c>
       <c r="W306">
-        <v>0.9997646505060013</v>
+        <v>-0.0002353494939987266</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23233,7 +23233,7 @@
         <v>0.8669265396133151</v>
       </c>
       <c r="K307">
-        <v>46.43602847881075</v>
+        <v>-0.03563971521189246</v>
       </c>
       <c r="L307">
         <v>-0.001148303167226742</v>
@@ -23263,13 +23263,13 @@
         <v>-0.03875000000000739</v>
       </c>
       <c r="U307">
-        <v>0.9999764574782821</v>
+        <v>-2.354252171787863E-05</v>
       </c>
       <c r="V307">
-        <v>0.9999215637059581</v>
+        <v>-7.843629404191699E-05</v>
       </c>
       <c r="W307">
-        <v>0.9997645951035782</v>
+        <v>-0.0002354048964218203</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23304,7 +23304,7 @@
         <v>0.8669265396133149</v>
       </c>
       <c r="K308">
-        <v>46.43602847881074</v>
+        <v>-0.03563971521189258</v>
       </c>
       <c r="L308">
         <v>-0.001391713946864137</v>
@@ -23334,13 +23334,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U308">
-        <v>0.9999843046160124</v>
+        <v>-1.569538398760173E-05</v>
       </c>
       <c r="V308">
-        <v>0.9998901805745122</v>
+        <v>-0.0001098194254878226</v>
       </c>
       <c r="W308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23375,7 +23375,7 @@
         <v>0.9929478047304894</v>
       </c>
       <c r="K309">
-        <v>49.8230712502161</v>
+        <v>-0.001769287497839001</v>
       </c>
       <c r="L309">
         <v>-0.001452452659787541</v>
@@ -23405,13 +23405,13 @@
         <v>-0.02124999999998067</v>
       </c>
       <c r="U309">
-        <v>1.000039239075841</v>
+        <v>3.923907584124642E-05</v>
       </c>
       <c r="V309">
-        <v>0.9999529293626637</v>
+        <v>-4.707063733633277E-05</v>
       </c>
       <c r="W309">
-        <v>1.000470920649871</v>
+        <v>0.0004709206498705321</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23446,7 +23446,7 @@
         <v>0.8766559222147374</v>
       </c>
       <c r="K310">
-        <v>46.71372689246898</v>
+        <v>-0.03286273107531024</v>
       </c>
       <c r="L310">
         <v>-0.001564759405337834</v>
@@ -23476,13 +23476,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U310">
-        <v>1.000031390028957</v>
+        <v>3.139002895724552E-05</v>
       </c>
       <c r="V310">
-        <v>0.9999215452448573</v>
+        <v>-7.845475514267619E-05</v>
       </c>
       <c r="W310">
-        <v>0.9995293010120028</v>
+        <v>-0.0004706989879972312</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23517,7 +23517,7 @@
         <v>0.8257555584921284</v>
       </c>
       <c r="K311">
-        <v>45.22815525064653</v>
+        <v>-0.04771844749353471</v>
       </c>
       <c r="L311">
         <v>-0.001781158876835645</v>
@@ -23547,13 +23547,13 @@
         <v>-0.01500000000001478</v>
       </c>
       <c r="U311">
-        <v>1.000023541782741</v>
+        <v>2.35417827407769E-05</v>
       </c>
       <c r="V311">
-        <v>0.999905846907071</v>
+        <v>-9.415309292903906E-05</v>
       </c>
       <c r="W311">
-        <v>0.9997645396750648</v>
+        <v>-0.000235460324935155</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23588,7 +23588,7 @@
         <v>0.9479912700788716</v>
       </c>
       <c r="K312">
-        <v>48.66506768485101</v>
+        <v>-0.0133493231514899</v>
       </c>
       <c r="L312">
         <v>-0.001868950976033824</v>
@@ -23618,13 +23618,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U312">
-        <v>1.000047082457077</v>
+        <v>4.708245707663039E-05</v>
       </c>
       <c r="V312">
-        <v>0.9999529190207156</v>
+        <v>-4.708097928440846E-05</v>
       </c>
       <c r="W312">
-        <v>1.000471031559114</v>
+        <v>0.000471031559114321</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23659,7 +23659,7 @@
         <v>0.9479912700788715</v>
       </c>
       <c r="K313">
-        <v>48.665067684851</v>
+        <v>-0.01334932315148996</v>
       </c>
       <c r="L313">
         <v>-0.001866427961750913</v>
@@ -23689,13 +23689,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U313">
-        <v>1.00005492694716</v>
+        <v>5.492694716013879E-05</v>
       </c>
       <c r="V313">
-        <v>0.9999372224053235</v>
+        <v>-6.277759467654409E-05</v>
       </c>
       <c r="W313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23730,7 +23730,7 @@
         <v>1.083432501753981</v>
       </c>
       <c r="K314">
-        <v>52.00228473165657</v>
+        <v>0.02002284731656578</v>
       </c>
       <c r="L314">
         <v>-0.001631141489475215</v>
@@ -23760,13 +23760,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U314">
-        <v>1.000062770206122</v>
+        <v>6.277020612199813E-05</v>
       </c>
       <c r="V314">
-        <v>1.000047086151963</v>
+        <v>4.708615196280519E-05</v>
       </c>
       <c r="W314">
-        <v>1.000470809792844</v>
+        <v>0.0004708097928438626</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23801,7 +23801,7 @@
         <v>0.843046654828616</v>
       </c>
       <c r="K315">
-        <v>45.74201378027571</v>
+        <v>-0.04257986219724297</v>
       </c>
       <c r="L315">
         <v>-0.001606709613496068</v>
@@ -23831,13 +23831,13 @@
         <v>0</v>
       </c>
       <c r="U315">
-        <v>1.000007845783283</v>
+        <v>7.845783283499941E-06</v>
       </c>
       <c r="V315">
-        <v>0.9999529160650386</v>
+        <v>-4.708393496144492E-05</v>
       </c>
       <c r="W315">
-        <v>0.9990588235294118</v>
+        <v>-0.0009411764705882231</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23872,7 +23872,7 @@
         <v>0.843046654828616</v>
       </c>
       <c r="K316">
-        <v>45.74201378027571</v>
+        <v>-0.04257986219724297</v>
       </c>
       <c r="L316">
         <v>-0.001705735087272486</v>
@@ -23902,13 +23902,13 @@
         <v>0.001249999999984652</v>
       </c>
       <c r="U316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V316">
-        <v>1.000015695383988</v>
+        <v>1.569538398760173E-05</v>
       </c>
       <c r="W316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -23943,7 +23943,7 @@
         <v>0.904507684617579</v>
       </c>
       <c r="K317">
-        <v>47.49299212196154</v>
+        <v>-0.02507007878038459</v>
       </c>
       <c r="L317">
         <v>-0.00178133168565327</v>
@@ -23973,13 +23973,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V317">
-        <v>0.9999843048623537</v>
+        <v>-1.569513764632102E-05</v>
       </c>
       <c r="W317">
-        <v>1.000235515779557</v>
+        <v>0.0002355157795572715</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -24014,7 +24014,7 @@
         <v>1.098595147109088</v>
       </c>
       <c r="K318">
-        <v>52.34907498106309</v>
+        <v>0.02349074981063093</v>
       </c>
       <c r="L318">
         <v>-0.00157429980902748</v>
@@ -24044,13 +24044,13 @@
         <v>-0.001249999999984652</v>
       </c>
       <c r="U318">
-        <v>1.000031382886912</v>
+        <v>3.138288691184599E-05</v>
       </c>
       <c r="V318">
-        <v>1.000031390767975</v>
+        <v>3.139076797520346E-05</v>
       </c>
       <c r="W318">
-        <v>1.000706380974806</v>
+        <v>0.0007063809748057981</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24085,7 +24085,7 @@
         <v>1.16669601114118</v>
       </c>
       <c r="K319">
-        <v>53.84677892708591</v>
+        <v>0.03846778927085914</v>
       </c>
       <c r="L319">
         <v>-0.001117778779895881</v>
@@ -24115,13 +24115,13 @@
         <v>0.007499999999993179</v>
       </c>
       <c r="U319">
-        <v>1.000023536426543</v>
+        <v>2.353642654284727E-05</v>
       </c>
       <c r="V319">
-        <v>1.000062779565252</v>
+        <v>6.277956525169159E-05</v>
       </c>
       <c r="W319">
-        <v>1.000235294117647</v>
+        <v>0.0002352941176471113</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24156,7 +24156,7 @@
         <v>1.088655603526905</v>
       </c>
       <c r="K320">
-        <v>52.12231263443339</v>
+        <v>0.02122312634433388</v>
       </c>
       <c r="L320">
         <v>-0.0006208338939555914</v>
@@ -24186,13 +24186,13 @@
         <v>0.008749999999992042</v>
       </c>
       <c r="U320">
-        <v>1.000023535872592</v>
+        <v>2.353587259240619E-05</v>
       </c>
       <c r="V320">
-        <v>1.000015693906056</v>
+        <v>1.569390605626886E-05</v>
       </c>
       <c r="W320">
-        <v>0.9997647612326512</v>
+        <v>-0.0002352387673487666</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24227,7 +24227,7 @@
         <v>0.9542735989486782</v>
       </c>
       <c r="K321">
-        <v>48.83009213561702</v>
+        <v>-0.0116990786438298</v>
       </c>
       <c r="L321">
         <v>-0.0003002330148548001</v>
@@ -24257,13 +24257,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U321">
-        <v>0.9999843097875545</v>
+        <v>-1.569021244551827E-05</v>
       </c>
       <c r="V321">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W321">
-        <v>0.9995294117647058</v>
+        <v>-0.0004705882352942226</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24298,7 +24298,7 @@
         <v>0.9542735989486781</v>
       </c>
       <c r="K322">
-        <v>48.83009213561702</v>
+        <v>-0.01169907864382985</v>
       </c>
       <c r="L322">
         <v>-0.0001058062404258905</v>
@@ -24328,13 +24328,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U322">
-        <v>0.9999686190827359</v>
+        <v>-3.138091726406778E-05</v>
       </c>
       <c r="V322">
-        <v>1.000015693659762</v>
+        <v>1.56936597615065E-05</v>
       </c>
       <c r="W322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24369,7 +24369,7 @@
         <v>0.9542735989486781</v>
       </c>
       <c r="K323">
-        <v>48.83009213561702</v>
+        <v>-0.01169907864382985</v>
       </c>
       <c r="L323">
         <v>1.752045063681971E-07</v>
@@ -24399,13 +24399,13 @@
         <v>0.008750000000006253</v>
       </c>
       <c r="U323">
-        <v>0.9999529271469143</v>
+        <v>-4.707285308569453E-05</v>
       </c>
       <c r="V323">
-        <v>1.000015693413474</v>
+        <v>1.569341347429365E-05</v>
       </c>
       <c r="W323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24440,7 +24440,7 @@
         <v>0.9542735989486781</v>
       </c>
       <c r="K324">
-        <v>48.83009213561702</v>
+        <v>-0.01169907864382985</v>
       </c>
       <c r="L324">
         <v>4.581953890438154E-05</v>
@@ -24470,13 +24470,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U324">
-        <v>0.9999686166206379</v>
+        <v>-3.138337936214874E-05</v>
       </c>
       <c r="V324">
-        <v>0.9999843068328051</v>
+        <v>-1.569316719485236E-05</v>
       </c>
       <c r="W324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24511,7 +24511,7 @@
         <v>0.8870568303295399</v>
       </c>
       <c r="K325">
-        <v>47.00742532351989</v>
+        <v>-0.02992574676480109</v>
       </c>
       <c r="L325">
         <v>-3.387972927497546E-05</v>
@@ -24541,13 +24541,13 @@
         <v>0.01499999999998636</v>
       </c>
       <c r="U325">
-        <v>0.9999607695446129</v>
+        <v>-3.923045538711811E-05</v>
       </c>
       <c r="V325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W325">
-        <v>0.9997645951035782</v>
+        <v>-0.0002354048964218203</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24582,7 +24582,7 @@
         <v>0.8870568303295399</v>
       </c>
       <c r="K326">
-        <v>47.00742532351989</v>
+        <v>-0.02992574676480109</v>
       </c>
       <c r="L326">
         <v>-0.0001843133797027448</v>
@@ -24612,13 +24612,13 @@
         <v>0.00750000000000739</v>
       </c>
       <c r="U326">
-        <v>0.9999607680055239</v>
+        <v>-3.92319944760855E-05</v>
       </c>
       <c r="V326">
-        <v>1.000015693413474</v>
+        <v>1.56934134740716E-05</v>
       </c>
       <c r="W326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24653,7 +24653,7 @@
         <v>0.965104063391921</v>
       </c>
       <c r="K327">
-        <v>49.11210970303919</v>
+        <v>-0.008878902969608138</v>
       </c>
       <c r="L327">
         <v>-0.0002816287041896956</v>
@@ -24683,13 +24683,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U327">
-        <v>0.9999764598797883</v>
+        <v>-2.354012021166252E-05</v>
       </c>
       <c r="V327">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W327">
-        <v>1.000235460324935</v>
+        <v>0.000235460324935266</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24724,7 +24724,7 @@
         <v>0.965104063391921</v>
       </c>
       <c r="K328">
-        <v>49.11210970303919</v>
+        <v>-0.008878902969608138</v>
       </c>
       <c r="L328">
         <v>-0.0003395370779136998</v>
@@ -24754,13 +24754,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U328">
-        <v>0.9999686124341841</v>
+        <v>-3.138756581588797E-05</v>
       </c>
       <c r="V328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:23">
@@ -24795,7 +24795,7 @@
         <v>1.051582991992959</v>
       </c>
       <c r="K329">
-        <v>51.25715099497022</v>
+        <v>0.01257150994970224</v>
       </c>
       <c r="L329">
         <v>-0.0002829303002783765</v>
@@ -24825,13 +24825,13 @@
         <v>-0.006250000000008527</v>
       </c>
       <c r="U329">
-        <v>1.000015694275513</v>
+        <v>1.569427551295632E-05</v>
       </c>
       <c r="V329">
-        <v>0.9999843068328051</v>
+        <v>-1.569316719485236E-05</v>
       </c>
       <c r="W329">
-        <v>1.000235404896422</v>
+        <v>0.0002354048964219313</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -24866,7 +24866,7 @@
         <v>0.8896182844140297</v>
       </c>
       <c r="K330">
-        <v>47.07925890386376</v>
+        <v>-0.02920741096136242</v>
       </c>
       <c r="L330">
         <v>-0.0003309536636681283</v>
@@ -24896,13 +24896,13 @@
         <v>-0.005000000000009663</v>
       </c>
       <c r="U330">
-        <v>0.9999843059707934</v>
+        <v>-1.569402920664764E-05</v>
       </c>
       <c r="V330">
-        <v>1.000015693413474</v>
+        <v>1.569341347429365E-05</v>
       </c>
       <c r="W330">
-        <v>0.9995293010120028</v>
+        <v>-0.0004706989879972312</v>
       </c>
     </row>
     <row r="331" spans="1:23">
@@ -24937,7 +24937,7 @@
         <v>0.8896182844140298</v>
       </c>
       <c r="K331">
-        <v>47.07925890386376</v>
+        <v>-0.02920741096136242</v>
       </c>
       <c r="L331">
         <v>-0.0004381003946263295</v>
@@ -24967,13 +24967,13 @@
         <v>-0.008749999999992042</v>
       </c>
       <c r="U331">
-        <v>1.000015694275513</v>
+        <v>1.569427551295632E-05</v>
       </c>
       <c r="V331">
-        <v>1.000015693167195</v>
+        <v>1.569316719485236E-05</v>
       </c>
       <c r="W331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:23">
@@ -25008,7 +25008,7 @@
         <v>0.9749478690651037</v>
       </c>
       <c r="K332">
-        <v>49.36575209585772</v>
+        <v>-0.006342479041422822</v>
       </c>
       <c r="L332">
         <v>-0.0004869279235277278</v>
@@ -25038,13 +25038,13 @@
         <v>-0.01124999999998977</v>
       </c>
       <c r="U332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V332">
-        <v>1.000015692920924</v>
+        <v>1.569292092362673E-05</v>
       </c>
       <c r="W332">
-        <v>1.000235460324935</v>
+        <v>0.000235460324935266</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -25079,7 +25079,7 @@
         <v>0.8945948124567462</v>
       </c>
       <c r="K333">
-        <v>47.21826569854866</v>
+        <v>-0.02781734301451338</v>
       </c>
       <c r="L333">
         <v>-0.0005812557763402936</v>
@@ -25109,13 +25109,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U333">
-        <v>0.9999921529853966</v>
+        <v>-7.847014603434843E-06</v>
       </c>
       <c r="V333">
-        <v>0.9999529219760217</v>
+        <v>-4.707802397829752E-05</v>
       </c>
       <c r="W333">
-        <v>0.9997645951035782</v>
+        <v>-0.0002354048964218203</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -25150,7 +25150,7 @@
         <v>0.8231794080039667</v>
       </c>
       <c r="K334">
-        <v>45.15076269456065</v>
+        <v>-0.04849237305439352</v>
       </c>
       <c r="L334">
         <v>-0.0007807396947716745</v>
@@ -25180,13 +25180,13 @@
         <v>-0.008750000000006253</v>
       </c>
       <c r="U334">
-        <v>0.9999921529238207</v>
+        <v>-7.847076179290369E-06</v>
       </c>
       <c r="V334">
-        <v>0.9999215329326282</v>
+        <v>-7.846706737180131E-05</v>
       </c>
       <c r="W334">
-        <v>0.9997645396750648</v>
+        <v>-0.000235460324935155</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -25221,7 +25221,7 @@
         <v>0.8231794080039668</v>
       </c>
       <c r="K335">
-        <v>45.15076269456065</v>
+        <v>-0.04849237305439352</v>
       </c>
       <c r="L335">
         <v>-0.001028379132633256</v>
@@ -25251,13 +25251,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U335">
-        <v>0.9999764585867307</v>
+        <v>-2.354141326932346E-05</v>
       </c>
       <c r="V335">
-        <v>0.9999372214200513</v>
+        <v>-6.277857994874125E-05</v>
       </c>
       <c r="W335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:23">
@@ -25292,7 +25292,7 @@
         <v>0.7562830207539136</v>
       </c>
       <c r="K336">
-        <v>43.06156876864109</v>
+        <v>-0.0693843123135891</v>
       </c>
       <c r="L336">
         <v>-0.001371390659192856</v>
@@ -25322,13 +25322,13 @@
         <v>-0.008749999999992042</v>
       </c>
       <c r="U336">
-        <v>0.999976458032519</v>
+        <v>-2.354196748100001E-05</v>
       </c>
       <c r="V336">
-        <v>0.9999529131089906</v>
+        <v>-4.708689100940688E-05</v>
       </c>
       <c r="W336">
-        <v>0.9997644842204428</v>
+        <v>-0.0002355157795571605</v>
       </c>
     </row>
     <row r="337" spans="1:23">
@@ -25363,7 +25363,7 @@
         <v>0.7562830207539138</v>
       </c>
       <c r="K337">
-        <v>43.0615687686411</v>
+        <v>-0.06938431231358899</v>
       </c>
       <c r="L337">
         <v>-0.00174533936833889</v>
@@ -25393,13 +25393,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U337">
-        <v>0.9999843049855215</v>
+        <v>-1.569501447851174E-05</v>
       </c>
       <c r="V337">
-        <v>0.9999529108917107</v>
+        <v>-4.708910828932211E-05</v>
       </c>
       <c r="W337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:23">
@@ -25434,7 +25434,7 @@
         <v>1.02641886254598</v>
       </c>
       <c r="K338">
-        <v>50.6518608525186</v>
+        <v>0.006518608525186043</v>
       </c>
       <c r="L338">
         <v>-0.001850694321548395</v>
@@ -25464,13 +25464,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U338">
-        <v>1.000007847630408</v>
+        <v>7.847630407953332E-06</v>
       </c>
       <c r="V338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W338">
-        <v>1.000706713780919</v>
+        <v>0.0007067137809186885</v>
       </c>
     </row>
     <row r="339" spans="1:23">
@@ -25505,7 +25505,7 @@
         <v>0.937553333118947</v>
       </c>
       <c r="K339">
-        <v>48.38851747165766</v>
+        <v>-0.01611482528342345</v>
       </c>
       <c r="L339">
         <v>-0.001865591624457655</v>
@@ -25535,13 +25535,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U339">
-        <v>0.9999843048623537</v>
+        <v>-1.569513764632102E-05</v>
       </c>
       <c r="V339">
-        <v>0.9999843028914074</v>
+        <v>-1.569710859261608E-05</v>
       </c>
       <c r="W339">
-        <v>0.9997645951035782</v>
+        <v>-0.0002354048964218203</v>
       </c>
     </row>
     <row r="340" spans="1:23">
@@ -25576,7 +25576,7 @@
         <v>0.859245968891272</v>
       </c>
       <c r="K340">
-        <v>46.21475497422581</v>
+        <v>-0.03785245025774187</v>
       </c>
       <c r="L340">
         <v>-0.001903667360479162</v>
@@ -25606,13 +25606,13 @@
         <v>-0.01374999999998749</v>
       </c>
       <c r="U340">
-        <v>0.9999921523080063</v>
+        <v>-7.847691993689843E-06</v>
       </c>
       <c r="V340">
-        <v>0.9999843026450043</v>
+        <v>-1.569735499573621E-05</v>
       </c>
       <c r="W340">
-        <v>0.9997645396750648</v>
+        <v>-0.000235460324935155</v>
       </c>
     </row>
     <row r="341" spans="1:23">
@@ -25647,7 +25647,7 @@
         <v>0.8592459688912719</v>
       </c>
       <c r="K341">
-        <v>46.21475497422581</v>
+        <v>-0.03785245025774198</v>
       </c>
       <c r="L341">
         <v>-0.001946430970672039</v>
@@ -25677,13 +25677,13 @@
         <v>-0.01499999999998636</v>
       </c>
       <c r="U341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V341">
-        <v>0.9999843023985935</v>
+        <v>-1.569760140651688E-05</v>
       </c>
       <c r="W341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:23">
@@ -25718,7 +25718,7 @@
         <v>0.5874254761633869</v>
       </c>
       <c r="K342">
-        <v>37.00491676517139</v>
+        <v>-0.1299508323482861</v>
       </c>
       <c r="L342">
         <v>-0.002410862872964819</v>
@@ -25748,13 +25748,13 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="U342">
-        <v>0.9999450657249361</v>
+        <v>-5.493427506386706E-05</v>
       </c>
       <c r="V342">
-        <v>0.9998901150652247</v>
+        <v>-0.0001098849347752617</v>
       </c>
       <c r="W342">
-        <v>0.9988224211022138</v>
+        <v>-0.001177578897786247</v>
       </c>
     </row>
     <row r="343" spans="1:23">
@@ -25789,7 +25789,7 @@
         <v>0.4896034213644623</v>
       </c>
       <c r="K343">
-        <v>32.86803818670008</v>
+        <v>-0.1713196181329992</v>
       </c>
       <c r="L343">
         <v>-0.003349604891083328</v>
@@ -25819,13 +25819,13 @@
         <v>-0.02750000000001762</v>
       </c>
       <c r="U343">
-        <v>0.9999215181528514</v>
+        <v>-7.848184714864814E-05</v>
       </c>
       <c r="V343">
-        <v>0.9998430042702836</v>
+        <v>-0.0001569957297163915</v>
       </c>
       <c r="W343">
-        <v>0.9992926196651735</v>
+        <v>-0.0007073803348265351</v>
       </c>
     </row>
     <row r="344" spans="1:23">
@@ -25860,7 +25860,7 @@
         <v>0.4896034213644623</v>
       </c>
       <c r="K344">
-        <v>32.86803818670008</v>
+        <v>-0.1713196181329992</v>
       </c>
       <c r="L344">
         <v>-0.004503757049629278</v>
@@ -25890,13 +25890,13 @@
         <v>-0.03249999999999886</v>
       </c>
       <c r="U344">
-        <v>0.9999058143915609</v>
+        <v>-9.418560843910129E-05</v>
       </c>
       <c r="V344">
-        <v>0.9998272775806301</v>
+        <v>-0.0001727224193699417</v>
       </c>
       <c r="W344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
